--- a/BackTest/2019-10-15 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-15 BackTest WAVES.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>15</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-69.23076923076923</v>
+      </c>
       <c r="L12" t="n">
         <v>1011.8</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>15</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-20</v>
+      </c>
       <c r="L13" t="n">
         <v>1010.9</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>15</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L14" t="n">
         <v>1010.8</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>15</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>1010.9</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>15</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>1010.9</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>15</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>100</v>
+      </c>
       <c r="L17" t="n">
         <v>1010.9</v>
       </c>
@@ -1322,7 +1334,9 @@
       <c r="J21" t="n">
         <v>19</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-100</v>
+      </c>
       <c r="L21" t="n">
         <v>1010.6</v>
       </c>
@@ -1369,7 +1383,9 @@
       <c r="J22" t="n">
         <v>20</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-60</v>
+      </c>
       <c r="L22" t="n">
         <v>1010.3</v>
       </c>
@@ -1417,7 +1433,7 @@
         <v>20</v>
       </c>
       <c r="K23" t="n">
-        <v>-66.66666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L23" t="n">
         <v>1010</v>
@@ -1466,7 +1482,7 @@
         <v>20</v>
       </c>
       <c r="K24" t="n">
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="L24" t="n">
         <v>1009.7</v>
@@ -1515,7 +1531,7 @@
         <v>20</v>
       </c>
       <c r="K25" t="n">
-        <v>-25</v>
+        <v>-60</v>
       </c>
       <c r="L25" t="n">
         <v>1009.4</v>
@@ -1564,7 +1580,7 @@
         <v>20</v>
       </c>
       <c r="K26" t="n">
-        <v>-42.85714285714285</v>
+        <v>-60</v>
       </c>
       <c r="L26" t="n">
         <v>1009.1</v>
@@ -1613,7 +1629,7 @@
         <v>20</v>
       </c>
       <c r="K27" t="n">
-        <v>-42.85714285714285</v>
+        <v>-60</v>
       </c>
       <c r="L27" t="n">
         <v>1008.8</v>
@@ -1662,7 +1678,7 @@
         <v>20</v>
       </c>
       <c r="K28" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L28" t="n">
         <v>1008.5</v>
@@ -1760,7 +1776,7 @@
         <v>21</v>
       </c>
       <c r="K30" t="n">
-        <v>-66.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>1007.7</v>
@@ -1809,7 +1825,7 @@
         <v>22</v>
       </c>
       <c r="K31" t="n">
-        <v>-71.42857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L31" t="n">
         <v>1007.6</v>
@@ -1860,7 +1876,7 @@
         <v>22</v>
       </c>
       <c r="K32" t="n">
-        <v>-71.42857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L32" t="n">
         <v>1007.4</v>
@@ -1911,7 +1927,7 @@
         <v>22</v>
       </c>
       <c r="K33" t="n">
-        <v>-71.42857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L33" t="n">
         <v>1007.2</v>
@@ -1962,7 +1978,7 @@
         <v>27</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L34" t="n">
         <v>1007.5</v>
@@ -2013,7 +2029,7 @@
         <v>28</v>
       </c>
       <c r="K35" t="n">
-        <v>-7.692307692307693</v>
+        <v>25</v>
       </c>
       <c r="L35" t="n">
         <v>1007.7</v>
@@ -2064,7 +2080,7 @@
         <v>29</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L36" t="n">
         <v>1008</v>
@@ -2115,7 +2131,7 @@
         <v>34</v>
       </c>
       <c r="K37" t="n">
-        <v>-26.31578947368421</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L37" t="n">
         <v>1007.8</v>
@@ -2166,7 +2182,7 @@
         <v>38</v>
       </c>
       <c r="K38" t="n">
-        <v>-4.347826086956522</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L38" t="n">
         <v>1008</v>
@@ -2217,7 +2233,7 @@
         <v>38</v>
       </c>
       <c r="K39" t="n">
-        <v>-4.347826086956522</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L39" t="n">
         <v>1008.3</v>
@@ -2268,7 +2284,7 @@
         <v>38</v>
       </c>
       <c r="K40" t="n">
-        <v>-4.347826086956522</v>
+        <v>25</v>
       </c>
       <c r="L40" t="n">
         <v>1008.6</v>
@@ -2319,7 +2335,7 @@
         <v>39</v>
       </c>
       <c r="K41" t="n">
-        <v>20</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L41" t="n">
         <v>1009.1</v>
@@ -2370,7 +2386,7 @@
         <v>44</v>
       </c>
       <c r="K42" t="n">
-        <v>-8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>1009.1</v>
@@ -2421,7 +2437,7 @@
         <v>49</v>
       </c>
       <c r="K43" t="n">
-        <v>10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>1009.6</v>
@@ -2472,7 +2488,7 @@
         <v>49</v>
       </c>
       <c r="K44" t="n">
-        <v>10.3448275862069</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L44" t="n">
         <v>1009.6</v>
@@ -2523,7 +2539,7 @@
         <v>49</v>
       </c>
       <c r="K45" t="n">
-        <v>10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>1009.7</v>
@@ -2574,7 +2590,7 @@
         <v>54</v>
       </c>
       <c r="K46" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>1009.2</v>
@@ -2625,7 +2641,7 @@
         <v>59</v>
       </c>
       <c r="K47" t="n">
-        <v>7.692307692307693</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L47" t="n">
         <v>1009.7</v>
@@ -2676,7 +2692,7 @@
         <v>59</v>
       </c>
       <c r="K48" t="n">
-        <v>7.692307692307693</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L48" t="n">
         <v>1009.8</v>
@@ -2727,7 +2743,7 @@
         <v>60</v>
       </c>
       <c r="K49" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>1009.8</v>
@@ -2778,7 +2794,7 @@
         <v>60</v>
       </c>
       <c r="K50" t="n">
-        <v>7.692307692307693</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L50" t="n">
         <v>1009.8</v>
@@ -2829,7 +2845,7 @@
         <v>63</v>
       </c>
       <c r="K51" t="n">
-        <v>17.07317073170732</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L51" t="n">
         <v>1010</v>
@@ -2880,7 +2896,7 @@
         <v>63</v>
       </c>
       <c r="K52" t="n">
-        <v>17.07317073170732</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L52" t="n">
         <v>1010.7</v>
@@ -2931,7 +2947,7 @@
         <v>66</v>
       </c>
       <c r="K53" t="n">
-        <v>9.090909090909092</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L53" t="n">
         <v>1010.6</v>
@@ -2982,7 +2998,7 @@
         <v>66</v>
       </c>
       <c r="K54" t="n">
-        <v>-2.564102564102564</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L54" t="n">
         <v>1010.5</v>
@@ -3033,7 +3049,7 @@
         <v>70</v>
       </c>
       <c r="K55" t="n">
-        <v>9.523809523809524</v>
+        <v>50</v>
       </c>
       <c r="L55" t="n">
         <v>1010.8</v>
@@ -3135,7 +3151,7 @@
         <v>74</v>
       </c>
       <c r="K57" t="n">
-        <v>15</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L57" t="n">
         <v>1011.4</v>
@@ -3186,7 +3202,7 @@
         <v>80</v>
       </c>
       <c r="K58" t="n">
-        <v>19.04761904761905</v>
+        <v>40</v>
       </c>
       <c r="L58" t="n">
         <v>1012.1</v>
@@ -3237,7 +3253,7 @@
         <v>80</v>
       </c>
       <c r="K59" t="n">
-        <v>19.04761904761905</v>
+        <v>40</v>
       </c>
       <c r="L59" t="n">
         <v>1012.9</v>
@@ -3288,7 +3304,7 @@
         <v>80</v>
       </c>
       <c r="K60" t="n">
-        <v>19.04761904761905</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L60" t="n">
         <v>1013.7</v>
@@ -3339,7 +3355,7 @@
         <v>80</v>
       </c>
       <c r="K61" t="n">
-        <v>17.07317073170732</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L61" t="n">
         <v>1014.2</v>
@@ -3390,7 +3406,7 @@
         <v>80</v>
       </c>
       <c r="K62" t="n">
-        <v>33.33333333333333</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L62" t="n">
         <v>1014.7</v>
@@ -3441,7 +3457,7 @@
         <v>83</v>
       </c>
       <c r="K63" t="n">
-        <v>29.41176470588236</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L63" t="n">
         <v>1015.8</v>
@@ -3492,7 +3508,7 @@
         <v>83</v>
       </c>
       <c r="K64" t="n">
-        <v>29.41176470588236</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L64" t="n">
         <v>1016.9</v>
@@ -3543,7 +3559,7 @@
         <v>84</v>
       </c>
       <c r="K65" t="n">
-        <v>25.71428571428571</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L65" t="n">
         <v>1017.5</v>
@@ -3594,7 +3610,7 @@
         <v>85</v>
       </c>
       <c r="K66" t="n">
-        <v>48.38709677419355</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L66" t="n">
         <v>1018.5</v>
@@ -3645,7 +3661,7 @@
         <v>87</v>
       </c>
       <c r="K67" t="n">
-        <v>42.85714285714285</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L67" t="n">
         <v>1019.6</v>
@@ -3696,7 +3712,7 @@
         <v>87</v>
       </c>
       <c r="K68" t="n">
-        <v>42.85714285714285</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L68" t="n">
         <v>1020.1</v>
@@ -3747,7 +3763,7 @@
         <v>89</v>
       </c>
       <c r="K69" t="n">
-        <v>51.72413793103448</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L69" t="n">
         <v>1020.8</v>
@@ -3798,7 +3814,7 @@
         <v>91</v>
       </c>
       <c r="K70" t="n">
-        <v>41.93548387096774</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L70" t="n">
         <v>1021.3</v>
@@ -3849,7 +3865,7 @@
         <v>91</v>
       </c>
       <c r="K71" t="n">
-        <v>35.71428571428572</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L71" t="n">
         <v>1021.8</v>
@@ -3900,7 +3916,7 @@
         <v>91</v>
       </c>
       <c r="K72" t="n">
-        <v>35.71428571428572</v>
+        <v>25</v>
       </c>
       <c r="L72" t="n">
         <v>1022.3</v>
@@ -3951,7 +3967,7 @@
         <v>92</v>
       </c>
       <c r="K73" t="n">
-        <v>53.84615384615385</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L73" t="n">
         <v>1022.6</v>
@@ -4002,7 +4018,7 @@
         <v>95</v>
       </c>
       <c r="K74" t="n">
-        <v>37.93103448275862</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L74" t="n">
         <v>1022.6</v>
@@ -4053,7 +4069,7 @@
         <v>99</v>
       </c>
       <c r="K75" t="n">
-        <v>37.93103448275862</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L75" t="n">
         <v>1023.1</v>
@@ -4104,7 +4120,7 @@
         <v>99</v>
       </c>
       <c r="K76" t="n">
-        <v>53.84615384615385</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L76" t="n">
         <v>1023.5</v>
@@ -4155,7 +4171,7 @@
         <v>99</v>
       </c>
       <c r="K77" t="n">
-        <v>52</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L77" t="n">
         <v>1023.7</v>
@@ -4206,7 +4222,7 @@
         <v>99</v>
       </c>
       <c r="K78" t="n">
-        <v>36.84210526315789</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>1023.9</v>
@@ -4257,7 +4273,7 @@
         <v>99</v>
       </c>
       <c r="K79" t="n">
-        <v>36.84210526315789</v>
+        <v>25</v>
       </c>
       <c r="L79" t="n">
         <v>1023.9</v>
@@ -4308,7 +4324,7 @@
         <v>99</v>
       </c>
       <c r="K80" t="n">
-        <v>36.84210526315789</v>
+        <v>25</v>
       </c>
       <c r="L80" t="n">
         <v>1024.1</v>
@@ -4359,7 +4375,7 @@
         <v>99</v>
       </c>
       <c r="K81" t="n">
-        <v>36.84210526315789</v>
+        <v>25</v>
       </c>
       <c r="L81" t="n">
         <v>1024.3</v>
@@ -4461,7 +4477,7 @@
         <v>113</v>
       </c>
       <c r="K83" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L83" t="n">
         <v>1026.5</v>
@@ -4512,7 +4528,7 @@
         <v>113</v>
       </c>
       <c r="K84" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L84" t="n">
         <v>1028.3</v>
@@ -4563,7 +4579,7 @@
         <v>116</v>
       </c>
       <c r="K85" t="n">
-        <v>68.75</v>
+        <v>100</v>
       </c>
       <c r="L85" t="n">
         <v>1030</v>
@@ -4614,7 +4630,7 @@
         <v>119</v>
       </c>
       <c r="K86" t="n">
-        <v>52.94117647058824</v>
+        <v>70</v>
       </c>
       <c r="L86" t="n">
         <v>1031.4</v>
@@ -4665,7 +4681,7 @@
         <v>119</v>
       </c>
       <c r="K87" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L87" t="n">
         <v>1032.8</v>
@@ -4716,7 +4732,7 @@
         <v>122</v>
       </c>
       <c r="K88" t="n">
-        <v>54.28571428571428</v>
+        <v>73.91304347826086</v>
       </c>
       <c r="L88" t="n">
         <v>1034.5</v>
@@ -4767,7 +4783,7 @@
         <v>124</v>
       </c>
       <c r="K89" t="n">
-        <v>54.28571428571428</v>
+        <v>76</v>
       </c>
       <c r="L89" t="n">
         <v>1036.4</v>
@@ -4818,7 +4834,7 @@
         <v>124</v>
       </c>
       <c r="K90" t="n">
-        <v>63.63636363636363</v>
+        <v>76</v>
       </c>
       <c r="L90" t="n">
         <v>1038.3</v>
@@ -4869,7 +4885,7 @@
         <v>124</v>
       </c>
       <c r="K91" t="n">
-        <v>63.63636363636363</v>
+        <v>70</v>
       </c>
       <c r="L91" t="n">
         <v>1040.2</v>
@@ -4920,7 +4936,7 @@
         <v>131</v>
       </c>
       <c r="K92" t="n">
-        <v>35</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L92" t="n">
         <v>1040.9</v>
@@ -4971,7 +4987,7 @@
         <v>133</v>
       </c>
       <c r="K93" t="n">
-        <v>36.58536585365854</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>1040.9</v>
@@ -5022,7 +5038,7 @@
         <v>133</v>
       </c>
       <c r="K94" t="n">
-        <v>47.36842105263158</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L94" t="n">
         <v>1040.9</v>
@@ -5073,7 +5089,7 @@
         <v>134</v>
       </c>
       <c r="K95" t="n">
-        <v>37.14285714285715</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L95" t="n">
         <v>1040.5</v>
@@ -5124,7 +5140,7 @@
         <v>135</v>
       </c>
       <c r="K96" t="n">
-        <v>33.33333333333333</v>
+        <v>-12.5</v>
       </c>
       <c r="L96" t="n">
         <v>1040.3</v>
@@ -5175,7 +5191,7 @@
         <v>139</v>
       </c>
       <c r="K97" t="n">
-        <v>20</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L97" t="n">
         <v>1039.7</v>
@@ -5226,7 +5242,7 @@
         <v>143</v>
       </c>
       <c r="K98" t="n">
-        <v>27.27272727272727</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L98" t="n">
         <v>1039.2</v>
@@ -5277,7 +5293,7 @@
         <v>143</v>
       </c>
       <c r="K99" t="n">
-        <v>27.27272727272727</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L99" t="n">
         <v>1038.5</v>
@@ -5328,7 +5344,7 @@
         <v>148</v>
       </c>
       <c r="K100" t="n">
-        <v>14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L100" t="n">
         <v>1037.3</v>
@@ -5379,7 +5395,7 @@
         <v>150</v>
       </c>
       <c r="K101" t="n">
-        <v>9.803921568627452</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L101" t="n">
         <v>1035.9</v>
@@ -5430,7 +5446,7 @@
         <v>151</v>
       </c>
       <c r="K102" t="n">
-        <v>-2.127659574468085</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L102" t="n">
         <v>1035.1</v>
@@ -5481,7 +5497,7 @@
         <v>156</v>
       </c>
       <c r="K103" t="n">
-        <v>-11.62790697674419</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L103" t="n">
         <v>1034.6</v>
@@ -5532,7 +5548,7 @@
         <v>157</v>
       </c>
       <c r="K104" t="n">
-        <v>-9.090909090909092</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L104" t="n">
         <v>1034.2</v>
@@ -5583,7 +5599,7 @@
         <v>157</v>
       </c>
       <c r="K105" t="n">
-        <v>-17.07317073170732</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L105" t="n">
         <v>1033.9</v>
@@ -5634,7 +5650,7 @@
         <v>158</v>
       </c>
       <c r="K106" t="n">
-        <v>-7.692307692307693</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L106" t="n">
         <v>1033.8</v>
@@ -5685,7 +5701,7 @@
         <v>163</v>
       </c>
       <c r="K107" t="n">
-        <v>-18.18181818181818</v>
+        <v>-30</v>
       </c>
       <c r="L107" t="n">
         <v>1033.6</v>
@@ -5736,7 +5752,7 @@
         <v>167</v>
       </c>
       <c r="K108" t="n">
-        <v>-15.55555555555556</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L108" t="n">
         <v>1033.4</v>
@@ -5787,7 +5803,7 @@
         <v>169</v>
       </c>
       <c r="K109" t="n">
-        <v>-15.55555555555556</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L109" t="n">
         <v>1033.4</v>
@@ -5838,7 +5854,7 @@
         <v>174</v>
       </c>
       <c r="K110" t="n">
-        <v>-24</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L110" t="n">
         <v>1033.4</v>
@@ -5889,7 +5905,7 @@
         <v>178</v>
       </c>
       <c r="K111" t="n">
-        <v>-14.81481481481481</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L111" t="n">
         <v>1034</v>
@@ -5940,7 +5956,7 @@
         <v>183</v>
       </c>
       <c r="K112" t="n">
-        <v>-11.53846153846154</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L112" t="n">
         <v>1034.2</v>
@@ -5991,7 +6007,7 @@
         <v>187</v>
       </c>
       <c r="K113" t="n">
-        <v>-7.407407407407407</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>1034.3</v>
@@ -6042,7 +6058,7 @@
         <v>188</v>
       </c>
       <c r="K114" t="n">
-        <v>-5.454545454545454</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L114" t="n">
         <v>1034.4</v>
@@ -6093,7 +6109,7 @@
         <v>192</v>
       </c>
       <c r="K115" t="n">
-        <v>-10.3448275862069</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L115" t="n">
         <v>1034.1</v>
@@ -6144,7 +6160,7 @@
         <v>195</v>
       </c>
       <c r="K116" t="n">
-        <v>-3.333333333333333</v>
+        <v>12.5</v>
       </c>
       <c r="L116" t="n">
         <v>1034</v>
@@ -6195,7 +6211,7 @@
         <v>196</v>
       </c>
       <c r="K117" t="n">
-        <v>5.263157894736842</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L117" t="n">
         <v>1034.5</v>
@@ -6297,7 +6313,7 @@
         <v>197</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L119" t="n">
         <v>1034.7</v>
@@ -6348,7 +6364,7 @@
         <v>197</v>
       </c>
       <c r="K120" t="n">
-        <v>10.20408163265306</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L120" t="n">
         <v>1035.2</v>
@@ -6399,7 +6415,7 @@
         <v>202</v>
       </c>
       <c r="K121" t="n">
-        <v>3.846153846153846</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L121" t="n">
         <v>1034.8</v>
@@ -6450,7 +6466,7 @@
         <v>207</v>
       </c>
       <c r="K122" t="n">
-        <v>14.28571428571428</v>
+        <v>10</v>
       </c>
       <c r="L122" t="n">
         <v>1035.4</v>
@@ -6501,7 +6517,7 @@
         <v>208</v>
       </c>
       <c r="K123" t="n">
-        <v>3.846153846153846</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>1035.5</v>
@@ -6552,7 +6568,7 @@
         <v>210</v>
       </c>
       <c r="K124" t="n">
-        <v>5.660377358490567</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L124" t="n">
         <v>1035.7</v>
@@ -6603,7 +6619,7 @@
         <v>216</v>
       </c>
       <c r="K125" t="n">
-        <v>-5.084745762711865</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L125" t="n">
         <v>1035.7</v>
@@ -6705,7 +6721,7 @@
         <v>224</v>
       </c>
       <c r="K127" t="n">
-        <v>1.639344262295082</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L127" t="n">
         <v>1035.4</v>
@@ -6756,7 +6772,7 @@
         <v>225</v>
       </c>
       <c r="K128" t="n">
-        <v>-3.448275862068965</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L128" t="n">
         <v>1035</v>
@@ -6807,7 +6823,7 @@
         <v>225</v>
       </c>
       <c r="K129" t="n">
-        <v>-7.142857142857142</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L129" t="n">
         <v>1034.6</v>
@@ -6858,7 +6874,7 @@
         <v>225</v>
       </c>
       <c r="K130" t="n">
-        <v>1.96078431372549</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L130" t="n">
         <v>1034.2</v>
@@ -6909,7 +6925,7 @@
         <v>225</v>
       </c>
       <c r="K131" t="n">
-        <v>-6.382978723404255</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L131" t="n">
         <v>1034.3</v>
@@ -6960,7 +6976,7 @@
         <v>227</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L132" t="n">
         <v>1033.7</v>
@@ -7011,7 +7027,7 @@
         <v>228</v>
       </c>
       <c r="K133" t="n">
-        <v>-7.317073170731707</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L133" t="n">
         <v>1033.3</v>
@@ -7062,7 +7078,7 @@
         <v>229</v>
       </c>
       <c r="K134" t="n">
-        <v>-7.317073170731707</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L134" t="n">
         <v>1032.8</v>
@@ -7113,7 +7129,7 @@
         <v>231</v>
       </c>
       <c r="K135" t="n">
-        <v>7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L135" t="n">
         <v>1033.1</v>
@@ -7164,7 +7180,7 @@
         <v>233</v>
       </c>
       <c r="K136" t="n">
-        <v>-5.263157894736842</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L136" t="n">
         <v>1032.8</v>
@@ -7215,7 +7231,7 @@
         <v>236</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L137" t="n">
         <v>1033.2</v>
@@ -7266,7 +7282,7 @@
         <v>240</v>
       </c>
       <c r="K138" t="n">
-        <v>-11.62790697674419</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L138" t="n">
         <v>1033.1</v>
@@ -7317,7 +7333,7 @@
         <v>241</v>
       </c>
       <c r="K139" t="n">
-        <v>-13.63636363636363</v>
+        <v>-12.5</v>
       </c>
       <c r="L139" t="n">
         <v>1032.9</v>
@@ -7368,7 +7384,7 @@
         <v>242</v>
       </c>
       <c r="K140" t="n">
-        <v>-15.55555555555556</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L140" t="n">
         <v>1032.6</v>
@@ -7419,7 +7435,7 @@
         <v>242</v>
       </c>
       <c r="K141" t="n">
-        <v>-5</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L141" t="n">
         <v>1032.3</v>
@@ -7470,7 +7486,7 @@
         <v>243</v>
       </c>
       <c r="K142" t="n">
-        <v>-16.66666666666666</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L142" t="n">
         <v>1032.3</v>
@@ -7521,7 +7537,7 @@
         <v>244</v>
       </c>
       <c r="K143" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L143" t="n">
         <v>1032.1</v>
@@ -7572,7 +7588,7 @@
         <v>244</v>
       </c>
       <c r="K144" t="n">
-        <v>-23.52941176470588</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L144" t="n">
         <v>1031.8</v>
@@ -7623,7 +7639,7 @@
         <v>250</v>
       </c>
       <c r="K145" t="n">
-        <v>-23.52941176470588</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L145" t="n">
         <v>1030.7</v>
@@ -7674,7 +7690,7 @@
         <v>252</v>
       </c>
       <c r="K146" t="n">
-        <v>-43.75</v>
+        <v>-87.5</v>
       </c>
       <c r="L146" t="n">
         <v>1029.6</v>
@@ -7725,7 +7741,7 @@
         <v>257</v>
       </c>
       <c r="K147" t="n">
-        <v>-15.15151515151515</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L147" t="n">
         <v>1028.7</v>
@@ -7776,7 +7792,7 @@
         <v>261</v>
       </c>
       <c r="K148" t="n">
-        <v>-27.77777777777778</v>
+        <v>-40</v>
       </c>
       <c r="L148" t="n">
         <v>1027.8</v>
@@ -7827,7 +7843,7 @@
         <v>263</v>
       </c>
       <c r="K149" t="n">
-        <v>-31.57894736842105</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L149" t="n">
         <v>1026.8</v>
@@ -7878,7 +7894,7 @@
         <v>263</v>
       </c>
       <c r="K150" t="n">
-        <v>-31.57894736842105</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L150" t="n">
         <v>1025.9</v>
@@ -7929,7 +7945,7 @@
         <v>263</v>
       </c>
       <c r="K151" t="n">
-        <v>-31.57894736842105</v>
+        <v>-50</v>
       </c>
       <c r="L151" t="n">
         <v>1025</v>
@@ -7980,7 +7996,7 @@
         <v>268</v>
       </c>
       <c r="K152" t="n">
-        <v>-12.19512195121951</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L152" t="n">
         <v>1024.5</v>
@@ -8031,7 +8047,7 @@
         <v>269</v>
       </c>
       <c r="K153" t="n">
-        <v>-17.07317073170732</v>
+        <v>-20</v>
       </c>
       <c r="L153" t="n">
         <v>1024</v>
@@ -8082,7 +8098,7 @@
         <v>273</v>
       </c>
       <c r="K154" t="n">
-        <v>-9.090909090909092</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L154" t="n">
         <v>1023.9</v>
@@ -8133,7 +8149,7 @@
         <v>274</v>
       </c>
       <c r="K155" t="n">
-        <v>-11.62790697674419</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L155" t="n">
         <v>1024.5</v>
@@ -8184,7 +8200,7 @@
         <v>275</v>
       </c>
       <c r="K156" t="n">
-        <v>-9.523809523809524</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L156" t="n">
         <v>1025.2</v>
@@ -8235,7 +8251,7 @@
         <v>279</v>
       </c>
       <c r="K157" t="n">
-        <v>-25.58139534883721</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L157" t="n">
         <v>1025</v>
@@ -8286,7 +8302,7 @@
         <v>281</v>
       </c>
       <c r="K158" t="n">
-        <v>-21.95121951219512</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L158" t="n">
         <v>1025</v>
@@ -8337,7 +8353,7 @@
         <v>281</v>
       </c>
       <c r="K159" t="n">
-        <v>-20</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L159" t="n">
         <v>1025.2</v>
@@ -8388,7 +8404,7 @@
         <v>284</v>
       </c>
       <c r="K160" t="n">
-        <v>-23.80952380952381</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L160" t="n">
         <v>1025.1</v>
@@ -8439,7 +8455,7 @@
         <v>288</v>
       </c>
       <c r="K161" t="n">
-        <v>-13.04347826086956</v>
+        <v>-10</v>
       </c>
       <c r="L161" t="n">
         <v>1025.4</v>
@@ -8490,7 +8506,7 @@
         <v>289</v>
       </c>
       <c r="K162" t="n">
-        <v>-13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>1025.3</v>
@@ -8541,7 +8557,7 @@
         <v>293</v>
       </c>
       <c r="K163" t="n">
-        <v>-2.040816326530612</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>1025.7</v>
@@ -8592,7 +8608,7 @@
         <v>295</v>
       </c>
       <c r="K164" t="n">
-        <v>1.96078431372549</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L164" t="n">
         <v>1025.9</v>
@@ -8643,7 +8659,7 @@
         <v>298</v>
       </c>
       <c r="K165" t="n">
-        <v>20.83333333333334</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L165" t="n">
         <v>1026.3</v>
@@ -8694,7 +8710,7 @@
         <v>299</v>
       </c>
       <c r="K166" t="n">
-        <v>27.65957446808511</v>
+        <v>50</v>
       </c>
       <c r="L166" t="n">
         <v>1026.9</v>
@@ -8745,7 +8761,7 @@
         <v>305</v>
       </c>
       <c r="K167" t="n">
-        <v>29.16666666666667</v>
+        <v>75</v>
       </c>
       <c r="L167" t="n">
         <v>1028.5</v>
@@ -8796,7 +8812,7 @@
         <v>305</v>
       </c>
       <c r="K168" t="n">
-        <v>40.90909090909091</v>
+        <v>75</v>
       </c>
       <c r="L168" t="n">
         <v>1030.3</v>
@@ -8847,7 +8863,7 @@
         <v>305</v>
       </c>
       <c r="K169" t="n">
-        <v>47.61904761904761</v>
+        <v>100</v>
       </c>
       <c r="L169" t="n">
         <v>1032.1</v>
@@ -8898,7 +8914,7 @@
         <v>307</v>
       </c>
       <c r="K170" t="n">
-        <v>40.90909090909091</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="L170" t="n">
         <v>1034</v>
@@ -8949,7 +8965,7 @@
         <v>307</v>
       </c>
       <c r="K171" t="n">
-        <v>40.90909090909091</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L171" t="n">
         <v>1035.5</v>
@@ -9000,7 +9016,7 @@
         <v>307</v>
       </c>
       <c r="K172" t="n">
-        <v>33.33333333333333</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L172" t="n">
         <v>1036.9</v>
@@ -9051,7 +9067,7 @@
         <v>309</v>
       </c>
       <c r="K173" t="n">
-        <v>40</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L173" t="n">
         <v>1038.1</v>
@@ -9102,7 +9118,7 @@
         <v>310</v>
       </c>
       <c r="K174" t="n">
-        <v>29.72972972972973</v>
+        <v>50</v>
       </c>
       <c r="L174" t="n">
         <v>1039</v>
@@ -9153,7 +9169,7 @@
         <v>311</v>
       </c>
       <c r="K175" t="n">
-        <v>29.72972972972973</v>
+        <v>50</v>
       </c>
       <c r="L175" t="n">
         <v>1039.7</v>
@@ -9204,7 +9220,7 @@
         <v>311</v>
       </c>
       <c r="K176" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>1040.3</v>
@@ -9255,7 +9271,7 @@
         <v>312</v>
       </c>
       <c r="K177" t="n">
-        <v>45.45454545454545</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L177" t="n">
         <v>1040.2</v>
@@ -9306,7 +9322,7 @@
         <v>312</v>
       </c>
       <c r="K178" t="n">
-        <v>54.83870967741935</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L178" t="n">
         <v>1040.1</v>
@@ -9357,7 +9373,7 @@
         <v>316</v>
       </c>
       <c r="K179" t="n">
-        <v>60</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L179" t="n">
         <v>1040.4</v>
@@ -9408,7 +9424,7 @@
         <v>318</v>
       </c>
       <c r="K180" t="n">
-        <v>64.70588235294117</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L180" t="n">
         <v>1040.7</v>
@@ -9459,7 +9475,7 @@
         <v>326</v>
       </c>
       <c r="K181" t="n">
-        <v>68.42105263157895</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L181" t="n">
         <v>1041.8</v>
@@ -9510,7 +9526,7 @@
         <v>328</v>
       </c>
       <c r="K182" t="n">
-        <v>69.23076923076923</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L182" t="n">
         <v>1043.1</v>
@@ -9561,7 +9577,7 @@
         <v>329</v>
       </c>
       <c r="K183" t="n">
-        <v>61.11111111111111</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L183" t="n">
         <v>1044.1</v>
@@ -9612,7 +9628,7 @@
         <v>334</v>
       </c>
       <c r="K184" t="n">
-        <v>64.1025641025641</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L184" t="n">
         <v>1045.7</v>
@@ -9663,7 +9679,7 @@
         <v>336</v>
       </c>
       <c r="K185" t="n">
-        <v>63.1578947368421</v>
+        <v>68</v>
       </c>
       <c r="L185" t="n">
         <v>1047.4</v>
@@ -9714,7 +9730,7 @@
         <v>341</v>
       </c>
       <c r="K186" t="n">
-        <v>42.85714285714285</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="L186" t="n">
         <v>1048.6</v>
@@ -9765,7 +9781,7 @@
         <v>343</v>
       </c>
       <c r="K187" t="n">
-        <v>26.31578947368421</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="L187" t="n">
         <v>1049.7</v>
@@ -9816,7 +9832,7 @@
         <v>345</v>
       </c>
       <c r="K188" t="n">
-        <v>20</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L188" t="n">
         <v>1050.6</v>
@@ -9867,7 +9883,7 @@
         <v>348</v>
       </c>
       <c r="K189" t="n">
-        <v>11.62790697674419</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L189" t="n">
         <v>1050.8</v>
@@ -9918,7 +9934,7 @@
         <v>359</v>
       </c>
       <c r="K190" t="n">
-        <v>34.61538461538461</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L190" t="n">
         <v>1052.3</v>
@@ -9969,7 +9985,7 @@
         <v>359</v>
       </c>
       <c r="K191" t="n">
-        <v>34.61538461538461</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L191" t="n">
         <v>1053</v>
@@ -10020,7 +10036,7 @@
         <v>367</v>
       </c>
       <c r="K192" t="n">
-        <v>16.66666666666666</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L192" t="n">
         <v>1052.7</v>
@@ -10071,7 +10087,7 @@
         <v>372</v>
       </c>
       <c r="K193" t="n">
-        <v>20.63492063492063</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L193" t="n">
         <v>1053</v>
@@ -10122,7 +10138,7 @@
         <v>372</v>
       </c>
       <c r="K194" t="n">
-        <v>22.58064516129032</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L194" t="n">
         <v>1052.8</v>
@@ -10173,7 +10189,7 @@
         <v>372</v>
       </c>
       <c r="K195" t="n">
-        <v>21.31147540983606</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L195" t="n">
         <v>1052.4</v>
@@ -10224,7 +10240,7 @@
         <v>379</v>
       </c>
       <c r="K196" t="n">
-        <v>8.823529411764707</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L196" t="n">
         <v>1051.8</v>
@@ -10275,7 +10291,7 @@
         <v>384</v>
       </c>
       <c r="K197" t="n">
-        <v>16.66666666666666</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L197" t="n">
         <v>1051.9</v>
@@ -10326,7 +10342,7 @@
         <v>386</v>
       </c>
       <c r="K198" t="n">
-        <v>13.51351351351351</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="L198" t="n">
         <v>1052</v>
@@ -10377,7 +10393,7 @@
         <v>386</v>
       </c>
       <c r="K199" t="n">
-        <v>8.571428571428571</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L199" t="n">
         <v>1052.4</v>
@@ -10428,7 +10444,7 @@
         <v>394</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L200" t="n">
         <v>1050.9</v>
@@ -10479,7 +10495,7 @@
         <v>395</v>
       </c>
       <c r="K201" t="n">
-        <v>-13.04347826086956</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L201" t="n">
         <v>1049.3</v>
@@ -10530,7 +10546,7 @@
         <v>398</v>
       </c>
       <c r="K202" t="n">
-        <v>-11.42857142857143</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L202" t="n">
         <v>1048.8</v>
@@ -10581,7 +10597,7 @@
         <v>398</v>
       </c>
       <c r="K203" t="n">
-        <v>-10.14492753623188</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L203" t="n">
         <v>1047.8</v>
@@ -10632,7 +10648,7 @@
         <v>401</v>
       </c>
       <c r="K204" t="n">
-        <v>-22.38805970149254</v>
+        <v>-44.82758620689656</v>
       </c>
       <c r="L204" t="n">
         <v>1046.5</v>
@@ -10683,7 +10699,7 @@
         <v>402</v>
       </c>
       <c r="K205" t="n">
-        <v>-24.24242424242424</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L205" t="n">
         <v>1045.3</v>
@@ -10734,7 +10750,7 @@
         <v>407</v>
       </c>
       <c r="K206" t="n">
-        <v>-9.090909090909092</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L206" t="n">
         <v>1045.3</v>
@@ -10785,7 +10801,7 @@
         <v>412</v>
       </c>
       <c r="K207" t="n">
-        <v>-13.04347826086956</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L207" t="n">
         <v>1044.3</v>
@@ -10836,7 +10852,7 @@
         <v>414</v>
       </c>
       <c r="K208" t="n">
-        <v>-13.04347826086956</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L208" t="n">
         <v>1043.3</v>
@@ -10887,7 +10903,7 @@
         <v>414</v>
       </c>
       <c r="K209" t="n">
-        <v>-9.090909090909092</v>
+        <v>-10</v>
       </c>
       <c r="L209" t="n">
         <v>1042.3</v>
@@ -10938,7 +10954,7 @@
         <v>419</v>
       </c>
       <c r="K210" t="n">
-        <v>-20</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L210" t="n">
         <v>1042.6</v>
@@ -10989,7 +11005,7 @@
         <v>419</v>
       </c>
       <c r="K211" t="n">
-        <v>-20</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L211" t="n">
         <v>1043</v>
@@ -11040,7 +11056,7 @@
         <v>422</v>
       </c>
       <c r="K212" t="n">
-        <v>-12.72727272727273</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L212" t="n">
         <v>1042.8</v>
@@ -11091,7 +11107,7 @@
         <v>428</v>
       </c>
       <c r="K213" t="n">
-        <v>-10.71428571428571</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L213" t="n">
         <v>1043.2</v>
@@ -11142,7 +11158,7 @@
         <v>429</v>
       </c>
       <c r="K214" t="n">
-        <v>-8.771929824561402</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L214" t="n">
         <v>1044</v>
@@ -11193,7 +11209,7 @@
         <v>429</v>
       </c>
       <c r="K215" t="n">
-        <v>-8.771929824561402</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L215" t="n">
         <v>1044.7</v>
@@ -11244,7 +11260,7 @@
         <v>430</v>
       </c>
       <c r="K216" t="n">
-        <v>1.96078431372549</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L216" t="n">
         <v>1044.8</v>
@@ -11295,7 +11311,7 @@
         <v>431</v>
       </c>
       <c r="K217" t="n">
-        <v>-10.63829787234043</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L217" t="n">
         <v>1045.3</v>
@@ -11346,7 +11362,7 @@
         <v>432</v>
       </c>
       <c r="K218" t="n">
-        <v>-4.347826086956522</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L218" t="n">
         <v>1046.1</v>
@@ -11397,7 +11413,7 @@
         <v>433</v>
       </c>
       <c r="K219" t="n">
-        <v>-6.382978723404255</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L219" t="n">
         <v>1046.8</v>
@@ -11448,7 +11464,7 @@
         <v>439</v>
       </c>
       <c r="K220" t="n">
-        <v>-2.222222222222222</v>
+        <v>-20</v>
       </c>
       <c r="L220" t="n">
         <v>1046.4</v>
@@ -11499,7 +11515,7 @@
         <v>441</v>
       </c>
       <c r="K221" t="n">
-        <v>4.347826086956522</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L221" t="n">
         <v>1046.2</v>
@@ -11550,7 +11566,7 @@
         <v>448</v>
       </c>
       <c r="K222" t="n">
-        <v>-16</v>
+        <v>-60</v>
       </c>
       <c r="L222" t="n">
         <v>1045.6</v>
@@ -11601,7 +11617,7 @@
         <v>456</v>
       </c>
       <c r="K223" t="n">
-        <v>0</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L223" t="n">
         <v>1045.2</v>
@@ -11652,7 +11668,7 @@
         <v>457</v>
       </c>
       <c r="K224" t="n">
-        <v>3.571428571428571</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L224" t="n">
         <v>1044.6</v>
@@ -11703,7 +11719,7 @@
         <v>458</v>
       </c>
       <c r="K225" t="n">
-        <v>3.571428571428571</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L225" t="n">
         <v>1044.1</v>
@@ -11754,7 +11770,7 @@
         <v>458</v>
       </c>
       <c r="K226" t="n">
-        <v>-5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L226" t="n">
         <v>1043.7</v>
@@ -11805,7 +11821,7 @@
         <v>462</v>
       </c>
       <c r="K227" t="n">
-        <v>-4</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L227" t="n">
         <v>1043</v>
@@ -11856,7 +11872,7 @@
         <v>467</v>
       </c>
       <c r="K228" t="n">
-        <v>9.433962264150944</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L228" t="n">
         <v>1042.7</v>
@@ -11907,7 +11923,7 @@
         <v>468</v>
       </c>
       <c r="K229" t="n">
-        <v>7.407407407407407</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L229" t="n">
         <v>1042.4</v>
@@ -11958,7 +11974,7 @@
         <v>468</v>
       </c>
       <c r="K230" t="n">
-        <v>-2.040816326530612</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L230" t="n">
         <v>1042.7</v>
@@ -12009,7 +12025,7 @@
         <v>477</v>
       </c>
       <c r="K231" t="n">
-        <v>-17.24137931034483</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L231" t="n">
         <v>1041.9</v>
@@ -12060,7 +12076,7 @@
         <v>483</v>
       </c>
       <c r="K232" t="n">
-        <v>-1.639344262295082</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L232" t="n">
         <v>1042.4</v>
@@ -12111,7 +12127,7 @@
         <v>489</v>
       </c>
       <c r="K233" t="n">
-        <v>-21.31147540983606</v>
+        <v>-25</v>
       </c>
       <c r="L233" t="n">
         <v>1041.5</v>
@@ -12162,7 +12178,7 @@
         <v>491</v>
       </c>
       <c r="K234" t="n">
-        <v>-25.80645161290322</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L234" t="n">
         <v>1040.5</v>
@@ -12213,7 +12229,7 @@
         <v>491</v>
       </c>
       <c r="K235" t="n">
-        <v>-25.80645161290322</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L235" t="n">
         <v>1039.4</v>
@@ -12264,7 +12280,7 @@
         <v>492</v>
       </c>
       <c r="K236" t="n">
-        <v>-22.58064516129032</v>
+        <v>-20</v>
       </c>
       <c r="L236" t="n">
         <v>1038.4</v>
@@ -12315,7 +12331,7 @@
         <v>493</v>
       </c>
       <c r="K237" t="n">
-        <v>-22.58064516129032</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L237" t="n">
         <v>1037.7</v>
@@ -12366,7 +12382,7 @@
         <v>495</v>
       </c>
       <c r="K238" t="n">
-        <v>-20.63492063492063</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L238" t="n">
         <v>1036.7</v>
@@ -12417,7 +12433,7 @@
         <v>505</v>
       </c>
       <c r="K239" t="n">
-        <v>-30.55555555555556</v>
+        <v>-51.35135135135135</v>
       </c>
       <c r="L239" t="n">
         <v>1034.8</v>
@@ -12468,7 +12484,7 @@
         <v>516</v>
       </c>
       <c r="K240" t="n">
-        <v>-6.493506493506493</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L240" t="n">
         <v>1034</v>
@@ -12519,7 +12535,7 @@
         <v>517</v>
       </c>
       <c r="K241" t="n">
-        <v>-10.52631578947368</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L241" t="n">
         <v>1034</v>
@@ -12570,7 +12586,7 @@
         <v>518</v>
       </c>
       <c r="K242" t="n">
-        <v>-2.857142857142857</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L242" t="n">
         <v>1033.3</v>
@@ -12621,7 +12637,7 @@
         <v>520</v>
       </c>
       <c r="K243" t="n">
-        <v>-12.5</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L243" t="n">
         <v>1033.4</v>
@@ -12672,7 +12688,7 @@
         <v>526</v>
       </c>
       <c r="K244" t="n">
-        <v>-18.84057971014493</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L244" t="n">
         <v>1033.1</v>
@@ -12723,7 +12739,7 @@
         <v>530</v>
       </c>
       <c r="K245" t="n">
-        <v>-13.88888888888889</v>
+        <v>0</v>
       </c>
       <c r="L245" t="n">
         <v>1033.2</v>
@@ -12774,7 +12790,7 @@
         <v>538</v>
       </c>
       <c r="K246" t="n">
-        <v>-22.5</v>
+        <v>-15.55555555555556</v>
       </c>
       <c r="L246" t="n">
         <v>1032.4</v>
@@ -12825,7 +12841,7 @@
         <v>543</v>
       </c>
       <c r="K247" t="n">
-        <v>-11.11111111111111</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L247" t="n">
         <v>1032.2</v>
@@ -12876,7 +12892,7 @@
         <v>544</v>
       </c>
       <c r="K248" t="n">
-        <v>-19.48051948051948</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L248" t="n">
         <v>1031.7</v>
@@ -12927,7 +12943,7 @@
         <v>549</v>
       </c>
       <c r="K249" t="n">
-        <v>-23.45679012345679</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L249" t="n">
         <v>1031.7</v>
@@ -12978,7 +12994,7 @@
         <v>554</v>
       </c>
       <c r="K250" t="n">
-        <v>-16.27906976744186</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L250" t="n">
         <v>1031.1</v>
@@ -13029,7 +13045,7 @@
         <v>559</v>
       </c>
       <c r="K251" t="n">
-        <v>-12.19512195121951</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L251" t="n">
         <v>1030.1</v>
@@ -13080,7 +13096,7 @@
         <v>559</v>
       </c>
       <c r="K252" t="n">
-        <v>-21.05263157894737</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L252" t="n">
         <v>1029.2</v>
@@ -13131,7 +13147,7 @@
         <v>559</v>
       </c>
       <c r="K253" t="n">
-        <v>-14.28571428571428</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L253" t="n">
         <v>1028.1</v>
@@ -13182,7 +13198,7 @@
         <v>562</v>
       </c>
       <c r="K254" t="n">
-        <v>-15.49295774647887</v>
+        <v>-37.5</v>
       </c>
       <c r="L254" t="n">
         <v>1027.3</v>
@@ -13233,7 +13249,7 @@
         <v>564</v>
       </c>
       <c r="K255" t="n">
-        <v>-12.32876712328767</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L255" t="n">
         <v>1026.3</v>
@@ -13284,7 +13300,7 @@
         <v>565</v>
       </c>
       <c r="K256" t="n">
-        <v>-15.06849315068493</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L256" t="n">
         <v>1026</v>
@@ -13335,7 +13351,7 @@
         <v>572</v>
       </c>
       <c r="K257" t="n">
-        <v>-21.51898734177215</v>
+        <v>-50</v>
       </c>
       <c r="L257" t="n">
         <v>1024.5</v>
@@ -13437,7 +13453,7 @@
         <v>579</v>
       </c>
       <c r="K259" t="n">
-        <v>-10.81081081081081</v>
+        <v>-52</v>
       </c>
       <c r="L259" t="n">
         <v>1022.7</v>
@@ -13488,7 +13504,7 @@
         <v>580</v>
       </c>
       <c r="K260" t="n">
-        <v>-28.125</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L260" t="n">
         <v>1021.5</v>
@@ -13539,7 +13555,7 @@
         <v>582</v>
       </c>
       <c r="K261" t="n">
-        <v>-29.23076923076923</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L261" t="n">
         <v>1020.6</v>
@@ -13590,7 +13606,7 @@
         <v>588</v>
       </c>
       <c r="K262" t="n">
-        <v>-17.14285714285714</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L262" t="n">
         <v>1020.3</v>
@@ -13641,7 +13657,7 @@
         <v>590</v>
       </c>
       <c r="K263" t="n">
-        <v>-22.85714285714286</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L263" t="n">
         <v>1019.8</v>
@@ -13692,7 +13708,7 @@
         <v>590</v>
       </c>
       <c r="K264" t="n">
-        <v>-15.625</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L264" t="n">
         <v>1019.6</v>
@@ -13743,7 +13759,7 @@
         <v>590</v>
       </c>
       <c r="K265" t="n">
-        <v>-23.33333333333333</v>
+        <v>-12</v>
       </c>
       <c r="L265" t="n">
         <v>1019.2</v>
@@ -13794,7 +13810,7 @@
         <v>590</v>
       </c>
       <c r="K266" t="n">
-        <v>-11.53846153846154</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L266" t="n">
         <v>1018.9</v>
@@ -13845,7 +13861,7 @@
         <v>591</v>
       </c>
       <c r="K267" t="n">
-        <v>-20.83333333333334</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L267" t="n">
         <v>1019.4</v>
@@ -13896,7 +13912,7 @@
         <v>592</v>
       </c>
       <c r="K268" t="n">
-        <v>-16.66666666666666</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L268" t="n">
         <v>1019.6</v>
@@ -13947,7 +13963,7 @@
         <v>593</v>
       </c>
       <c r="K269" t="n">
-        <v>-4.545454545454546</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L269" t="n">
         <v>1020.2</v>
@@ -13998,7 +14014,7 @@
         <v>593</v>
       </c>
       <c r="K270" t="n">
-        <v>-17.94871794871795</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L270" t="n">
         <v>1020.7</v>
@@ -14049,7 +14065,7 @@
         <v>595</v>
       </c>
       <c r="K271" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L271" t="n">
         <v>1021.6</v>
@@ -14100,7 +14116,7 @@
         <v>597</v>
       </c>
       <c r="K272" t="n">
-        <v>-5.263157894736842</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L272" t="n">
         <v>1021.7</v>
@@ -14151,7 +14167,7 @@
         <v>598</v>
       </c>
       <c r="K273" t="n">
-        <v>-2.564102564102564</v>
+        <v>50</v>
       </c>
       <c r="L273" t="n">
         <v>1022.1</v>
@@ -14202,7 +14218,7 @@
         <v>602</v>
       </c>
       <c r="K274" t="n">
-        <v>15</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L274" t="n">
         <v>1022.9</v>
@@ -14253,7 +14269,7 @@
         <v>608</v>
       </c>
       <c r="K275" t="n">
-        <v>-4.545454545454546</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L275" t="n">
         <v>1023.1</v>
@@ -14304,7 +14320,7 @@
         <v>613</v>
       </c>
       <c r="K276" t="n">
-        <v>8.333333333333332</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L276" t="n">
         <v>1023.8</v>
@@ -14355,7 +14371,7 @@
         <v>620</v>
       </c>
       <c r="K277" t="n">
-        <v>8.333333333333332</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L277" t="n">
         <v>1023.7</v>
@@ -14406,7 +14422,7 @@
         <v>627</v>
       </c>
       <c r="K278" t="n">
-        <v>13.72549019607843</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L278" t="n">
         <v>1024.2</v>
@@ -14457,7 +14473,7 @@
         <v>630</v>
       </c>
       <c r="K279" t="n">
-        <v>25.49019607843137</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L279" t="n">
         <v>1024.9</v>
@@ -14508,7 +14524,7 @@
         <v>634</v>
       </c>
       <c r="K280" t="n">
-        <v>14.81481481481481</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L280" t="n">
         <v>1025.2</v>
@@ -14559,7 +14575,7 @@
         <v>638</v>
       </c>
       <c r="K281" t="n">
-        <v>25</v>
+        <v>17.07317073170732</v>
       </c>
       <c r="L281" t="n">
         <v>1025.7</v>
@@ -14610,7 +14626,7 @@
         <v>639</v>
       </c>
       <c r="K282" t="n">
-        <v>13.72549019607843</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="L282" t="n">
         <v>1026.3</v>
@@ -14661,7 +14677,7 @@
         <v>643</v>
       </c>
       <c r="K283" t="n">
-        <v>9.433962264150944</v>
+        <v>-7.317073170731707</v>
       </c>
       <c r="L283" t="n">
         <v>1026.4</v>
@@ -14712,7 +14728,7 @@
         <v>646</v>
       </c>
       <c r="K284" t="n">
-        <v>14.28571428571428</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L284" t="n">
         <v>1026.4</v>
@@ -14763,7 +14779,7 @@
         <v>648</v>
       </c>
       <c r="K285" t="n">
-        <v>10.3448275862069</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L285" t="n">
         <v>1026.8</v>
@@ -14814,7 +14830,7 @@
         <v>649</v>
       </c>
       <c r="K286" t="n">
-        <v>8.474576271186439</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L286" t="n">
         <v>1026.6</v>
@@ -14865,7 +14881,7 @@
         <v>651</v>
       </c>
       <c r="K287" t="n">
-        <v>3.333333333333333</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L287" t="n">
         <v>1026.9</v>
@@ -14916,7 +14932,7 @@
         <v>651</v>
       </c>
       <c r="K288" t="n">
-        <v>1.694915254237288</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L288" t="n">
         <v>1026.5</v>
@@ -14967,7 +14983,7 @@
         <v>651</v>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L289" t="n">
         <v>1025.8</v>
@@ -15018,7 +15034,7 @@
         <v>652</v>
       </c>
       <c r="K290" t="n">
-        <v>1.694915254237288</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L290" t="n">
         <v>1025.6</v>
@@ -15069,7 +15085,7 @@
         <v>655</v>
       </c>
       <c r="K291" t="n">
-        <v>-6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L291" t="n">
         <v>1024.7</v>
@@ -15120,7 +15136,7 @@
         <v>659</v>
       </c>
       <c r="K292" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L292" t="n">
         <v>1024.3</v>
@@ -15171,7 +15187,7 @@
         <v>660</v>
       </c>
       <c r="K293" t="n">
-        <v>0</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L293" t="n">
         <v>1024.2</v>
@@ -15222,7 +15238,7 @@
         <v>662</v>
       </c>
       <c r="K294" t="n">
-        <v>-10</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L294" t="n">
         <v>1023.6</v>
@@ -15273,7 +15289,7 @@
         <v>666</v>
       </c>
       <c r="K295" t="n">
-        <v>6.896551724137931</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L295" t="n">
         <v>1023.6</v>
@@ -15324,7 +15340,7 @@
         <v>668</v>
       </c>
       <c r="K296" t="n">
-        <v>1.818181818181818</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L296" t="n">
         <v>1023.9</v>
@@ -15375,7 +15391,7 @@
         <v>671</v>
       </c>
       <c r="K297" t="n">
-        <v>21.56862745098039</v>
+        <v>40</v>
       </c>
       <c r="L297" t="n">
         <v>1024.7</v>
@@ -15426,7 +15442,7 @@
         <v>671</v>
       </c>
       <c r="K298" t="n">
-        <v>9.090909090909092</v>
+        <v>40</v>
       </c>
       <c r="L298" t="n">
         <v>1025.5</v>
@@ -15477,7 +15493,7 @@
         <v>671</v>
       </c>
       <c r="K299" t="n">
-        <v>2.439024390243902</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L299" t="n">
         <v>1026.3</v>
@@ -15528,7 +15544,7 @@
         <v>671</v>
       </c>
       <c r="K300" t="n">
-        <v>13.51351351351351</v>
+        <v>62.5</v>
       </c>
       <c r="L300" t="n">
         <v>1027</v>
@@ -15579,7 +15595,7 @@
         <v>671</v>
       </c>
       <c r="K301" t="n">
-        <v>3.03030303030303</v>
+        <v>50</v>
       </c>
       <c r="L301" t="n">
         <v>1028</v>
@@ -15630,7 +15646,7 @@
         <v>671</v>
       </c>
       <c r="K302" t="n">
-        <v>6.25</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L302" t="n">
         <v>1028.6</v>
@@ -15681,7 +15697,7 @@
         <v>671</v>
       </c>
       <c r="K303" t="n">
-        <v>21.42857142857143</v>
+        <v>100</v>
       </c>
       <c r="L303" t="n">
         <v>1029.3</v>
@@ -15732,7 +15748,7 @@
         <v>671</v>
       </c>
       <c r="K304" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L304" t="n">
         <v>1030.2</v>
@@ -15783,7 +15799,7 @@
         <v>671</v>
       </c>
       <c r="K305" t="n">
-        <v>21.73913043478261</v>
+        <v>100</v>
       </c>
       <c r="L305" t="n">
         <v>1030.7</v>
@@ -15833,9 +15849,7 @@
       <c r="J306" t="n">
         <v>671</v>
       </c>
-      <c r="K306" t="n">
-        <v>27.27272727272727</v>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1031</v>
       </c>
@@ -15885,7 +15899,7 @@
         <v>675</v>
       </c>
       <c r="K307" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L307" t="n">
         <v>1031.4</v>
@@ -15936,7 +15950,7 @@
         <v>675</v>
       </c>
       <c r="K308" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L308" t="n">
         <v>1031.8</v>
@@ -15987,7 +16001,7 @@
         <v>675</v>
       </c>
       <c r="K309" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L309" t="n">
         <v>1032.2</v>
@@ -16038,7 +16052,7 @@
         <v>680</v>
       </c>
       <c r="K310" t="n">
-        <v>57.14285714285714</v>
+        <v>100</v>
       </c>
       <c r="L310" t="n">
         <v>1033.1</v>
@@ -16089,7 +16103,7 @@
         <v>682</v>
       </c>
       <c r="K311" t="n">
-        <v>77.77777777777779</v>
+        <v>100</v>
       </c>
       <c r="L311" t="n">
         <v>1034.2</v>
@@ -16140,7 +16154,7 @@
         <v>683</v>
       </c>
       <c r="K312" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L312" t="n">
         <v>1035.4</v>
@@ -16191,7 +16205,7 @@
         <v>687</v>
       </c>
       <c r="K313" t="n">
-        <v>55.55555555555556</v>
+        <v>50</v>
       </c>
       <c r="L313" t="n">
         <v>1036.2</v>
@@ -16242,7 +16256,7 @@
         <v>687</v>
       </c>
       <c r="K314" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="L314" t="n">
         <v>1037</v>
@@ -16293,7 +16307,7 @@
         <v>690</v>
       </c>
       <c r="K315" t="n">
-        <v>66.66666666666666</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L315" t="n">
         <v>1038.1</v>
@@ -16344,7 +16358,7 @@
         <v>691</v>
       </c>
       <c r="K316" t="n">
-        <v>65.21739130434783</v>
+        <v>50</v>
       </c>
       <c r="L316" t="n">
         <v>1039.3</v>
@@ -16395,7 +16409,7 @@
         <v>691</v>
       </c>
       <c r="K317" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L317" t="n">
         <v>1040.1</v>
@@ -16446,7 +16460,7 @@
         <v>692</v>
       </c>
       <c r="K318" t="n">
-        <v>61.90476190476191</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L318" t="n">
         <v>1041</v>
@@ -16497,7 +16511,7 @@
         <v>693</v>
       </c>
       <c r="K319" t="n">
-        <v>63.63636363636363</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L319" t="n">
         <v>1042</v>
@@ -16548,7 +16562,7 @@
         <v>694</v>
       </c>
       <c r="K320" t="n">
-        <v>65.21739130434783</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L320" t="n">
         <v>1042.6</v>
@@ -16599,7 +16613,7 @@
         <v>696</v>
       </c>
       <c r="K321" t="n">
-        <v>68</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L321" t="n">
         <v>1043.2</v>
@@ -16650,7 +16664,7 @@
         <v>701</v>
       </c>
       <c r="K322" t="n">
-        <v>73.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L322" t="n">
         <v>1044.2</v>
@@ -16701,7 +16715,7 @@
         <v>703</v>
       </c>
       <c r="K323" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L323" t="n">
         <v>1045.8</v>
@@ -16752,7 +16766,7 @@
         <v>704</v>
       </c>
       <c r="K324" t="n">
-        <v>69.6969696969697</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="L324" t="n">
         <v>1047.3</v>
@@ -16803,7 +16817,7 @@
         <v>707</v>
       </c>
       <c r="K325" t="n">
-        <v>72.22222222222221</v>
+        <v>87.5</v>
       </c>
       <c r="L325" t="n">
         <v>1048.8</v>
@@ -16854,7 +16868,7 @@
         <v>707</v>
       </c>
       <c r="K326" t="n">
-        <v>72.22222222222221</v>
+        <v>87.5</v>
       </c>
       <c r="L326" t="n">
         <v>1050.2</v>
@@ -16905,7 +16919,7 @@
         <v>709</v>
       </c>
       <c r="K327" t="n">
-        <v>58.82352941176471</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L327" t="n">
         <v>1051.4</v>
@@ -16956,7 +16970,7 @@
         <v>713</v>
       </c>
       <c r="K328" t="n">
-        <v>42.10526315789473</v>
+        <v>30</v>
       </c>
       <c r="L328" t="n">
         <v>1052.1</v>
@@ -17007,7 +17021,7 @@
         <v>718</v>
       </c>
       <c r="K329" t="n">
-        <v>48.83720930232558</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L329" t="n">
         <v>1053.2</v>
@@ -17058,7 +17072,7 @@
         <v>719</v>
       </c>
       <c r="K330" t="n">
-        <v>38.46153846153847</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L330" t="n">
         <v>1054.1</v>
@@ -17109,7 +17123,7 @@
         <v>719</v>
       </c>
       <c r="K331" t="n">
-        <v>35.13513513513514</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L331" t="n">
         <v>1054.8</v>
@@ -17160,7 +17174,7 @@
         <v>726</v>
       </c>
       <c r="K332" t="n">
-        <v>11.62790697674419</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L332" t="n">
         <v>1054.3</v>
@@ -17211,7 +17225,7 @@
         <v>731</v>
       </c>
       <c r="K333" t="n">
-        <v>31.81818181818182</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L333" t="n">
         <v>1054.1</v>
@@ -17262,7 +17276,7 @@
         <v>736</v>
       </c>
       <c r="K334" t="n">
-        <v>18.36734693877551</v>
+        <v>-31.03448275862069</v>
       </c>
       <c r="L334" t="n">
         <v>1053.5</v>
@@ -17313,7 +17327,7 @@
         <v>740</v>
       </c>
       <c r="K335" t="n">
-        <v>20</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L335" t="n">
         <v>1053</v>
@@ -17364,7 +17378,7 @@
         <v>747</v>
       </c>
       <c r="K336" t="n">
-        <v>3.571428571428571</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L336" t="n">
         <v>1051.8</v>
@@ -17415,7 +17429,7 @@
         <v>751</v>
       </c>
       <c r="K337" t="n">
-        <v>-3.333333333333333</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L337" t="n">
         <v>1050.4</v>
@@ -17466,7 +17480,7 @@
         <v>758</v>
       </c>
       <c r="K338" t="n">
-        <v>6.060606060606061</v>
+        <v>-20</v>
       </c>
       <c r="L338" t="n">
         <v>1050.1</v>
@@ -17517,7 +17531,7 @@
         <v>767</v>
       </c>
       <c r="K339" t="n">
-        <v>-8.108108108108109</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L339" t="n">
         <v>1048.4</v>
@@ -17568,7 +17582,7 @@
         <v>769</v>
       </c>
       <c r="K340" t="n">
-        <v>-12</v>
+        <v>-36</v>
       </c>
       <c r="L340" t="n">
         <v>1046.6</v>
@@ -17619,7 +17633,7 @@
         <v>770</v>
       </c>
       <c r="K341" t="n">
-        <v>-16.21621621621622</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L341" t="n">
         <v>1044.7</v>
@@ -17670,7 +17684,7 @@
         <v>774</v>
       </c>
       <c r="K342" t="n">
-        <v>-17.80821917808219</v>
+        <v>-30.23255813953488</v>
       </c>
       <c r="L342" t="n">
         <v>1043.9</v>
@@ -17721,7 +17735,7 @@
         <v>774</v>
       </c>
       <c r="K343" t="n">
-        <v>-21.12676056338028</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L343" t="n">
         <v>1042.6</v>
@@ -17772,7 +17786,7 @@
         <v>774</v>
       </c>
       <c r="K344" t="n">
-        <v>-20</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="L344" t="n">
         <v>1041.8</v>
@@ -17823,7 +17837,7 @@
         <v>774</v>
       </c>
       <c r="K345" t="n">
-        <v>-25.37313432835821</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L345" t="n">
         <v>1040.6</v>
@@ -17874,7 +17888,7 @@
         <v>777</v>
       </c>
       <c r="K346" t="n">
-        <v>-20</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L346" t="n">
         <v>1040.4</v>
@@ -17925,7 +17939,7 @@
         <v>778</v>
       </c>
       <c r="K347" t="n">
-        <v>-15.94202898550724</v>
+        <v>-20</v>
       </c>
       <c r="L347" t="n">
         <v>1040.7</v>
@@ -17976,7 +17990,7 @@
         <v>778</v>
       </c>
       <c r="K348" t="n">
-        <v>-10.76923076923077</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L348" t="n">
         <v>1040.3</v>
@@ -18027,7 +18041,7 @@
         <v>778</v>
       </c>
       <c r="K349" t="n">
-        <v>-20</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L349" t="n">
         <v>1040.8</v>
@@ -18078,7 +18092,7 @@
         <v>779</v>
       </c>
       <c r="K350" t="n">
-        <v>-16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L350" t="n">
         <v>1041.6</v>

--- a/BackTest/2019-10-15 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-15 BackTest WAVES.xlsx
@@ -1116,20 +1116,14 @@
         <v>1014.483333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1010</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1157,20 +1151,14 @@
         <v>1014.283333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>1009</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1198,20 +1186,14 @@
         <v>1014.083333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1008</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1239,20 +1221,14 @@
         <v>1013.883333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>1008</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1280,20 +1256,14 @@
         <v>1013.683333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1008</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1321,20 +1291,14 @@
         <v>1013.45</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>1008</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1362,20 +1326,14 @@
         <v>1013.25</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1008</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1403,20 +1361,14 @@
         <v>1013.033333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1008</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1444,20 +1396,14 @@
         <v>1012.816666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1007</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1485,20 +1431,14 @@
         <v>1012.616666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1007</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1526,20 +1466,14 @@
         <v>1012.416666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1006</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1567,20 +1501,14 @@
         <v>1012.2</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1006</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1608,20 +1536,14 @@
         <v>1012.033333333333</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1006</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1649,20 +1571,14 @@
         <v>1011.933333333333</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1011</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1690,20 +1606,14 @@
         <v>1011.883333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1010</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1731,20 +1641,14 @@
         <v>1011.866666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1011</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1772,20 +1676,14 @@
         <v>1011.716666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1006</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1813,20 +1711,14 @@
         <v>1011.7</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1010</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1854,20 +1746,14 @@
         <v>1011.7</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1009</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1895,20 +1781,14 @@
         <v>1011.683333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1010</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1936,20 +1816,14 @@
         <v>1011.683333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1011</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1977,20 +1851,14 @@
         <v>1011.6</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1007</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2018,20 +1886,14 @@
         <v>1011.6</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1011</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2059,20 +1921,14 @@
         <v>1011.55</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1011</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2100,20 +1956,14 @@
         <v>1011.483333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1011</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2141,20 +1991,14 @@
         <v>1011.333333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1008</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2182,20 +2026,14 @@
         <v>1011.25</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1011</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2223,20 +2061,14 @@
         <v>1011.183333333333</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1011</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2264,20 +2096,14 @@
         <v>1011.083333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1010</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2305,20 +2131,14 @@
         <v>1010.983333333333</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1010</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2346,20 +2166,14 @@
         <v>1010.95</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1013</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2387,20 +2201,14 @@
         <v>1010.95</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1011</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2428,20 +2236,14 @@
         <v>1010.816666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1010</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2469,20 +2271,14 @@
         <v>1010.75</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>1010</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2510,20 +2306,14 @@
         <v>1010.75</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>1014</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2551,20 +2341,14 @@
         <v>1010.766666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>1006</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2592,20 +2376,14 @@
         <v>1010.8</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>1012</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2633,20 +2411,14 @@
         <v>1010.883333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>1014</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2674,20 +2446,14 @@
         <v>1010.933333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>1016</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2715,20 +2481,14 @@
         <v>1010.916666666667</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>1016</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2763,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2802,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2841,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2880,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2919,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2958,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2997,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3036,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3075,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3114,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3153,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3192,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3231,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3270,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3309,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3348,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3387,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3426,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3465,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3504,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3543,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3582,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3621,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3660,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3699,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3738,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3777,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3816,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3855,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3894,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3933,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3972,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4011,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4046,16 +3674,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4083,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -9925,13 +9551,17 @@
         <v>1035.6</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>1016</v>
+      </c>
+      <c r="K262" t="n">
+        <v>1016</v>
+      </c>
       <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
@@ -9960,14 +9590,22 @@
         <v>1035.2</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>1022</v>
+      </c>
+      <c r="K263" t="n">
+        <v>1016</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10001,8 +9639,14 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1016</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-15 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-15 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M329"/>
+  <dimension ref="A1:M330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C2" t="n">
-        <v>1022</v>
+        <v>1029</v>
       </c>
       <c r="D2" t="n">
-        <v>1022</v>
+        <v>1029</v>
       </c>
       <c r="E2" t="n">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="F2" t="n">
-        <v>25.4122</v>
+        <v>2122.8785</v>
       </c>
       <c r="G2" t="n">
-        <v>1018.516666666667</v>
+        <v>1018.85</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="C3" t="n">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D3" t="n">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="E3" t="n">
-        <v>1011</v>
+        <v>1022</v>
       </c>
       <c r="F3" t="n">
-        <v>2844.2018</v>
+        <v>25.4122</v>
       </c>
       <c r="G3" t="n">
-        <v>1018.166666666667</v>
+        <v>1018.516666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="C4" t="n">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="D4" t="n">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="E4" t="n">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F4" t="n">
-        <v>22.7264</v>
+        <v>2844.2018</v>
       </c>
       <c r="G4" t="n">
-        <v>1017.7</v>
+        <v>1018.166666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C5" t="n">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D5" t="n">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E5" t="n">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="F5" t="n">
-        <v>306.888</v>
+        <v>22.7264</v>
       </c>
       <c r="G5" t="n">
-        <v>1017.283333333333</v>
+        <v>1017.7</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>1011</v>
       </c>
       <c r="C6" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D6" t="n">
         <v>1011</v>
       </c>
       <c r="E6" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F6" t="n">
-        <v>47.02</v>
+        <v>306.888</v>
       </c>
       <c r="G6" t="n">
-        <v>1016.916666666667</v>
+        <v>1017.283333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>1011</v>
       </c>
       <c r="F7" t="n">
-        <v>3.8722</v>
+        <v>47.02</v>
       </c>
       <c r="G7" t="n">
-        <v>1016.666666666667</v>
+        <v>1016.916666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C8" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D8" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E8" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F8" t="n">
-        <v>14.6467</v>
+        <v>3.8722</v>
       </c>
       <c r="G8" t="n">
-        <v>1016.45</v>
+        <v>1016.666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C9" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D9" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E9" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F9" t="n">
-        <v>43.4339</v>
+        <v>14.6467</v>
       </c>
       <c r="G9" t="n">
-        <v>1016.266666666667</v>
+        <v>1016.45</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>1011</v>
       </c>
       <c r="F10" t="n">
-        <v>147.7523</v>
+        <v>43.4339</v>
       </c>
       <c r="G10" t="n">
-        <v>1016.1</v>
+        <v>1016.266666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>1011</v>
       </c>
       <c r="F11" t="n">
-        <v>224.69</v>
+        <v>147.7523</v>
       </c>
       <c r="G11" t="n">
-        <v>1015.933333333333</v>
+        <v>1016.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>1011</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>224.69</v>
       </c>
       <c r="G12" t="n">
-        <v>1015.816666666667</v>
+        <v>1015.933333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>1011</v>
       </c>
       <c r="F13" t="n">
-        <v>1084</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>1015.7</v>
+        <v>1015.816666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>1011</v>
       </c>
       <c r="F14" t="n">
-        <v>9.8911</v>
+        <v>1084</v>
       </c>
       <c r="G14" t="n">
-        <v>1015.583333333333</v>
+        <v>1015.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>1011</v>
       </c>
       <c r="F15" t="n">
-        <v>194.9867</v>
+        <v>9.8911</v>
       </c>
       <c r="G15" t="n">
-        <v>1015.466666666667</v>
+        <v>1015.583333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>1011</v>
       </c>
       <c r="F16" t="n">
-        <v>103.2458</v>
+        <v>194.9867</v>
       </c>
       <c r="G16" t="n">
-        <v>1015.333333333333</v>
+        <v>1015.466666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>1011</v>
       </c>
       <c r="F17" t="n">
-        <v>124.52</v>
+        <v>103.2458</v>
       </c>
       <c r="G17" t="n">
-        <v>1015.216666666667</v>
+        <v>1015.333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>1011</v>
       </c>
       <c r="F18" t="n">
-        <v>313</v>
+        <v>124.52</v>
       </c>
       <c r="G18" t="n">
-        <v>1015.05</v>
+        <v>1015.216666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>1011</v>
       </c>
       <c r="F19" t="n">
-        <v>1010.0951</v>
+        <v>313</v>
       </c>
       <c r="G19" t="n">
-        <v>1014.883333333333</v>
+        <v>1015.05</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>1011</v>
       </c>
       <c r="F20" t="n">
-        <v>150.3863</v>
+        <v>1010.0951</v>
       </c>
       <c r="G20" t="n">
-        <v>1014.7</v>
+        <v>1014.883333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,31 +1098,35 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C21" t="n">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="D21" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E21" t="n">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="F21" t="n">
-        <v>1872.0642</v>
+        <v>150.3863</v>
       </c>
       <c r="G21" t="n">
-        <v>1014.483333333333</v>
+        <v>1014.7</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1011</v>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
@@ -1133,22 +1137,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C22" t="n">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D22" t="n">
         <v>1010</v>
       </c>
       <c r="E22" t="n">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F22" t="n">
-        <v>1223.1842</v>
+        <v>1872.0642</v>
       </c>
       <c r="G22" t="n">
-        <v>1014.283333333333</v>
+        <v>1014.483333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,8 +1161,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1178,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C23" t="n">
         <v>1008</v>
       </c>
       <c r="D23" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E23" t="n">
         <v>1008</v>
       </c>
       <c r="F23" t="n">
-        <v>1668.3811</v>
+        <v>1223.1842</v>
       </c>
       <c r="G23" t="n">
-        <v>1014.083333333333</v>
+        <v>1014.283333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,8 +1202,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1209,16 +1225,16 @@
         <v>1008</v>
       </c>
       <c r="D24" t="n">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="E24" t="n">
         <v>1008</v>
       </c>
       <c r="F24" t="n">
-        <v>375</v>
+        <v>1668.3811</v>
       </c>
       <c r="G24" t="n">
-        <v>1013.883333333333</v>
+        <v>1014.083333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,8 +1243,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1244,16 +1266,16 @@
         <v>1008</v>
       </c>
       <c r="D25" t="n">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="E25" t="n">
         <v>1008</v>
       </c>
       <c r="F25" t="n">
-        <v>1060</v>
+        <v>375</v>
       </c>
       <c r="G25" t="n">
-        <v>1013.683333333333</v>
+        <v>1013.883333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,8 +1284,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1285,10 +1313,10 @@
         <v>1008</v>
       </c>
       <c r="F26" t="n">
-        <v>275</v>
+        <v>1060</v>
       </c>
       <c r="G26" t="n">
-        <v>1013.45</v>
+        <v>1013.683333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,8 +1325,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1320,10 +1354,10 @@
         <v>1008</v>
       </c>
       <c r="F27" t="n">
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="G27" t="n">
-        <v>1013.25</v>
+        <v>1013.45</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,8 +1366,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1355,20 +1395,28 @@
         <v>1008</v>
       </c>
       <c r="F28" t="n">
-        <v>146.6555</v>
+        <v>400</v>
       </c>
       <c r="G28" t="n">
-        <v>1013.033333333333</v>
+        <v>1013.25</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1008</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,32 +1426,40 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C29" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D29" t="n">
         <v>1008</v>
       </c>
       <c r="E29" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F29" t="n">
-        <v>2260.0501</v>
+        <v>146.6555</v>
       </c>
       <c r="G29" t="n">
-        <v>1012.816666666667</v>
+        <v>1013.033333333333</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1008</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1419,26 +1475,34 @@
         <v>1007</v>
       </c>
       <c r="D30" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E30" t="n">
         <v>1007</v>
       </c>
       <c r="F30" t="n">
-        <v>289.897</v>
+        <v>2260.0501</v>
       </c>
       <c r="G30" t="n">
-        <v>1012.616666666667</v>
+        <v>1012.816666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1008</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,32 +1512,40 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C31" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D31" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E31" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F31" t="n">
-        <v>296.289</v>
+        <v>289.897</v>
       </c>
       <c r="G31" t="n">
-        <v>1012.416666666667</v>
+        <v>1012.616666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1007</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1495,10 +1567,10 @@
         <v>1006</v>
       </c>
       <c r="F32" t="n">
-        <v>201</v>
+        <v>296.289</v>
       </c>
       <c r="G32" t="n">
-        <v>1012.2</v>
+        <v>1012.416666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,8 +1579,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1530,20 +1608,28 @@
         <v>1006</v>
       </c>
       <c r="F33" t="n">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="G33" t="n">
-        <v>1012.033333333333</v>
+        <v>1012.2</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1006</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,32 +1639,40 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="C34" t="n">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="D34" t="n">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="E34" t="n">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="F34" t="n">
-        <v>9.940300000000001</v>
+        <v>213</v>
       </c>
       <c r="G34" t="n">
-        <v>1011.933333333333</v>
+        <v>1012.033333333333</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1006</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,32 +1682,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C35" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D35" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E35" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F35" t="n">
-        <v>37.5676</v>
+        <v>9.940300000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>1011.883333333333</v>
+        <v>1011.933333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1006</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1725,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C36" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D36" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E36" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F36" t="n">
-        <v>635</v>
+        <v>37.5676</v>
       </c>
       <c r="G36" t="n">
-        <v>1011.866666666667</v>
+        <v>1011.883333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,8 +1749,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,32 +1766,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="C37" t="n">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="D37" t="n">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="E37" t="n">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="F37" t="n">
-        <v>72</v>
+        <v>635</v>
       </c>
       <c r="G37" t="n">
-        <v>1011.716666666667</v>
+        <v>1011.866666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1010</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,32 +1809,40 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C38" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D38" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="E38" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="F38" t="n">
-        <v>141.72</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
-        <v>1011.7</v>
+        <v>1011.716666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,7 +1852,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C39" t="n">
         <v>1010</v>
@@ -1737,23 +1861,31 @@
         <v>1010</v>
       </c>
       <c r="E39" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F39" t="n">
-        <v>37.4799</v>
+        <v>141.72</v>
       </c>
       <c r="G39" t="n">
         <v>1011.7</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1006</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,7 +1895,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C40" t="n">
         <v>1010</v>
@@ -1772,13 +1904,13 @@
         <v>1010</v>
       </c>
       <c r="E40" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F40" t="n">
-        <v>257.7375</v>
+        <v>37.4799</v>
       </c>
       <c r="G40" t="n">
-        <v>1011.683333333333</v>
+        <v>1011.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,8 +1919,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,19 +1936,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C41" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D41" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E41" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>257.7375</v>
       </c>
       <c r="G41" t="n">
         <v>1011.683333333333</v>
@@ -1822,8 +1960,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1977,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="C42" t="n">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="D42" t="n">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="E42" t="n">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="F42" t="n">
-        <v>942.2497</v>
+        <v>100</v>
       </c>
       <c r="G42" t="n">
-        <v>1011.6</v>
+        <v>1011.683333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,8 +2001,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,19 +2018,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C43" t="n">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="D43" t="n">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="E43" t="n">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="F43" t="n">
-        <v>9.940300000000001</v>
+        <v>942.2497</v>
       </c>
       <c r="G43" t="n">
         <v>1011.6</v>
@@ -1892,8 +2042,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1915,10 +2071,10 @@
         <v>1011</v>
       </c>
       <c r="F44" t="n">
-        <v>389.8775</v>
+        <v>9.940300000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>1011.55</v>
+        <v>1011.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,8 +2083,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1950,10 +2112,10 @@
         <v>1011</v>
       </c>
       <c r="F45" t="n">
-        <v>302.9415</v>
+        <v>389.8775</v>
       </c>
       <c r="G45" t="n">
-        <v>1011.483333333333</v>
+        <v>1011.55</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,8 +2124,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2141,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="C46" t="n">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="D46" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="E46" t="n">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="F46" t="n">
-        <v>818.8146</v>
+        <v>302.9415</v>
       </c>
       <c r="G46" t="n">
-        <v>1011.333333333333</v>
+        <v>1011.483333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,8 +2165,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,32 +2182,40 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C47" t="n">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="D47" t="n">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E47" t="n">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="F47" t="n">
-        <v>19.8806</v>
+        <v>818.8146</v>
       </c>
       <c r="G47" t="n">
-        <v>1011.25</v>
+        <v>1011.333333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2055,10 +2237,10 @@
         <v>1011</v>
       </c>
       <c r="F48" t="n">
-        <v>31.2</v>
+        <v>19.8806</v>
       </c>
       <c r="G48" t="n">
-        <v>1011.183333333333</v>
+        <v>1011.25</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,8 +2249,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2266,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C49" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D49" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E49" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F49" t="n">
-        <v>2864.3991</v>
+        <v>31.2</v>
       </c>
       <c r="G49" t="n">
-        <v>1011.083333333333</v>
+        <v>1011.183333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,8 +2290,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2125,10 +2319,10 @@
         <v>1010</v>
       </c>
       <c r="F50" t="n">
-        <v>311.9324</v>
+        <v>2864.3991</v>
       </c>
       <c r="G50" t="n">
-        <v>1010.983333333333</v>
+        <v>1011.083333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,8 +2331,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2348,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C51" t="n">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D51" t="n">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E51" t="n">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="F51" t="n">
-        <v>34.0727</v>
+        <v>311.9324</v>
       </c>
       <c r="G51" t="n">
-        <v>1010.95</v>
+        <v>1010.983333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,8 +2372,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,7 +2389,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="C52" t="n">
         <v>1013</v>
@@ -2192,10 +2398,10 @@
         <v>1013</v>
       </c>
       <c r="E52" t="n">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="F52" t="n">
-        <v>453.1915</v>
+        <v>34.0727</v>
       </c>
       <c r="G52" t="n">
         <v>1010.95</v>
@@ -2207,8 +2413,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2430,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C53" t="n">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="D53" t="n">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="E53" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>453.1915</v>
       </c>
       <c r="G53" t="n">
-        <v>1010.816666666667</v>
+        <v>1010.95</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,8 +2454,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2265,10 +2483,10 @@
         <v>1010</v>
       </c>
       <c r="F54" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
-        <v>1010.75</v>
+        <v>1010.816666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2495,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,19 +2512,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C55" t="n">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="D55" t="n">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="E55" t="n">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="F55" t="n">
-        <v>9.9009</v>
+        <v>150</v>
       </c>
       <c r="G55" t="n">
         <v>1010.75</v>
@@ -2312,8 +2536,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2553,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="C56" t="n">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="D56" t="n">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="E56" t="n">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="F56" t="n">
-        <v>68.0055</v>
+        <v>9.9009</v>
       </c>
       <c r="G56" t="n">
-        <v>1010.766666666667</v>
+        <v>1010.75</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,8 +2577,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2594,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="C57" t="n">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D57" t="n">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E57" t="n">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="F57" t="n">
-        <v>456.7799</v>
+        <v>68.0055</v>
       </c>
       <c r="G57" t="n">
-        <v>1010.8</v>
+        <v>1010.766666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,8 +2618,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2635,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C58" t="n">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="D58" t="n">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E58" t="n">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="F58" t="n">
-        <v>948.6941</v>
+        <v>456.7799</v>
       </c>
       <c r="G58" t="n">
-        <v>1010.883333333333</v>
+        <v>1010.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,8 +2659,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,7 +2676,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C59" t="n">
         <v>1018</v>
@@ -2437,13 +2685,13 @@
         <v>1018</v>
       </c>
       <c r="E59" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F59" t="n">
-        <v>363.57</v>
+        <v>948.6941</v>
       </c>
       <c r="G59" t="n">
-        <v>1010.933333333333</v>
+        <v>1010.883333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,8 +2700,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2475,10 +2729,10 @@
         <v>1016</v>
       </c>
       <c r="F60" t="n">
-        <v>1271.04</v>
+        <v>363.57</v>
       </c>
       <c r="G60" t="n">
-        <v>1010.916666666667</v>
+        <v>1010.933333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,8 +2741,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,7 +2758,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C61" t="n">
         <v>1018</v>
@@ -2507,13 +2767,13 @@
         <v>1018</v>
       </c>
       <c r="E61" t="n">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F61" t="n">
-        <v>553.2999</v>
+        <v>1271.04</v>
       </c>
       <c r="G61" t="n">
-        <v>1010.733333333333</v>
+        <v>1010.916666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,8 +2782,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2545,10 +2811,10 @@
         <v>1018</v>
       </c>
       <c r="F62" t="n">
-        <v>300.0409</v>
+        <v>553.2999</v>
       </c>
       <c r="G62" t="n">
-        <v>1010.666666666667</v>
+        <v>1010.733333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,8 +2823,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2840,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="C63" t="n">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D63" t="n">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E63" t="n">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="F63" t="n">
-        <v>258.37</v>
+        <v>300.0409</v>
       </c>
       <c r="G63" t="n">
-        <v>1010.683333333333</v>
+        <v>1010.666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2864,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2615,10 +2893,10 @@
         <v>1021</v>
       </c>
       <c r="F64" t="n">
-        <v>83.9388</v>
+        <v>258.37</v>
       </c>
       <c r="G64" t="n">
-        <v>1010.833333333333</v>
+        <v>1010.683333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,8 +2905,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2922,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C65" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D65" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E65" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F65" t="n">
-        <v>9.564</v>
+        <v>83.9388</v>
       </c>
       <c r="G65" t="n">
-        <v>1011</v>
+        <v>1010.833333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,8 +2946,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2963,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C66" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D66" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E66" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F66" t="n">
-        <v>1200</v>
+        <v>9.564</v>
       </c>
       <c r="G66" t="n">
-        <v>1011.166666666667</v>
+        <v>1011</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,8 +2987,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +3004,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C67" t="n">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D67" t="n">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E67" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F67" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G67" t="n">
-        <v>1011.366666666667</v>
+        <v>1011.166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +3028,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,7 +3045,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C68" t="n">
         <v>1023</v>
@@ -2752,13 +3054,13 @@
         <v>1023</v>
       </c>
       <c r="E68" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F68" t="n">
-        <v>457.8466</v>
+        <v>2400</v>
       </c>
       <c r="G68" t="n">
-        <v>1011.583333333333</v>
+        <v>1011.366666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,8 +3069,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +3086,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C69" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D69" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E69" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F69" t="n">
-        <v>9.7751</v>
+        <v>457.8466</v>
       </c>
       <c r="G69" t="n">
-        <v>1011.816666666667</v>
+        <v>1011.583333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +3110,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +3127,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="C70" t="n">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D70" t="n">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="E70" t="n">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="F70" t="n">
-        <v>76.61</v>
+        <v>9.7751</v>
       </c>
       <c r="G70" t="n">
-        <v>1012.016666666667</v>
+        <v>1011.816666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +3151,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2860,10 +3180,10 @@
         <v>1023</v>
       </c>
       <c r="F71" t="n">
-        <v>20.5821</v>
+        <v>76.61</v>
       </c>
       <c r="G71" t="n">
-        <v>1012.216666666667</v>
+        <v>1012.016666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,8 +3192,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2895,10 +3221,10 @@
         <v>1023</v>
       </c>
       <c r="F72" t="n">
-        <v>3.5734</v>
+        <v>20.5821</v>
       </c>
       <c r="G72" t="n">
-        <v>1012.416666666667</v>
+        <v>1012.216666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,8 +3233,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2921,19 +3253,19 @@
         <v>1023</v>
       </c>
       <c r="C73" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D73" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E73" t="n">
         <v>1023</v>
       </c>
       <c r="F73" t="n">
-        <v>2662.9282</v>
+        <v>3.5734</v>
       </c>
       <c r="G73" t="n">
-        <v>1012.633333333333</v>
+        <v>1012.416666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,8 +3274,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2956,19 +3294,19 @@
         <v>1023</v>
       </c>
       <c r="C74" t="n">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="D74" t="n">
+        <v>1025</v>
+      </c>
+      <c r="E74" t="n">
         <v>1023</v>
       </c>
-      <c r="E74" t="n">
-        <v>1021</v>
-      </c>
       <c r="F74" t="n">
-        <v>50</v>
+        <v>2662.9282</v>
       </c>
       <c r="G74" t="n">
-        <v>1012.8</v>
+        <v>1012.633333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,8 +3315,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3332,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C75" t="n">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D75" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E75" t="n">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="F75" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="G75" t="n">
-        <v>1013.033333333333</v>
+        <v>1012.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,8 +3356,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3035,10 +3385,10 @@
         <v>1025</v>
       </c>
       <c r="F76" t="n">
-        <v>228.6209</v>
+        <v>230</v>
       </c>
       <c r="G76" t="n">
-        <v>1013.266666666667</v>
+        <v>1013.033333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,8 +3397,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3070,10 +3426,10 @@
         <v>1025</v>
       </c>
       <c r="F77" t="n">
-        <v>133.8649</v>
+        <v>228.6209</v>
       </c>
       <c r="G77" t="n">
-        <v>1013.5</v>
+        <v>1013.266666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,8 +3438,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3105,10 +3467,10 @@
         <v>1025</v>
       </c>
       <c r="F78" t="n">
-        <v>667.9795</v>
+        <v>133.8649</v>
       </c>
       <c r="G78" t="n">
-        <v>1013.733333333333</v>
+        <v>1013.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,8 +3479,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3496,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="C79" t="n">
         <v>1025</v>
@@ -3137,13 +3505,13 @@
         <v>1025</v>
       </c>
       <c r="E79" t="n">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="F79" t="n">
-        <v>1486.3287</v>
+        <v>667.9795</v>
       </c>
       <c r="G79" t="n">
-        <v>1013.966666666667</v>
+        <v>1013.733333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,8 +3520,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,7 +3537,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C80" t="n">
         <v>1025</v>
@@ -3172,13 +3546,13 @@
         <v>1025</v>
       </c>
       <c r="E80" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F80" t="n">
-        <v>1290</v>
+        <v>1486.3287</v>
       </c>
       <c r="G80" t="n">
-        <v>1014.2</v>
+        <v>1013.966666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,8 +3561,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3210,10 +3590,10 @@
         <v>1025</v>
       </c>
       <c r="F81" t="n">
-        <v>176.3726</v>
+        <v>1290</v>
       </c>
       <c r="G81" t="n">
-        <v>1014.5</v>
+        <v>1014.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,8 +3602,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3619,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C82" t="n">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="D82" t="n">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="E82" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F82" t="n">
-        <v>1033.75</v>
+        <v>176.3726</v>
       </c>
       <c r="G82" t="n">
-        <v>1014.866666666667</v>
+        <v>1014.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,8 +3643,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3660,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="C83" t="n">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="D83" t="n">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="E83" t="n">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="F83" t="n">
-        <v>1820</v>
+        <v>1033.75</v>
       </c>
       <c r="G83" t="n">
-        <v>1015.383333333333</v>
+        <v>1014.866666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,8 +3684,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,7 +3701,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="C84" t="n">
         <v>1039</v>
@@ -3312,13 +3710,13 @@
         <v>1039</v>
       </c>
       <c r="E84" t="n">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="F84" t="n">
-        <v>185</v>
+        <v>1820</v>
       </c>
       <c r="G84" t="n">
-        <v>1015.9</v>
+        <v>1015.383333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3725,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3341,19 +3745,19 @@
         <v>1039</v>
       </c>
       <c r="C85" t="n">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="D85" t="n">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="E85" t="n">
         <v>1039</v>
       </c>
       <c r="F85" t="n">
-        <v>955.0818</v>
+        <v>185</v>
       </c>
       <c r="G85" t="n">
-        <v>1016.466666666667</v>
+        <v>1015.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,8 +3766,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,10 +3783,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C86" t="n">
         <v>1042</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1039</v>
       </c>
       <c r="D86" t="n">
         <v>1042</v>
@@ -3385,22 +3795,28 @@
         <v>1039</v>
       </c>
       <c r="F86" t="n">
-        <v>10.5969</v>
+        <v>955.0818</v>
       </c>
       <c r="G86" t="n">
-        <v>1016.983333333333</v>
+        <v>1016.466666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M86" t="n">
-        <v>1</v>
+        <v>1.025662710187933</v>
       </c>
     </row>
     <row r="87">
@@ -3408,28 +3824,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="C87" t="n">
         <v>1039</v>
       </c>
       <c r="D87" t="n">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="E87" t="n">
         <v>1039</v>
       </c>
       <c r="F87" t="n">
-        <v>100</v>
+        <v>10.5969</v>
       </c>
       <c r="G87" t="n">
-        <v>1017.5</v>
+        <v>1016.983333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3443,28 +3859,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C88" t="n">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="D88" t="n">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="E88" t="n">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="F88" t="n">
-        <v>55.5316</v>
+        <v>100</v>
       </c>
       <c r="G88" t="n">
-        <v>1018.066666666667</v>
+        <v>1017.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3478,28 +3894,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C89" t="n">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D89" t="n">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E89" t="n">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F89" t="n">
-        <v>150</v>
+        <v>55.5316</v>
       </c>
       <c r="G89" t="n">
-        <v>1018.683333333333</v>
+        <v>1018.066666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3525,16 +3941,16 @@
         <v>1044</v>
       </c>
       <c r="F90" t="n">
-        <v>7.6772</v>
+        <v>150</v>
       </c>
       <c r="G90" t="n">
-        <v>1019.3</v>
+        <v>1018.683333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3560,16 +3976,16 @@
         <v>1044</v>
       </c>
       <c r="F91" t="n">
-        <v>470.9348</v>
+        <v>7.6772</v>
       </c>
       <c r="G91" t="n">
-        <v>1019.933333333333</v>
+        <v>1019.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3586,25 +4002,25 @@
         <v>1044</v>
       </c>
       <c r="C92" t="n">
-        <v>1037</v>
+        <v>1044</v>
       </c>
       <c r="D92" t="n">
         <v>1044</v>
       </c>
       <c r="E92" t="n">
-        <v>1037</v>
+        <v>1044</v>
       </c>
       <c r="F92" t="n">
-        <v>6108.6604</v>
+        <v>470.9348</v>
       </c>
       <c r="G92" t="n">
-        <v>1020.45</v>
+        <v>1019.933333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3618,22 +4034,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="C93" t="n">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D93" t="n">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="E93" t="n">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F93" t="n">
-        <v>984.6989</v>
+        <v>6108.6604</v>
       </c>
       <c r="G93" t="n">
-        <v>1021</v>
+        <v>1020.45</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +4081,10 @@
         <v>1039</v>
       </c>
       <c r="F94" t="n">
-        <v>735.0243</v>
+        <v>984.6989</v>
       </c>
       <c r="G94" t="n">
-        <v>1021.466666666667</v>
+        <v>1021</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +4104,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C95" t="n">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D95" t="n">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="E95" t="n">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="F95" t="n">
-        <v>521.9947</v>
+        <v>735.0243</v>
       </c>
       <c r="G95" t="n">
-        <v>1021.933333333333</v>
+        <v>1021.466666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3726,7 +4142,7 @@
         <v>1038</v>
       </c>
       <c r="C96" t="n">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D96" t="n">
         <v>1038</v>
@@ -3735,10 +4151,10 @@
         <v>1037</v>
       </c>
       <c r="F96" t="n">
-        <v>149.625</v>
+        <v>521.9947</v>
       </c>
       <c r="G96" t="n">
-        <v>1022.366666666667</v>
+        <v>1021.933333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +4174,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="C97" t="n">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="D97" t="n">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="E97" t="n">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5965</v>
+        <v>149.625</v>
       </c>
       <c r="G97" t="n">
-        <v>1022.816666666667</v>
+        <v>1022.366666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +4209,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="C98" t="n">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="D98" t="n">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="E98" t="n">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="F98" t="n">
-        <v>806.9472</v>
+        <v>0.5965</v>
       </c>
       <c r="G98" t="n">
-        <v>1023.266666666667</v>
+        <v>1022.816666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +4256,10 @@
         <v>1037</v>
       </c>
       <c r="F99" t="n">
-        <v>6.383</v>
+        <v>806.9472</v>
       </c>
       <c r="G99" t="n">
-        <v>1023.716666666667</v>
+        <v>1023.266666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +4279,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="C100" t="n">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="D100" t="n">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="E100" t="n">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="F100" t="n">
-        <v>300.7512</v>
+        <v>6.383</v>
       </c>
       <c r="G100" t="n">
-        <v>1024.083333333333</v>
+        <v>1023.716666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +4314,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C101" t="n">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="D101" t="n">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="E101" t="n">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="F101" t="n">
-        <v>5628.3701</v>
+        <v>300.7512</v>
       </c>
       <c r="G101" t="n">
-        <v>1024.4</v>
+        <v>1024.083333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +4349,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>1031</v>
+      </c>
+      <c r="C102" t="n">
         <v>1030</v>
       </c>
-      <c r="C102" t="n">
-        <v>1029</v>
-      </c>
       <c r="D102" t="n">
+        <v>1031</v>
+      </c>
+      <c r="E102" t="n">
         <v>1030</v>
       </c>
-      <c r="E102" t="n">
-        <v>1029</v>
-      </c>
       <c r="F102" t="n">
-        <v>1320.9501</v>
+        <v>5628.3701</v>
       </c>
       <c r="G102" t="n">
-        <v>1024.783333333333</v>
+        <v>1024.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +4384,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C103" t="n">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="D103" t="n">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="E103" t="n">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F103" t="n">
-        <v>9.7181</v>
+        <v>1320.9501</v>
       </c>
       <c r="G103" t="n">
-        <v>1025.166666666667</v>
+        <v>1024.783333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4419,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="C104" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D104" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E104" t="n">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="F104" t="n">
-        <v>0.2</v>
+        <v>9.7181</v>
       </c>
       <c r="G104" t="n">
-        <v>1025.566666666667</v>
+        <v>1025.166666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,7 +4454,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C105" t="n">
         <v>1035</v>
@@ -4047,13 +4463,13 @@
         <v>1035</v>
       </c>
       <c r="E105" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="F105" t="n">
-        <v>220.56</v>
+        <v>0.2</v>
       </c>
       <c r="G105" t="n">
-        <v>1025.966666666667</v>
+        <v>1025.566666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4489,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="C106" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D106" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E106" t="n">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="F106" t="n">
-        <v>257.5687</v>
+        <v>220.56</v>
       </c>
       <c r="G106" t="n">
-        <v>1026.466666666667</v>
+        <v>1025.966666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4111,19 +4527,19 @@
         <v>1031</v>
       </c>
       <c r="C107" t="n">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="D107" t="n">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="E107" t="n">
         <v>1031</v>
       </c>
       <c r="F107" t="n">
-        <v>95.9883</v>
+        <v>257.5687</v>
       </c>
       <c r="G107" t="n">
-        <v>1026.8</v>
+        <v>1026.466666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4559,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="C108" t="n">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="D108" t="n">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="E108" t="n">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>95.9883</v>
       </c>
       <c r="G108" t="n">
-        <v>1027.2</v>
+        <v>1026.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,19 +4597,19 @@
         <v>1035</v>
       </c>
       <c r="C109" t="n">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D109" t="n">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E109" t="n">
         <v>1035</v>
       </c>
       <c r="F109" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>1027.65</v>
+        <v>1027.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4629,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C110" t="n">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="D110" t="n">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="E110" t="n">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="F110" t="n">
-        <v>394.043</v>
+        <v>26</v>
       </c>
       <c r="G110" t="n">
-        <v>1028.016666666667</v>
+        <v>1027.65</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4664,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C111" t="n">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="D111" t="n">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E111" t="n">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>394.043</v>
       </c>
       <c r="G111" t="n">
-        <v>1028.4</v>
+        <v>1028.016666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4699,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C112" t="n">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="D112" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E112" t="n">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="F112" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>1028.7</v>
+        <v>1028.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4734,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C113" t="n">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="D113" t="n">
         <v>1035</v>
       </c>
       <c r="E113" t="n">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="F113" t="n">
-        <v>1150</v>
+        <v>14</v>
       </c>
       <c r="G113" t="n">
-        <v>1029.116666666667</v>
+        <v>1028.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4769,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C114" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D114" t="n">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E114" t="n">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2</v>
+        <v>1150</v>
       </c>
       <c r="G114" t="n">
-        <v>1029.55</v>
+        <v>1029.116666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4804,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="C115" t="n">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="D115" t="n">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="E115" t="n">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="F115" t="n">
-        <v>100</v>
+        <v>0.2</v>
       </c>
       <c r="G115" t="n">
-        <v>1029.85</v>
+        <v>1029.55</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4839,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C116" t="n">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D116" t="n">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="E116" t="n">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="F116" t="n">
-        <v>40.3843</v>
+        <v>100</v>
       </c>
       <c r="G116" t="n">
-        <v>1030.25</v>
+        <v>1029.85</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4874,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C117" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D117" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E117" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F117" t="n">
-        <v>240.9218</v>
+        <v>40.3843</v>
       </c>
       <c r="G117" t="n">
-        <v>1030.65</v>
+        <v>1030.25</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4496,19 +4912,19 @@
         <v>1036</v>
       </c>
       <c r="C118" t="n">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D118" t="n">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E118" t="n">
         <v>1036</v>
       </c>
       <c r="F118" t="n">
-        <v>198.63970867</v>
+        <v>240.9218</v>
       </c>
       <c r="G118" t="n">
-        <v>1030.966666666667</v>
+        <v>1030.65</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,7 +4944,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C119" t="n">
         <v>1037</v>
@@ -4537,13 +4953,13 @@
         <v>1037</v>
       </c>
       <c r="E119" t="n">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F119" t="n">
-        <v>1544.5438</v>
+        <v>198.63970867</v>
       </c>
       <c r="G119" t="n">
-        <v>1031.283333333333</v>
+        <v>1030.966666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4991,10 @@
         <v>1037</v>
       </c>
       <c r="F120" t="n">
-        <v>193.0684</v>
+        <v>1544.5438</v>
       </c>
       <c r="G120" t="n">
-        <v>1031.6</v>
+        <v>1031.283333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4601,19 +5017,19 @@
         <v>1037</v>
       </c>
       <c r="C121" t="n">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="D121" t="n">
         <v>1037</v>
       </c>
       <c r="E121" t="n">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="F121" t="n">
-        <v>19.6432</v>
+        <v>193.0684</v>
       </c>
       <c r="G121" t="n">
-        <v>1031.833333333333</v>
+        <v>1031.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +5049,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C122" t="n">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="D122" t="n">
         <v>1037</v>
       </c>
       <c r="E122" t="n">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="F122" t="n">
-        <v>516.24783027</v>
+        <v>19.6432</v>
       </c>
       <c r="G122" t="n">
-        <v>1032.15</v>
+        <v>1031.833333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4671,19 +5087,19 @@
         <v>1036</v>
       </c>
       <c r="C123" t="n">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D123" t="n">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E123" t="n">
         <v>1036</v>
       </c>
       <c r="F123" t="n">
-        <v>591.6999</v>
+        <v>516.24783027</v>
       </c>
       <c r="G123" t="n">
-        <v>1032.4</v>
+        <v>1032.15</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4706,19 +5122,19 @@
         <v>1036</v>
       </c>
       <c r="C124" t="n">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D124" t="n">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E124" t="n">
         <v>1036</v>
       </c>
       <c r="F124" t="n">
-        <v>71.9726</v>
+        <v>591.6999</v>
       </c>
       <c r="G124" t="n">
-        <v>1032.683333333333</v>
+        <v>1032.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +5154,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="C125" t="n">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="D125" t="n">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="E125" t="n">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="F125" t="n">
-        <v>1960.8157</v>
+        <v>71.9726</v>
       </c>
       <c r="G125" t="n">
-        <v>1032.883333333333</v>
+        <v>1032.683333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +5189,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C126" t="n">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="D126" t="n">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E126" t="n">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="F126" t="n">
-        <v>201.2199</v>
+        <v>1960.8157</v>
       </c>
       <c r="G126" t="n">
-        <v>1033.133333333333</v>
+        <v>1032.883333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +5224,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="C127" t="n">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="D127" t="n">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="E127" t="n">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="F127" t="n">
-        <v>9.710900000000001</v>
+        <v>201.2199</v>
       </c>
       <c r="G127" t="n">
-        <v>1033.283333333333</v>
+        <v>1033.133333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +5259,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C128" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D128" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E128" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F128" t="n">
-        <v>175.96</v>
+        <v>9.710900000000001</v>
       </c>
       <c r="G128" t="n">
-        <v>1033.45</v>
+        <v>1033.283333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4890,10 +5306,10 @@
         <v>1033</v>
       </c>
       <c r="F129" t="n">
-        <v>351.6554</v>
+        <v>175.96</v>
       </c>
       <c r="G129" t="n">
-        <v>1033.583333333333</v>
+        <v>1033.45</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4925,10 +5341,10 @@
         <v>1033</v>
       </c>
       <c r="F130" t="n">
-        <v>889.0324000000001</v>
+        <v>351.6554</v>
       </c>
       <c r="G130" t="n">
-        <v>1033.75</v>
+        <v>1033.583333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,10 +5376,10 @@
         <v>1033</v>
       </c>
       <c r="F131" t="n">
-        <v>100</v>
+        <v>889.0324000000001</v>
       </c>
       <c r="G131" t="n">
-        <v>1033.916666666667</v>
+        <v>1033.75</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +5399,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="C132" t="n">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D132" t="n">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="E132" t="n">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F132" t="n">
-        <v>1075.4199</v>
+        <v>100</v>
       </c>
       <c r="G132" t="n">
-        <v>1034.05</v>
+        <v>1033.916666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5434,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C133" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D133" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E133" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F133" t="n">
-        <v>875.7494</v>
+        <v>1075.4199</v>
       </c>
       <c r="G133" t="n">
-        <v>1034.183333333333</v>
+        <v>1034.05</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5056,19 +5472,19 @@
         <v>1032</v>
       </c>
       <c r="C134" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D134" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E134" t="n">
         <v>1032</v>
       </c>
       <c r="F134" t="n">
-        <v>2600.9634</v>
+        <v>875.7494</v>
       </c>
       <c r="G134" t="n">
-        <v>1034.383333333333</v>
+        <v>1034.183333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5504,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C135" t="n">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D135" t="n">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E135" t="n">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="F135" t="n">
-        <v>0.571</v>
+        <v>2600.9634</v>
       </c>
       <c r="G135" t="n">
-        <v>1034.55</v>
+        <v>1034.383333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5539,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C136" t="n">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="D136" t="n">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="E136" t="n">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="F136" t="n">
-        <v>443.4169</v>
+        <v>0.571</v>
       </c>
       <c r="G136" t="n">
-        <v>1034.683333333333</v>
+        <v>1034.55</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5574,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C137" t="n">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="D137" t="n">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E137" t="n">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="F137" t="n">
-        <v>9.6805</v>
+        <v>443.4169</v>
       </c>
       <c r="G137" t="n">
-        <v>1034.866666666667</v>
+        <v>1034.683333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5609,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="C138" t="n">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="D138" t="n">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="E138" t="n">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="F138" t="n">
-        <v>460.9554</v>
+        <v>9.6805</v>
       </c>
       <c r="G138" t="n">
-        <v>1034.983333333333</v>
+        <v>1034.866666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5644,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C139" t="n">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D139" t="n">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="E139" t="n">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="F139" t="n">
-        <v>40.944</v>
+        <v>460.9554</v>
       </c>
       <c r="G139" t="n">
-        <v>1035.083333333333</v>
+        <v>1034.983333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5679,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C140" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D140" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E140" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F140" t="n">
-        <v>1056.6598</v>
+        <v>40.944</v>
       </c>
       <c r="G140" t="n">
-        <v>1035.166666666667</v>
+        <v>1035.083333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5714,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C141" t="n">
         <v>1030</v>
       </c>
       <c r="D141" t="n">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="E141" t="n">
         <v>1030</v>
       </c>
       <c r="F141" t="n">
-        <v>330.0026</v>
+        <v>1056.6598</v>
       </c>
       <c r="G141" t="n">
-        <v>1035.25</v>
+        <v>1035.166666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5749,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C142" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D142" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E142" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F142" t="n">
-        <v>0.639</v>
+        <v>330.0026</v>
       </c>
       <c r="G142" t="n">
-        <v>1035.266666666667</v>
+        <v>1035.25</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5371,19 +5787,19 @@
         <v>1031</v>
       </c>
       <c r="C143" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D143" t="n">
         <v>1031</v>
       </c>
       <c r="E143" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F143" t="n">
-        <v>2677.3696</v>
+        <v>0.639</v>
       </c>
       <c r="G143" t="n">
-        <v>1035.116666666667</v>
+        <v>1035.266666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5819,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C144" t="n">
         <v>1030</v>
       </c>
       <c r="D144" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E144" t="n">
         <v>1030</v>
       </c>
       <c r="F144" t="n">
-        <v>1080</v>
+        <v>2677.3696</v>
       </c>
       <c r="G144" t="n">
-        <v>1034.966666666667</v>
+        <v>1035.116666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5854,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="C145" t="n">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="D145" t="n">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="E145" t="n">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="F145" t="n">
-        <v>66</v>
+        <v>1080</v>
       </c>
       <c r="G145" t="n">
-        <v>1034.666666666667</v>
+        <v>1034.966666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5476,19 +5892,19 @@
         <v>1024</v>
       </c>
       <c r="C146" t="n">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="D146" t="n">
         <v>1024</v>
       </c>
       <c r="E146" t="n">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="F146" t="n">
-        <v>1934</v>
+        <v>66</v>
       </c>
       <c r="G146" t="n">
-        <v>1034.383333333333</v>
+        <v>1034.666666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5924,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C147" t="n">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="D147" t="n">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="E147" t="n">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="F147" t="n">
-        <v>5738.8256</v>
+        <v>1934</v>
       </c>
       <c r="G147" t="n">
-        <v>1034.183333333333</v>
+        <v>1034.383333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5546,19 +5962,19 @@
         <v>1023</v>
       </c>
       <c r="C148" t="n">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="D148" t="n">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="E148" t="n">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="F148" t="n">
-        <v>8.940300000000001</v>
+        <v>5738.8256</v>
       </c>
       <c r="G148" t="n">
-        <v>1033.866666666667</v>
+        <v>1034.183333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5994,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="C149" t="n">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D149" t="n">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="E149" t="n">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="F149" t="n">
-        <v>689.87</v>
+        <v>8.940300000000001</v>
       </c>
       <c r="G149" t="n">
-        <v>1033.483333333333</v>
+        <v>1033.866666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5625,10 +6041,10 @@
         <v>1021</v>
       </c>
       <c r="F150" t="n">
-        <v>47.2232</v>
+        <v>689.87</v>
       </c>
       <c r="G150" t="n">
-        <v>1033.1</v>
+        <v>1033.483333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +6064,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C151" t="n">
         <v>1021</v>
       </c>
       <c r="D151" t="n">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E151" t="n">
         <v>1021</v>
       </c>
       <c r="F151" t="n">
-        <v>15.3946</v>
+        <v>47.2232</v>
       </c>
       <c r="G151" t="n">
-        <v>1032.716666666667</v>
+        <v>1033.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +6099,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C152" t="n">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="D152" t="n">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E152" t="n">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="F152" t="n">
-        <v>443.21</v>
+        <v>15.3946</v>
       </c>
       <c r="G152" t="n">
-        <v>1032.533333333333</v>
+        <v>1032.716666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +6134,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C153" t="n">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D153" t="n">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E153" t="n">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="F153" t="n">
-        <v>900</v>
+        <v>443.21</v>
       </c>
       <c r="G153" t="n">
-        <v>1032.3</v>
+        <v>1032.533333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +6169,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C154" t="n">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="D154" t="n">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="E154" t="n">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="F154" t="n">
-        <v>1576.9717</v>
+        <v>900</v>
       </c>
       <c r="G154" t="n">
-        <v>1032.133333333333</v>
+        <v>1032.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +6204,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C155" t="n">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D155" t="n">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E155" t="n">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F155" t="n">
-        <v>1126.9496</v>
+        <v>1576.9717</v>
       </c>
       <c r="G155" t="n">
-        <v>1032</v>
+        <v>1032.133333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +6239,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C156" t="n">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D156" t="n">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E156" t="n">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F156" t="n">
-        <v>87.11750000000001</v>
+        <v>1126.9496</v>
       </c>
       <c r="G156" t="n">
-        <v>1031.866666666667</v>
+        <v>1032</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +6274,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="C157" t="n">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="D157" t="n">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="E157" t="n">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="F157" t="n">
-        <v>1100</v>
+        <v>87.11750000000001</v>
       </c>
       <c r="G157" t="n">
-        <v>1031.733333333333</v>
+        <v>1031.866666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +6309,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C158" t="n">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D158" t="n">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="E158" t="n">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="F158" t="n">
-        <v>99.75</v>
+        <v>1100</v>
       </c>
       <c r="G158" t="n">
-        <v>1031.5</v>
+        <v>1031.733333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +6344,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C159" t="n">
         <v>1023</v>
       </c>
       <c r="D159" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E159" t="n">
         <v>1023</v>
       </c>
       <c r="F159" t="n">
-        <v>506.7433</v>
+        <v>99.75</v>
       </c>
       <c r="G159" t="n">
-        <v>1031.266666666667</v>
+        <v>1031.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +6379,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C160" t="n">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="D160" t="n">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E160" t="n">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="F160" t="n">
-        <v>662.0133</v>
+        <v>506.7433</v>
       </c>
       <c r="G160" t="n">
-        <v>1031.066666666667</v>
+        <v>1031.266666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +6414,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C161" t="n">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="D161" t="n">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E161" t="n">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="F161" t="n">
-        <v>140.7548</v>
+        <v>662.0133</v>
       </c>
       <c r="G161" t="n">
-        <v>1030.966666666667</v>
+        <v>1031.066666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6449,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C162" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D162" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E162" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F162" t="n">
-        <v>919.9227</v>
+        <v>140.7548</v>
       </c>
       <c r="G162" t="n">
-        <v>1030.9</v>
+        <v>1030.966666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6484,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C163" t="n">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="D163" t="n">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="E163" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F163" t="n">
-        <v>179.8743</v>
+        <v>919.9227</v>
       </c>
       <c r="G163" t="n">
-        <v>1030.816666666667</v>
+        <v>1030.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6519,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C164" t="n">
         <v>1029</v>
       </c>
-      <c r="C164" t="n">
-        <v>1031</v>
-      </c>
       <c r="D164" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E164" t="n">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="F164" t="n">
-        <v>3243.2955</v>
+        <v>179.8743</v>
       </c>
       <c r="G164" t="n">
-        <v>1030.75</v>
+        <v>1030.816666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6554,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
+        <v>1029</v>
+      </c>
+      <c r="C165" t="n">
         <v>1031</v>
       </c>
-      <c r="C165" t="n">
-        <v>1034</v>
-      </c>
       <c r="D165" t="n">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E165" t="n">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F165" t="n">
-        <v>990</v>
+        <v>3243.2955</v>
       </c>
       <c r="G165" t="n">
-        <v>1030.733333333333</v>
+        <v>1030.75</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6589,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
+        <v>1031</v>
+      </c>
+      <c r="C166" t="n">
         <v>1034</v>
       </c>
-      <c r="C166" t="n">
-        <v>1035</v>
-      </c>
       <c r="D166" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E166" t="n">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="F166" t="n">
-        <v>210</v>
+        <v>990</v>
       </c>
       <c r="G166" t="n">
-        <v>1030.716666666667</v>
+        <v>1030.733333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6624,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C167" t="n">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="D167" t="n">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="E167" t="n">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F167" t="n">
-        <v>645</v>
+        <v>210</v>
       </c>
       <c r="G167" t="n">
-        <v>1030.883333333333</v>
+        <v>1030.716666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,7 +6659,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="C168" t="n">
         <v>1041</v>
@@ -6252,13 +6668,13 @@
         <v>1041</v>
       </c>
       <c r="E168" t="n">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="F168" t="n">
-        <v>1266.1478</v>
+        <v>645</v>
       </c>
       <c r="G168" t="n">
-        <v>1030.983333333333</v>
+        <v>1030.883333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,7 +6694,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C169" t="n">
         <v>1041</v>
@@ -6287,13 +6703,13 @@
         <v>1041</v>
       </c>
       <c r="E169" t="n">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F169" t="n">
-        <v>1069.4212</v>
+        <v>1266.1478</v>
       </c>
       <c r="G169" t="n">
-        <v>1031.05</v>
+        <v>1030.983333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6729,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C170" t="n">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="D170" t="n">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E170" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F170" t="n">
-        <v>31.0105</v>
+        <v>1069.4212</v>
       </c>
       <c r="G170" t="n">
-        <v>1031.166666666667</v>
+        <v>1031.05</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6360,10 +6776,10 @@
         <v>1039</v>
       </c>
       <c r="F171" t="n">
-        <v>306.8965</v>
+        <v>31.0105</v>
       </c>
       <c r="G171" t="n">
-        <v>1031.216666666667</v>
+        <v>1031.166666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,7 +6799,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="C172" t="n">
         <v>1039</v>
@@ -6392,13 +6808,13 @@
         <v>1039</v>
       </c>
       <c r="E172" t="n">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="F172" t="n">
-        <v>239.4182</v>
+        <v>306.8965</v>
       </c>
       <c r="G172" t="n">
-        <v>1031.35</v>
+        <v>1031.216666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6834,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C173" t="n">
         <v>1039</v>
       </c>
-      <c r="C173" t="n">
-        <v>1041</v>
-      </c>
       <c r="D173" t="n">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E173" t="n">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="F173" t="n">
-        <v>420</v>
+        <v>239.4182</v>
       </c>
       <c r="G173" t="n">
-        <v>1031.45</v>
+        <v>1031.35</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6456,19 +6872,19 @@
         <v>1039</v>
       </c>
       <c r="C174" t="n">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D174" t="n">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E174" t="n">
         <v>1039</v>
       </c>
       <c r="F174" t="n">
-        <v>85.34</v>
+        <v>420</v>
       </c>
       <c r="G174" t="n">
-        <v>1031.516666666667</v>
+        <v>1031.45</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6904,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C175" t="n">
         <v>1040</v>
       </c>
-      <c r="C175" t="n">
-        <v>1041</v>
-      </c>
       <c r="D175" t="n">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E175" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F175" t="n">
-        <v>1155.4061</v>
+        <v>85.34</v>
       </c>
       <c r="G175" t="n">
-        <v>1031.666666666667</v>
+        <v>1031.516666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,7 +6939,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C176" t="n">
         <v>1041</v>
@@ -6532,13 +6948,13 @@
         <v>1041</v>
       </c>
       <c r="E176" t="n">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F176" t="n">
-        <v>1011.88760806</v>
+        <v>1155.4061</v>
       </c>
       <c r="G176" t="n">
-        <v>1031.766666666667</v>
+        <v>1031.666666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6974,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C177" t="n">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D177" t="n">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E177" t="n">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F177" t="n">
-        <v>99.75</v>
+        <v>1011.88760806</v>
       </c>
       <c r="G177" t="n">
-        <v>1031.833333333333</v>
+        <v>1031.766666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6605,10 +7021,10 @@
         <v>1040</v>
       </c>
       <c r="F178" t="n">
-        <v>49.0384</v>
+        <v>99.75</v>
       </c>
       <c r="G178" t="n">
-        <v>1031.883333333333</v>
+        <v>1031.833333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +7044,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C179" t="n">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D179" t="n">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="E179" t="n">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F179" t="n">
-        <v>954.61399194</v>
+        <v>49.0384</v>
       </c>
       <c r="G179" t="n">
-        <v>1032</v>
+        <v>1031.883333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +7079,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C180" t="n">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="D180" t="n">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E180" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F180" t="n">
-        <v>452.0585</v>
+        <v>954.61399194</v>
       </c>
       <c r="G180" t="n">
-        <v>1032.083333333333</v>
+        <v>1032</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +7114,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C181" t="n">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="D181" t="n">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="E181" t="n">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="F181" t="n">
-        <v>7670.0063</v>
+        <v>452.0585</v>
       </c>
       <c r="G181" t="n">
-        <v>1032.383333333333</v>
+        <v>1032.083333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +7149,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="C182" t="n">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D182" t="n">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="E182" t="n">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="F182" t="n">
-        <v>11049.8885</v>
+        <v>7670.0063</v>
       </c>
       <c r="G182" t="n">
-        <v>1032.633333333333</v>
+        <v>1032.383333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +7184,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
+        <v>1048</v>
+      </c>
+      <c r="C183" t="n">
         <v>1052</v>
       </c>
-      <c r="C183" t="n">
-        <v>1051</v>
-      </c>
       <c r="D183" t="n">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E183" t="n">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="F183" t="n">
-        <v>5111.0299</v>
+        <v>11049.8885</v>
       </c>
       <c r="G183" t="n">
-        <v>1032.883333333333</v>
+        <v>1032.633333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +7219,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
+        <v>1052</v>
+      </c>
+      <c r="C184" t="n">
         <v>1051</v>
       </c>
-      <c r="C184" t="n">
-        <v>1056</v>
-      </c>
       <c r="D184" t="n">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E184" t="n">
         <v>1051</v>
       </c>
       <c r="F184" t="n">
-        <v>3283.7498</v>
+        <v>5111.0299</v>
       </c>
       <c r="G184" t="n">
-        <v>1033.183333333333</v>
+        <v>1032.883333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +7254,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C185" t="n">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D185" t="n">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E185" t="n">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="F185" t="n">
-        <v>4414.1639</v>
+        <v>3283.7498</v>
       </c>
       <c r="G185" t="n">
-        <v>1033.616666666667</v>
+        <v>1033.183333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +7289,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="C186" t="n">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="D186" t="n">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E186" t="n">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="F186" t="n">
-        <v>2179.5976</v>
+        <v>4414.1639</v>
       </c>
       <c r="G186" t="n">
-        <v>1033.9</v>
+        <v>1033.616666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +7324,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C187" t="n">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="D187" t="n">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E187" t="n">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="F187" t="n">
-        <v>4166.1034</v>
+        <v>2179.5976</v>
       </c>
       <c r="G187" t="n">
-        <v>1034.216666666667</v>
+        <v>1033.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +7359,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
+        <v>1059</v>
+      </c>
+      <c r="C188" t="n">
         <v>1051</v>
       </c>
-      <c r="C188" t="n">
-        <v>1049</v>
-      </c>
       <c r="D188" t="n">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="E188" t="n">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F188" t="n">
-        <v>6225.7367</v>
+        <v>4166.1034</v>
       </c>
       <c r="G188" t="n">
-        <v>1034.483333333333</v>
+        <v>1034.216666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +7394,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
+        <v>1051</v>
+      </c>
+      <c r="C189" t="n">
         <v>1049</v>
       </c>
-      <c r="C189" t="n">
-        <v>1046</v>
-      </c>
       <c r="D189" t="n">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E189" t="n">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="F189" t="n">
-        <v>9053.004499999999</v>
+        <v>6225.7367</v>
       </c>
       <c r="G189" t="n">
-        <v>1034.7</v>
+        <v>1034.483333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,22 +7429,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
+        <v>1049</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1046</v>
+      </c>
+      <c r="D190" t="n">
         <v>1057</v>
       </c>
-      <c r="C190" t="n">
-        <v>1057</v>
-      </c>
-      <c r="D190" t="n">
-        <v>1059</v>
-      </c>
       <c r="E190" t="n">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="F190" t="n">
-        <v>688.9707</v>
+        <v>9053.004499999999</v>
       </c>
       <c r="G190" t="n">
-        <v>1035.1</v>
+        <v>1034.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,7 +7464,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C191" t="n">
         <v>1057</v>
@@ -7060,10 +7476,10 @@
         <v>1051</v>
       </c>
       <c r="F191" t="n">
-        <v>141.3302</v>
+        <v>688.9707</v>
       </c>
       <c r="G191" t="n">
-        <v>1035.5</v>
+        <v>1035.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7499,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
+        <v>1052</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1057</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1059</v>
+      </c>
+      <c r="E192" t="n">
         <v>1051</v>
       </c>
-      <c r="C192" t="n">
-        <v>1049</v>
-      </c>
-      <c r="D192" t="n">
-        <v>1055</v>
-      </c>
-      <c r="E192" t="n">
-        <v>1049</v>
-      </c>
       <c r="F192" t="n">
-        <v>1410.0605</v>
+        <v>141.3302</v>
       </c>
       <c r="G192" t="n">
-        <v>1035.8</v>
+        <v>1035.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7534,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="C193" t="n">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="D193" t="n">
         <v>1055</v>
       </c>
       <c r="E193" t="n">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="F193" t="n">
-        <v>0.2</v>
+        <v>1410.0605</v>
       </c>
       <c r="G193" t="n">
-        <v>1036.166666666667</v>
+        <v>1035.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7569,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="C194" t="n">
         <v>1054</v>
       </c>
       <c r="D194" t="n">
+        <v>1055</v>
+      </c>
+      <c r="E194" t="n">
         <v>1054</v>
       </c>
-      <c r="E194" t="n">
-        <v>1049</v>
-      </c>
       <c r="F194" t="n">
-        <v>24.1</v>
+        <v>0.2</v>
       </c>
       <c r="G194" t="n">
-        <v>1036.516666666667</v>
+        <v>1036.166666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,7 +7604,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C195" t="n">
         <v>1054</v>
@@ -7197,13 +7613,13 @@
         <v>1054</v>
       </c>
       <c r="E195" t="n">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="F195" t="n">
-        <v>1195.1</v>
+        <v>24.1</v>
       </c>
       <c r="G195" t="n">
-        <v>1036.833333333333</v>
+        <v>1036.516666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7639,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C196" t="n">
-        <v>1047</v>
+        <v>1054</v>
       </c>
       <c r="D196" t="n">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="E196" t="n">
         <v>1047</v>
       </c>
       <c r="F196" t="n">
-        <v>3848.7194</v>
+        <v>1195.1</v>
       </c>
       <c r="G196" t="n">
-        <v>1037.066666666667</v>
+        <v>1036.833333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,10 +7674,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="C197" t="n">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="D197" t="n">
         <v>1052</v>
@@ -7270,10 +7686,10 @@
         <v>1047</v>
       </c>
       <c r="F197" t="n">
-        <v>50.2</v>
+        <v>3848.7194</v>
       </c>
       <c r="G197" t="n">
-        <v>1037.333333333333</v>
+        <v>1037.066666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7709,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="C198" t="n">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="D198" t="n">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E198" t="n">
         <v>1047</v>
       </c>
       <c r="F198" t="n">
-        <v>4024.8897</v>
+        <v>50.2</v>
       </c>
       <c r="G198" t="n">
-        <v>1037.633333333333</v>
+        <v>1037.333333333333</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,7 +7744,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C199" t="n">
         <v>1050</v>
@@ -7337,13 +7753,13 @@
         <v>1051</v>
       </c>
       <c r="E199" t="n">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="F199" t="n">
-        <v>5384.6743</v>
+        <v>4024.8897</v>
       </c>
       <c r="G199" t="n">
-        <v>1037.95</v>
+        <v>1037.633333333333</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7363,22 +7779,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1051</v>
+      </c>
+      <c r="E200" t="n">
         <v>1044</v>
       </c>
-      <c r="C200" t="n">
-        <v>1042</v>
-      </c>
-      <c r="D200" t="n">
-        <v>1045</v>
-      </c>
-      <c r="E200" t="n">
-        <v>1042</v>
-      </c>
       <c r="F200" t="n">
-        <v>4820.4086</v>
+        <v>5384.6743</v>
       </c>
       <c r="G200" t="n">
-        <v>1038.15</v>
+        <v>1037.95</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7398,22 +7814,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C201" t="n">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D201" t="n">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="E201" t="n">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F201" t="n">
-        <v>974.7482</v>
+        <v>4820.4086</v>
       </c>
       <c r="G201" t="n">
-        <v>1038.333333333333</v>
+        <v>1038.15</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,22 +7849,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C202" t="n">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D202" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E202" t="n">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="F202" t="n">
-        <v>455.9495</v>
+        <v>974.7482</v>
       </c>
       <c r="G202" t="n">
-        <v>1038.55</v>
+        <v>1038.333333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7480,10 +7896,10 @@
         <v>1044</v>
       </c>
       <c r="F203" t="n">
-        <v>494</v>
+        <v>455.9495</v>
       </c>
       <c r="G203" t="n">
-        <v>1038.783333333333</v>
+        <v>1038.55</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7506,19 +7922,19 @@
         <v>1044</v>
       </c>
       <c r="C204" t="n">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="D204" t="n">
         <v>1044</v>
       </c>
       <c r="E204" t="n">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="F204" t="n">
-        <v>199.5</v>
+        <v>494</v>
       </c>
       <c r="G204" t="n">
-        <v>1038.966666666667</v>
+        <v>1038.783333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,22 +7954,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C205" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D205" t="n">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E205" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F205" t="n">
-        <v>18</v>
+        <v>199.5</v>
       </c>
       <c r="G205" t="n">
-        <v>1039.266666666667</v>
+        <v>1038.966666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7573,22 +7989,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C206" t="n">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="D206" t="n">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="E206" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F206" t="n">
-        <v>21.914</v>
+        <v>18</v>
       </c>
       <c r="G206" t="n">
-        <v>1039.683333333333</v>
+        <v>1039.266666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7611,19 +8027,19 @@
         <v>1043</v>
       </c>
       <c r="C207" t="n">
-        <v>1042</v>
+        <v>1047</v>
       </c>
       <c r="D207" t="n">
+        <v>1047</v>
+      </c>
+      <c r="E207" t="n">
         <v>1043</v>
       </c>
-      <c r="E207" t="n">
-        <v>1042</v>
-      </c>
       <c r="F207" t="n">
-        <v>455.1151</v>
+        <v>21.914</v>
       </c>
       <c r="G207" t="n">
-        <v>1039.933333333333</v>
+        <v>1039.683333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,22 +8059,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
+        <v>1043</v>
+      </c>
+      <c r="C208" t="n">
         <v>1042</v>
       </c>
-      <c r="C208" t="n">
-        <v>1040</v>
-      </c>
       <c r="D208" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E208" t="n">
         <v>1042</v>
       </c>
-      <c r="E208" t="n">
-        <v>1040</v>
-      </c>
       <c r="F208" t="n">
-        <v>1197.1519</v>
+        <v>455.1151</v>
       </c>
       <c r="G208" t="n">
-        <v>1040.216666666667</v>
+        <v>1039.933333333333</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,22 +8094,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C209" t="n">
         <v>1040</v>
       </c>
       <c r="D209" t="n">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="E209" t="n">
         <v>1040</v>
       </c>
       <c r="F209" t="n">
-        <v>964.3102</v>
+        <v>1197.1519</v>
       </c>
       <c r="G209" t="n">
-        <v>1040.533333333333</v>
+        <v>1040.216666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7713,22 +8129,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C210" t="n">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="D210" t="n">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="E210" t="n">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F210" t="n">
-        <v>55</v>
+        <v>964.3102</v>
       </c>
       <c r="G210" t="n">
-        <v>1040.933333333333</v>
+        <v>1040.533333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7757,13 +8173,13 @@
         <v>1045</v>
       </c>
       <c r="E211" t="n">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="F211" t="n">
-        <v>1078.4368</v>
+        <v>55</v>
       </c>
       <c r="G211" t="n">
-        <v>1041.333333333333</v>
+        <v>1040.933333333333</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7783,22 +8199,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C212" t="n">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="D212" t="n">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="E212" t="n">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="F212" t="n">
-        <v>2424.2328</v>
+        <v>1078.4368</v>
       </c>
       <c r="G212" t="n">
-        <v>1041.6</v>
+        <v>1041.333333333333</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7818,22 +8234,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C213" t="n">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="D213" t="n">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="E213" t="n">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="F213" t="n">
-        <v>232.8120229</v>
+        <v>2424.2328</v>
       </c>
       <c r="G213" t="n">
-        <v>1041.983333333333</v>
+        <v>1041.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,22 +8269,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C214" t="n">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D214" t="n">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E214" t="n">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="F214" t="n">
-        <v>10</v>
+        <v>232.8120229</v>
       </c>
       <c r="G214" t="n">
-        <v>1042.316666666667</v>
+        <v>1041.983333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,7 +8304,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="C215" t="n">
         <v>1049</v>
@@ -7897,13 +8313,13 @@
         <v>1049</v>
       </c>
       <c r="E215" t="n">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="F215" t="n">
-        <v>776.4903</v>
+        <v>10</v>
       </c>
       <c r="G215" t="n">
-        <v>1042.633333333333</v>
+        <v>1042.316666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7926,19 +8342,19 @@
         <v>1043</v>
       </c>
       <c r="C216" t="n">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D216" t="n">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E216" t="n">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="F216" t="n">
-        <v>2983.9931</v>
+        <v>776.4903</v>
       </c>
       <c r="G216" t="n">
-        <v>1042.95</v>
+        <v>1042.633333333333</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7961,7 +8377,7 @@
         <v>1043</v>
       </c>
       <c r="C217" t="n">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D217" t="n">
         <v>1048</v>
@@ -7970,10 +8386,10 @@
         <v>1042</v>
       </c>
       <c r="F217" t="n">
-        <v>1828.3871</v>
+        <v>2983.9931</v>
       </c>
       <c r="G217" t="n">
-        <v>1043.316666666667</v>
+        <v>1042.95</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,22 +8409,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="C218" t="n">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D218" t="n">
         <v>1048</v>
       </c>
       <c r="E218" t="n">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="F218" t="n">
-        <v>1426.7091</v>
+        <v>1828.3871</v>
       </c>
       <c r="G218" t="n">
-        <v>1043.733333333333</v>
+        <v>1043.316666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8028,22 +8444,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C219" t="n">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D219" t="n">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E219" t="n">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="F219" t="n">
-        <v>5.4352</v>
+        <v>1426.7091</v>
       </c>
       <c r="G219" t="n">
-        <v>1044.133333333333</v>
+        <v>1043.733333333333</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,22 +8479,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="C220" t="n">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D220" t="n">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="E220" t="n">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="F220" t="n">
-        <v>24.167</v>
+        <v>5.4352</v>
       </c>
       <c r="G220" t="n">
-        <v>1044.483333333333</v>
+        <v>1044.133333333333</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8098,22 +8514,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C221" t="n">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="D221" t="n">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E221" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F221" t="n">
-        <v>1352.9</v>
+        <v>24.167</v>
       </c>
       <c r="G221" t="n">
-        <v>1044.8</v>
+        <v>1044.483333333333</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8549,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="C222" t="n">
-        <v>1036</v>
+        <v>1043</v>
       </c>
       <c r="D222" t="n">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E222" t="n">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="F222" t="n">
-        <v>4192.2074</v>
+        <v>1352.9</v>
       </c>
       <c r="G222" t="n">
-        <v>1044.983333333333</v>
+        <v>1044.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8168,22 +8584,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="C223" t="n">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="D223" t="n">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E223" t="n">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="F223" t="n">
-        <v>189.07</v>
+        <v>4192.2074</v>
       </c>
       <c r="G223" t="n">
-        <v>1045.233333333333</v>
+        <v>1044.983333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8203,10 +8619,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
+        <v>1043</v>
+      </c>
+      <c r="C224" t="n">
         <v>1044</v>
-      </c>
-      <c r="C224" t="n">
-        <v>1043</v>
       </c>
       <c r="D224" t="n">
         <v>1044</v>
@@ -8215,10 +8631,10 @@
         <v>1043</v>
       </c>
       <c r="F224" t="n">
-        <v>1441.9375</v>
+        <v>189.07</v>
       </c>
       <c r="G224" t="n">
-        <v>1045.433333333333</v>
+        <v>1045.233333333333</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8241,19 +8657,19 @@
         <v>1044</v>
       </c>
       <c r="C225" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D225" t="n">
         <v>1044</v>
       </c>
       <c r="E225" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F225" t="n">
-        <v>610</v>
+        <v>1441.9375</v>
       </c>
       <c r="G225" t="n">
-        <v>1045.6</v>
+        <v>1045.433333333333</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8285,10 +8701,10 @@
         <v>1044</v>
       </c>
       <c r="F226" t="n">
-        <v>601.0804000000001</v>
+        <v>610</v>
       </c>
       <c r="G226" t="n">
-        <v>1045.75</v>
+        <v>1045.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8308,22 +8724,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C227" t="n">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="D227" t="n">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="E227" t="n">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="F227" t="n">
-        <v>1069.9931</v>
+        <v>601.0804000000001</v>
       </c>
       <c r="G227" t="n">
-        <v>1045.733333333333</v>
+        <v>1045.75</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8343,22 +8759,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C228" t="n">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="D228" t="n">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="E228" t="n">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="F228" t="n">
-        <v>903.4746</v>
+        <v>1069.9931</v>
       </c>
       <c r="G228" t="n">
-        <v>1045.8</v>
+        <v>1045.733333333333</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8381,19 +8797,19 @@
         <v>1044</v>
       </c>
       <c r="C229" t="n">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D229" t="n">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="E229" t="n">
         <v>1044</v>
       </c>
       <c r="F229" t="n">
-        <v>180</v>
+        <v>903.4746</v>
       </c>
       <c r="G229" t="n">
-        <v>1045.85</v>
+        <v>1045.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8425,10 +8841,10 @@
         <v>1044</v>
       </c>
       <c r="F230" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="G230" t="n">
-        <v>1045.933333333333</v>
+        <v>1045.85</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8448,22 +8864,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1037</v>
+        <v>1044</v>
       </c>
       <c r="C231" t="n">
-        <v>1035</v>
+        <v>1044</v>
       </c>
       <c r="D231" t="n">
-        <v>1037</v>
+        <v>1044</v>
       </c>
       <c r="E231" t="n">
-        <v>1035</v>
+        <v>1044</v>
       </c>
       <c r="F231" t="n">
-        <v>1069.9932</v>
+        <v>250</v>
       </c>
       <c r="G231" t="n">
-        <v>1045.866666666667</v>
+        <v>1045.933333333333</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8483,22 +8899,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C232" t="n">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="D232" t="n">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="E232" t="n">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="F232" t="n">
-        <v>306.0725</v>
+        <v>1069.9932</v>
       </c>
       <c r="G232" t="n">
-        <v>1045.9</v>
+        <v>1045.866666666667</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8518,22 +8934,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="C233" t="n">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="D233" t="n">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="E233" t="n">
-        <v>1028</v>
+        <v>1040</v>
       </c>
       <c r="F233" t="n">
-        <v>5710.4338</v>
+        <v>306.0725</v>
       </c>
       <c r="G233" t="n">
-        <v>1045.8</v>
+        <v>1045.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8553,22 +8969,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="C234" t="n">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="D234" t="n">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="E234" t="n">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F234" t="n">
-        <v>275.0605</v>
+        <v>5710.4338</v>
       </c>
       <c r="G234" t="n">
-        <v>1045.683333333333</v>
+        <v>1045.8</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8588,7 +9004,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C235" t="n">
         <v>1033</v>
@@ -8597,13 +9013,13 @@
         <v>1033</v>
       </c>
       <c r="E235" t="n">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F235" t="n">
-        <v>2033.6082</v>
+        <v>275.0605</v>
       </c>
       <c r="G235" t="n">
-        <v>1045.55</v>
+        <v>1045.683333333333</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8623,22 +9039,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C236" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D236" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E236" t="n">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F236" t="n">
-        <v>193.7</v>
+        <v>2033.6082</v>
       </c>
       <c r="G236" t="n">
-        <v>1045.433333333333</v>
+        <v>1045.55</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8658,22 +9074,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C237" t="n">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D237" t="n">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="E237" t="n">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F237" t="n">
-        <v>160.82</v>
+        <v>193.7</v>
       </c>
       <c r="G237" t="n">
-        <v>1045.316666666667</v>
+        <v>1045.433333333333</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8693,22 +9109,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C238" t="n">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D238" t="n">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E238" t="n">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F238" t="n">
-        <v>517.8995</v>
+        <v>160.82</v>
       </c>
       <c r="G238" t="n">
-        <v>1045.233333333333</v>
+        <v>1045.316666666667</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8728,22 +9144,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="C239" t="n">
-        <v>1025</v>
+        <v>1035</v>
       </c>
       <c r="D239" t="n">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="E239" t="n">
-        <v>1025</v>
+        <v>1035</v>
       </c>
       <c r="F239" t="n">
-        <v>1063.0829</v>
+        <v>517.8995</v>
       </c>
       <c r="G239" t="n">
-        <v>1044.916666666667</v>
+        <v>1045.233333333333</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8763,22 +9179,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="C240" t="n">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="D240" t="n">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="E240" t="n">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="F240" t="n">
-        <v>119.94</v>
+        <v>1063.0829</v>
       </c>
       <c r="G240" t="n">
-        <v>1044.816666666667</v>
+        <v>1044.916666666667</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8798,22 +9214,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="C241" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D241" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E241" t="n">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="F241" t="n">
-        <v>381.9</v>
+        <v>119.94</v>
       </c>
       <c r="G241" t="n">
-        <v>1044.566666666667</v>
+        <v>1044.816666666667</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8833,22 +9249,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C242" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D242" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="E242" t="n">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F242" t="n">
-        <v>500</v>
+        <v>381.9</v>
       </c>
       <c r="G242" t="n">
-        <v>1044.266666666667</v>
+        <v>1044.566666666667</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8868,22 +9284,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C243" t="n">
         <v>1034</v>
       </c>
-      <c r="C243" t="n">
-        <v>1036</v>
-      </c>
       <c r="D243" t="n">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E243" t="n">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F243" t="n">
-        <v>319.6303</v>
+        <v>500</v>
       </c>
       <c r="G243" t="n">
-        <v>1044.016666666667</v>
+        <v>1044.266666666667</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8903,22 +9319,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="C244" t="n">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="D244" t="n">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="E244" t="n">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="F244" t="n">
-        <v>1266.42</v>
+        <v>319.6303</v>
       </c>
       <c r="G244" t="n">
-        <v>1043.583333333333</v>
+        <v>1044.016666666667</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8938,22 +9354,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="C245" t="n">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D245" t="n">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="E245" t="n">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="F245" t="n">
-        <v>253.8179</v>
+        <v>1266.42</v>
       </c>
       <c r="G245" t="n">
-        <v>1043.183333333333</v>
+        <v>1043.583333333333</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8973,22 +9389,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>1029</v>
+        <v>1034</v>
       </c>
       <c r="C246" t="n">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="D246" t="n">
-        <v>1029</v>
+        <v>1034</v>
       </c>
       <c r="E246" t="n">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="F246" t="n">
-        <v>21.107</v>
+        <v>253.8179</v>
       </c>
       <c r="G246" t="n">
-        <v>1042.733333333333</v>
+        <v>1043.183333333333</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9008,22 +9424,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C247" t="n">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="D247" t="n">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E247" t="n">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="F247" t="n">
-        <v>123.78</v>
+        <v>21.107</v>
       </c>
       <c r="G247" t="n">
-        <v>1042.4</v>
+        <v>1042.733333333333</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9043,22 +9459,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C248" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D248" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E248" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F248" t="n">
-        <v>234.341</v>
+        <v>123.78</v>
       </c>
       <c r="G248" t="n">
-        <v>1042.083333333333</v>
+        <v>1042.4</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9078,22 +9494,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="C249" t="n">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="D249" t="n">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="E249" t="n">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="F249" t="n">
-        <v>401.0331</v>
+        <v>234.341</v>
       </c>
       <c r="G249" t="n">
-        <v>1041.733333333333</v>
+        <v>1042.083333333333</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9113,22 +9529,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C250" t="n">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="D250" t="n">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E250" t="n">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="F250" t="n">
-        <v>40.6443</v>
+        <v>401.0331</v>
       </c>
       <c r="G250" t="n">
-        <v>1041.283333333333</v>
+        <v>1041.733333333333</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9148,22 +9564,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="C251" t="n">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="D251" t="n">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="E251" t="n">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="F251" t="n">
-        <v>250.8722</v>
+        <v>40.6443</v>
       </c>
       <c r="G251" t="n">
-        <v>1040.75</v>
+        <v>1041.283333333333</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9183,22 +9599,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C252" t="n">
         <v>1025</v>
       </c>
       <c r="D252" t="n">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E252" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F252" t="n">
-        <v>3754.4429</v>
+        <v>250.8722</v>
       </c>
       <c r="G252" t="n">
-        <v>1040.35</v>
+        <v>1040.75</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9230,10 +9646,10 @@
         <v>1025</v>
       </c>
       <c r="F253" t="n">
-        <v>237.7793</v>
+        <v>3754.4429</v>
       </c>
       <c r="G253" t="n">
-        <v>1039.866666666667</v>
+        <v>1040.35</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9253,22 +9669,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="C254" t="n">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="D254" t="n">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E254" t="n">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="F254" t="n">
-        <v>2670.5901</v>
+        <v>237.7793</v>
       </c>
       <c r="G254" t="n">
-        <v>1039.333333333333</v>
+        <v>1039.866666666667</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9288,22 +9704,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C255" t="n">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D255" t="n">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="E255" t="n">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="F255" t="n">
-        <v>91.1996</v>
+        <v>2670.5901</v>
       </c>
       <c r="G255" t="n">
-        <v>1038.833333333333</v>
+        <v>1039.333333333333</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9323,22 +9739,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="C256" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D256" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E256" t="n">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="F256" t="n">
-        <v>1019.4725</v>
+        <v>91.1996</v>
       </c>
       <c r="G256" t="n">
-        <v>1038.433333333333</v>
+        <v>1038.833333333333</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9358,22 +9774,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="C257" t="n">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="D257" t="n">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="E257" t="n">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="F257" t="n">
-        <v>74.4995</v>
+        <v>1019.4725</v>
       </c>
       <c r="G257" t="n">
-        <v>1037.833333333333</v>
+        <v>1038.433333333333</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9393,22 +9809,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C258" t="n">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="D258" t="n">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="E258" t="n">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F258" t="n">
-        <v>133.8115</v>
+        <v>74.4995</v>
       </c>
       <c r="G258" t="n">
-        <v>1037.333333333333</v>
+        <v>1037.833333333333</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9428,22 +9844,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C259" t="n">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="D259" t="n">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="E259" t="n">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="F259" t="n">
-        <v>1</v>
+        <v>133.8115</v>
       </c>
       <c r="G259" t="n">
-        <v>1036.783333333333</v>
+        <v>1037.333333333333</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9463,22 +9879,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C260" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D260" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E260" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F260" t="n">
         <v>1</v>
       </c>
       <c r="G260" t="n">
-        <v>1036.383333333333</v>
+        <v>1036.783333333333</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9498,22 +9914,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C261" t="n">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D261" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E261" t="n">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="F261" t="n">
-        <v>117.7918</v>
+        <v>1</v>
       </c>
       <c r="G261" t="n">
-        <v>1035.966666666667</v>
+        <v>1036.383333333333</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9533,35 +9949,31 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="C262" t="n">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="D262" t="n">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="E262" t="n">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="F262" t="n">
-        <v>0.1</v>
+        <v>117.7918</v>
       </c>
       <c r="G262" t="n">
-        <v>1035.6</v>
+        <v>1035.966666666667</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>1016</v>
-      </c>
-      <c r="K262" t="n">
-        <v>1016</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
@@ -9572,40 +9984,32 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="C263" t="n">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D263" t="n">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="E263" t="n">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="F263" t="n">
-        <v>630.154</v>
+        <v>0.1</v>
       </c>
       <c r="G263" t="n">
-        <v>1035.2</v>
+        <v>1035.6</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>1022</v>
-      </c>
-      <c r="K263" t="n">
-        <v>1016</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9615,22 +10019,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C264" t="n">
         <v>1020</v>
       </c>
       <c r="D264" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E264" t="n">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="F264" t="n">
-        <v>325</v>
+        <v>630.154</v>
       </c>
       <c r="G264" t="n">
-        <v>1034.85</v>
+        <v>1035.2</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9639,14 +10043,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>1016</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9662,16 +10060,16 @@
         <v>1020</v>
       </c>
       <c r="D265" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E265" t="n">
         <v>1020</v>
       </c>
       <c r="F265" t="n">
-        <v>540.6165999999999</v>
+        <v>325</v>
       </c>
       <c r="G265" t="n">
-        <v>1034.483333333333</v>
+        <v>1034.85</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9703,10 +10101,10 @@
         <v>1020</v>
       </c>
       <c r="F266" t="n">
-        <v>400</v>
+        <v>540.6165999999999</v>
       </c>
       <c r="G266" t="n">
-        <v>1034.033333333333</v>
+        <v>1034.483333333333</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9726,22 +10124,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C267" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D267" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E267" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F267" t="n">
-        <v>11</v>
+        <v>400</v>
       </c>
       <c r="G267" t="n">
-        <v>1033.683333333333</v>
+        <v>1034.033333333333</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9761,22 +10159,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C268" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D268" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E268" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F268" t="n">
         <v>11</v>
       </c>
       <c r="G268" t="n">
-        <v>1033.383333333333</v>
+        <v>1033.683333333333</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9796,22 +10194,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C269" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D269" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E269" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F269" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G269" t="n">
-        <v>1033.1</v>
+        <v>1033.383333333333</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9843,10 +10241,10 @@
         <v>1023</v>
       </c>
       <c r="F270" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G270" t="n">
-        <v>1032.733333333333</v>
+        <v>1033.1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9866,22 +10264,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C271" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D271" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E271" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F271" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G271" t="n">
-        <v>1032.4</v>
+        <v>1032.733333333333</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9901,22 +10299,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C272" t="n">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D272" t="n">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="E272" t="n">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="F272" t="n">
-        <v>373.8192</v>
+        <v>110</v>
       </c>
       <c r="G272" t="n">
-        <v>1032.083333333333</v>
+        <v>1032.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9936,22 +10334,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="C273" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D273" t="n">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="E273" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F273" t="n">
-        <v>929.5438</v>
+        <v>373.8192</v>
       </c>
       <c r="G273" t="n">
-        <v>1031.683333333333</v>
+        <v>1032.083333333333</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9971,22 +10369,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C274" t="n">
         <v>1024</v>
       </c>
-      <c r="C274" t="n">
-        <v>1028</v>
-      </c>
       <c r="D274" t="n">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E274" t="n">
         <v>1024</v>
       </c>
       <c r="F274" t="n">
-        <v>731.8471</v>
+        <v>929.5438</v>
       </c>
       <c r="G274" t="n">
-        <v>1031.333333333333</v>
+        <v>1031.683333333333</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10006,22 +10404,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C275" t="n">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="D275" t="n">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="E275" t="n">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="F275" t="n">
-        <v>468.3857</v>
+        <v>731.8471</v>
       </c>
       <c r="G275" t="n">
-        <v>1030.883333333333</v>
+        <v>1031.333333333333</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10041,22 +10439,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C276" t="n">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="D276" t="n">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="E276" t="n">
         <v>1022</v>
       </c>
       <c r="F276" t="n">
-        <v>4036.6031</v>
+        <v>468.3857</v>
       </c>
       <c r="G276" t="n">
-        <v>1030.533333333333</v>
+        <v>1030.883333333333</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10076,22 +10474,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1027</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1027</v>
+      </c>
+      <c r="E277" t="n">
         <v>1022</v>
       </c>
-      <c r="C277" t="n">
-        <v>1020</v>
-      </c>
-      <c r="D277" t="n">
-        <v>1022</v>
-      </c>
-      <c r="E277" t="n">
-        <v>1020</v>
-      </c>
       <c r="F277" t="n">
-        <v>1800</v>
+        <v>4036.6031</v>
       </c>
       <c r="G277" t="n">
-        <v>1030.083333333333</v>
+        <v>1030.533333333333</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10114,19 +10512,19 @@
         <v>1022</v>
       </c>
       <c r="C278" t="n">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="D278" t="n">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="E278" t="n">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F278" t="n">
-        <v>55.1</v>
+        <v>1800</v>
       </c>
       <c r="G278" t="n">
-        <v>1029.733333333333</v>
+        <v>1030.083333333333</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10146,22 +10544,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
+        <v>1022</v>
+      </c>
+      <c r="C279" t="n">
         <v>1027</v>
       </c>
-      <c r="C279" t="n">
-        <v>1030</v>
-      </c>
       <c r="D279" t="n">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E279" t="n">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="F279" t="n">
-        <v>370</v>
+        <v>55.1</v>
       </c>
       <c r="G279" t="n">
-        <v>1029.45</v>
+        <v>1029.733333333333</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10181,22 +10579,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C280" t="n">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="D280" t="n">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="E280" t="n">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="F280" t="n">
-        <v>28</v>
+        <v>370</v>
       </c>
       <c r="G280" t="n">
-        <v>1029.2</v>
+        <v>1029.45</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10216,22 +10614,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C281" t="n">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="D281" t="n">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="E281" t="n">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F281" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="G281" t="n">
-        <v>1028.983333333333</v>
+        <v>1029.2</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10251,22 +10649,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C282" t="n">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D282" t="n">
         <v>1030</v>
       </c>
       <c r="E282" t="n">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F282" t="n">
-        <v>3880.3998</v>
+        <v>75</v>
       </c>
       <c r="G282" t="n">
-        <v>1028.866666666667</v>
+        <v>1028.983333333333</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10289,19 +10687,19 @@
         <v>1027</v>
       </c>
       <c r="C283" t="n">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="D283" t="n">
+        <v>1030</v>
+      </c>
+      <c r="E283" t="n">
         <v>1027</v>
       </c>
-      <c r="E283" t="n">
-        <v>1020</v>
-      </c>
       <c r="F283" t="n">
-        <v>4281.8007</v>
+        <v>3880.3998</v>
       </c>
       <c r="G283" t="n">
-        <v>1028.55</v>
+        <v>1028.866666666667</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10321,22 +10719,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
+        <v>1027</v>
+      </c>
+      <c r="C284" t="n">
         <v>1025</v>
       </c>
-      <c r="C284" t="n">
-        <v>1028</v>
-      </c>
       <c r="D284" t="n">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E284" t="n">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="F284" t="n">
-        <v>1346.1804</v>
+        <v>4281.8007</v>
       </c>
       <c r="G284" t="n">
-        <v>1028.3</v>
+        <v>1028.55</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10356,22 +10754,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C285" t="n">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D285" t="n">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="E285" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F285" t="n">
-        <v>838.9528</v>
+        <v>1346.1804</v>
       </c>
       <c r="G285" t="n">
-        <v>1028</v>
+        <v>1028.3</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10391,22 +10789,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="C286" t="n">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D286" t="n">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="E286" t="n">
         <v>1024</v>
       </c>
       <c r="F286" t="n">
-        <v>813.49</v>
+        <v>838.9528</v>
       </c>
       <c r="G286" t="n">
-        <v>1027.683333333333</v>
+        <v>1028</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10426,22 +10824,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="C287" t="n">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D287" t="n">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="E287" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="F287" t="n">
-        <v>46.1467</v>
+        <v>813.49</v>
       </c>
       <c r="G287" t="n">
-        <v>1027.4</v>
+        <v>1027.683333333333</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10473,10 +10871,10 @@
         <v>1023</v>
       </c>
       <c r="F288" t="n">
-        <v>18.9058</v>
+        <v>46.1467</v>
       </c>
       <c r="G288" t="n">
-        <v>1027.033333333333</v>
+        <v>1027.4</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10496,22 +10894,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C289" t="n">
         <v>1023</v>
       </c>
       <c r="D289" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E289" t="n">
         <v>1023</v>
       </c>
       <c r="F289" t="n">
-        <v>807.9046</v>
+        <v>18.9058</v>
       </c>
       <c r="G289" t="n">
-        <v>1026.683333333333</v>
+        <v>1027.033333333333</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10534,19 +10932,19 @@
         <v>1024</v>
       </c>
       <c r="C290" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D290" t="n">
         <v>1024</v>
       </c>
       <c r="E290" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F290" t="n">
-        <v>274.4422</v>
+        <v>807.9046</v>
       </c>
       <c r="G290" t="n">
-        <v>1026.35</v>
+        <v>1026.683333333333</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10566,22 +10964,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="C291" t="n">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="D291" t="n">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="E291" t="n">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="F291" t="n">
-        <v>86.40430000000001</v>
+        <v>274.4422</v>
       </c>
       <c r="G291" t="n">
-        <v>1026.116666666667</v>
+        <v>1026.35</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10601,22 +10999,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="C292" t="n">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D292" t="n">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="E292" t="n">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="F292" t="n">
-        <v>43.7223</v>
+        <v>86.40430000000001</v>
       </c>
       <c r="G292" t="n">
-        <v>1025.85</v>
+        <v>1026.116666666667</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10639,19 +11037,19 @@
         <v>1025</v>
       </c>
       <c r="C293" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D293" t="n">
         <v>1025</v>
       </c>
       <c r="E293" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F293" t="n">
-        <v>688.6935</v>
+        <v>43.7223</v>
       </c>
       <c r="G293" t="n">
-        <v>1025.666666666667</v>
+        <v>1025.85</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10671,22 +11069,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="C294" t="n">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="D294" t="n">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="E294" t="n">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="F294" t="n">
-        <v>73.9136</v>
+        <v>688.6935</v>
       </c>
       <c r="G294" t="n">
-        <v>1025.483333333333</v>
+        <v>1025.666666666667</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10706,22 +11104,22 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C295" t="n">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="D295" t="n">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="E295" t="n">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="F295" t="n">
-        <v>948.0769</v>
+        <v>73.9136</v>
       </c>
       <c r="G295" t="n">
-        <v>1025.366666666667</v>
+        <v>1025.483333333333</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10741,22 +11139,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C296" t="n">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D296" t="n">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E296" t="n">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="F296" t="n">
-        <v>377.39</v>
+        <v>948.0769</v>
       </c>
       <c r="G296" t="n">
-        <v>1025.266666666667</v>
+        <v>1025.366666666667</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10776,22 +11174,22 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C297" t="n">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D297" t="n">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E297" t="n">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="F297" t="n">
-        <v>232.1521</v>
+        <v>377.39</v>
       </c>
       <c r="G297" t="n">
-        <v>1025.233333333333</v>
+        <v>1025.266666666667</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -10823,10 +11221,10 @@
         <v>1031</v>
       </c>
       <c r="F298" t="n">
-        <v>931.7699</v>
+        <v>232.1521</v>
       </c>
       <c r="G298" t="n">
-        <v>1025.166666666667</v>
+        <v>1025.233333333333</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -10858,10 +11256,10 @@
         <v>1031</v>
       </c>
       <c r="F299" t="n">
-        <v>45.8628</v>
+        <v>931.7699</v>
       </c>
       <c r="G299" t="n">
-        <v>1025.266666666667</v>
+        <v>1025.166666666667</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -10893,10 +11291,10 @@
         <v>1031</v>
       </c>
       <c r="F300" t="n">
-        <v>278.7226</v>
+        <v>45.8628</v>
       </c>
       <c r="G300" t="n">
-        <v>1025.183333333333</v>
+        <v>1025.266666666667</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -10928,10 +11326,10 @@
         <v>1031</v>
       </c>
       <c r="F301" t="n">
-        <v>1867.1952</v>
+        <v>278.7226</v>
       </c>
       <c r="G301" t="n">
-        <v>1025.116666666667</v>
+        <v>1025.183333333333</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -10963,10 +11361,10 @@
         <v>1031</v>
       </c>
       <c r="F302" t="n">
-        <v>855.4139</v>
+        <v>1867.1952</v>
       </c>
       <c r="G302" t="n">
-        <v>1025.066666666667</v>
+        <v>1025.116666666667</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -10986,7 +11384,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C303" t="n">
         <v>1031</v>
@@ -10995,13 +11393,13 @@
         <v>1031</v>
       </c>
       <c r="E303" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F303" t="n">
-        <v>67.7099</v>
+        <v>855.4139</v>
       </c>
       <c r="G303" t="n">
-        <v>1024.983333333333</v>
+        <v>1025.066666666667</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11021,7 +11419,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C304" t="n">
         <v>1031</v>
@@ -11030,13 +11428,13 @@
         <v>1031</v>
       </c>
       <c r="E304" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F304" t="n">
-        <v>1678.1677</v>
+        <v>67.7099</v>
       </c>
       <c r="G304" t="n">
-        <v>1025</v>
+        <v>1024.983333333333</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11068,10 +11466,10 @@
         <v>1031</v>
       </c>
       <c r="F305" t="n">
-        <v>251.1329</v>
+        <v>1678.1677</v>
       </c>
       <c r="G305" t="n">
-        <v>1024.95</v>
+        <v>1025</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11091,22 +11489,22 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C306" t="n">
         <v>1031</v>
       </c>
       <c r="D306" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E306" t="n">
         <v>1031</v>
       </c>
       <c r="F306" t="n">
-        <v>299.4437</v>
+        <v>251.1329</v>
       </c>
       <c r="G306" t="n">
-        <v>1025.033333333333</v>
+        <v>1024.95</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11126,22 +11524,22 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C307" t="n">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="D307" t="n">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="E307" t="n">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="F307" t="n">
-        <v>44.8067</v>
+        <v>299.4437</v>
       </c>
       <c r="G307" t="n">
-        <v>1025.1</v>
+        <v>1025.033333333333</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11173,10 +11571,10 @@
         <v>1035</v>
       </c>
       <c r="F308" t="n">
-        <v>383.2932</v>
+        <v>44.8067</v>
       </c>
       <c r="G308" t="n">
-        <v>1025.183333333333</v>
+        <v>1025.1</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11208,10 +11606,10 @@
         <v>1035</v>
       </c>
       <c r="F309" t="n">
-        <v>6.7679</v>
+        <v>383.2932</v>
       </c>
       <c r="G309" t="n">
-        <v>1025.35</v>
+        <v>1025.183333333333</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11231,22 +11629,22 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C310" t="n">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="D310" t="n">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="E310" t="n">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="F310" t="n">
-        <v>413.5299</v>
+        <v>6.7679</v>
       </c>
       <c r="G310" t="n">
-        <v>1025.516666666667</v>
+        <v>1025.35</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11266,22 +11664,22 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C311" t="n">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D311" t="n">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E311" t="n">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="F311" t="n">
-        <v>1</v>
+        <v>413.5299</v>
       </c>
       <c r="G311" t="n">
-        <v>1025.8</v>
+        <v>1025.516666666667</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11301,22 +11699,22 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C312" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D312" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E312" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F312" t="n">
-        <v>142.9511</v>
+        <v>1</v>
       </c>
       <c r="G312" t="n">
-        <v>1026.1</v>
+        <v>1025.8</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11336,22 +11734,22 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="C313" t="n">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="D313" t="n">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="E313" t="n">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="F313" t="n">
-        <v>25</v>
+        <v>142.9511</v>
       </c>
       <c r="G313" t="n">
-        <v>1026.333333333333</v>
+        <v>1026.1</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -11383,10 +11781,10 @@
         <v>1039</v>
       </c>
       <c r="F314" t="n">
-        <v>811.6622</v>
+        <v>25</v>
       </c>
       <c r="G314" t="n">
-        <v>1026.616666666667</v>
+        <v>1026.333333333333</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11406,22 +11804,22 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C315" t="n">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="D315" t="n">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="E315" t="n">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="F315" t="n">
-        <v>500</v>
+        <v>811.6622</v>
       </c>
       <c r="G315" t="n">
-        <v>1026.916666666667</v>
+        <v>1026.616666666667</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -11444,19 +11842,19 @@
         <v>1042</v>
       </c>
       <c r="C316" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D316" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E316" t="n">
         <v>1042</v>
       </c>
       <c r="F316" t="n">
-        <v>30.2296</v>
+        <v>500</v>
       </c>
       <c r="G316" t="n">
-        <v>1027.25</v>
+        <v>1026.916666666667</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11476,7 +11874,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C317" t="n">
         <v>1043</v>
@@ -11485,13 +11883,13 @@
         <v>1043</v>
       </c>
       <c r="E317" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F317" t="n">
-        <v>243.3244</v>
+        <v>30.2296</v>
       </c>
       <c r="G317" t="n">
-        <v>1027.7</v>
+        <v>1027.25</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -11511,22 +11909,22 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C318" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D318" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E318" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F318" t="n">
-        <v>39.4399</v>
+        <v>243.3244</v>
       </c>
       <c r="G318" t="n">
-        <v>1028.1</v>
+        <v>1027.7</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -11549,19 +11947,19 @@
         <v>1044</v>
       </c>
       <c r="C319" t="n">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D319" t="n">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E319" t="n">
         <v>1044</v>
       </c>
       <c r="F319" t="n">
-        <v>109.097</v>
+        <v>39.4399</v>
       </c>
       <c r="G319" t="n">
-        <v>1028.566666666667</v>
+        <v>1028.1</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -11581,22 +11979,22 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C320" t="n">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D320" t="n">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E320" t="n">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F320" t="n">
-        <v>908.1548</v>
+        <v>109.097</v>
       </c>
       <c r="G320" t="n">
-        <v>1029.033333333333</v>
+        <v>1028.566666666667</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -11619,19 +12017,19 @@
         <v>1046</v>
       </c>
       <c r="C321" t="n">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D321" t="n">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E321" t="n">
         <v>1046</v>
       </c>
       <c r="F321" t="n">
-        <v>2609.2639</v>
+        <v>908.1548</v>
       </c>
       <c r="G321" t="n">
-        <v>1029.566666666667</v>
+        <v>1029.033333333333</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -11651,22 +12049,22 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
+        <v>1046</v>
+      </c>
+      <c r="C322" t="n">
         <v>1048</v>
       </c>
-      <c r="C322" t="n">
-        <v>1053</v>
-      </c>
       <c r="D322" t="n">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="E322" t="n">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="F322" t="n">
-        <v>5529.5841</v>
+        <v>2609.2639</v>
       </c>
       <c r="G322" t="n">
-        <v>1030.083333333333</v>
+        <v>1029.566666666667</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -11686,22 +12084,22 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C323" t="n">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D323" t="n">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="E323" t="n">
         <v>1048</v>
       </c>
       <c r="F323" t="n">
-        <v>7815.1921911</v>
+        <v>5529.5841</v>
       </c>
       <c r="G323" t="n">
-        <v>1030.666666666667</v>
+        <v>1030.083333333333</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -11721,28 +12119,28 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
+        <v>1051</v>
+      </c>
+      <c r="C324" t="n">
         <v>1055</v>
       </c>
-      <c r="C324" t="n">
-        <v>1054</v>
-      </c>
       <c r="D324" t="n">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E324" t="n">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="F324" t="n">
-        <v>1395.4407</v>
+        <v>7815.1921911</v>
       </c>
       <c r="G324" t="n">
-        <v>1031.233333333333</v>
+        <v>1030.666666666667</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
       </c>
       <c r="I324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
@@ -11756,22 +12154,22 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
+        <v>1055</v>
+      </c>
+      <c r="C325" t="n">
         <v>1054</v>
-      </c>
-      <c r="C325" t="n">
-        <v>1057</v>
       </c>
       <c r="D325" t="n">
         <v>1058</v>
       </c>
       <c r="E325" t="n">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="F325" t="n">
-        <v>1901.2274</v>
+        <v>1395.4407</v>
       </c>
       <c r="G325" t="n">
-        <v>1031.85</v>
+        <v>1031.233333333333</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -11791,7 +12189,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C326" t="n">
         <v>1057</v>
@@ -11800,13 +12198,13 @@
         <v>1058</v>
       </c>
       <c r="E326" t="n">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F326" t="n">
-        <v>286.749</v>
+        <v>1901.2274</v>
       </c>
       <c r="G326" t="n">
-        <v>1032.466666666667</v>
+        <v>1031.85</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -11826,28 +12224,28 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C327" t="n">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="D327" t="n">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="E327" t="n">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="F327" t="n">
-        <v>27.7439</v>
+        <v>286.749</v>
       </c>
       <c r="G327" t="n">
-        <v>1033.033333333333</v>
+        <v>1032.466666666667</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
       </c>
       <c r="I327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
@@ -11861,22 +12259,22 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C328" t="n">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="D328" t="n">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E328" t="n">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="F328" t="n">
-        <v>308.1194</v>
+        <v>27.7439</v>
       </c>
       <c r="G328" t="n">
-        <v>1033.516666666667</v>
+        <v>1033.033333333333</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -11896,22 +12294,22 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
+        <v>1054</v>
+      </c>
+      <c r="C329" t="n">
         <v>1051</v>
       </c>
-      <c r="C329" t="n">
-        <v>1056</v>
-      </c>
       <c r="D329" t="n">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E329" t="n">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="F329" t="n">
-        <v>2868.7312</v>
+        <v>308.1194</v>
       </c>
       <c r="G329" t="n">
-        <v>1034.066666666667</v>
+        <v>1033.516666666667</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -11926,6 +12324,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>1051</v>
+      </c>
+      <c r="C330" t="n">
+        <v>1056</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1056</v>
+      </c>
+      <c r="E330" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F330" t="n">
+        <v>2868.7312</v>
+      </c>
+      <c r="G330" t="n">
+        <v>1034.066666666667</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr"/>
+      <c r="M330" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-15 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-15 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>3353.955899999994</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2984.580500000005</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-4541.042200000005</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-5976.297300000006</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-6084.151100000005</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-6185.522400000006</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -2332,14 +2332,10 @@
         <v>-12574.30060000001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1015</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
@@ -2372,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>1015</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2411,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>1015</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2579,14 +2563,10 @@
         <v>-13603.63050000001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1011</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
@@ -2619,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2658,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2694,14 +2662,10 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1011</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2734,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2770,17 +2728,15 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1011</v>
+      </c>
       <c r="J71" t="n">
         <v>1011</v>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2812,8 +2768,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2842,11 +2804,19 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1011</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2875,10 +2845,14 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1011</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1011</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
@@ -2908,11 +2882,19 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1011</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2941,11 +2923,19 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1011</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2974,10 +2964,14 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1011</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1011</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
@@ -3007,11 +3001,19 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1011</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3040,11 +3042,19 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1011</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3073,11 +3083,19 @@
         <v>-15446.90750000001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1011</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3106,11 +3124,19 @@
         <v>-14223.72330000001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1007</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3139,11 +3165,19 @@
         <v>-14223.72330000001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1008</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3172,11 +3206,19 @@
         <v>-14223.72330000001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1008</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3205,11 +3247,19 @@
         <v>-14223.72330000001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1008</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3238,15 +3288,19 @@
         <v>-14223.72330000001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>1008</v>
       </c>
       <c r="J85" t="n">
-        <v>1008</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
+        <v>1011</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3275,17 +3329,17 @@
         <v>-14223.72330000001</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>1008</v>
       </c>
       <c r="J86" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -3316,17 +3370,17 @@
         <v>-14223.72330000001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>1008</v>
       </c>
       <c r="J87" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -3357,17 +3411,17 @@
         <v>-16483.77340000001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>1008</v>
       </c>
       <c r="J88" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -3398,13 +3452,13 @@
         <v>-16483.77340000001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>1007</v>
       </c>
       <c r="J89" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3439,13 +3493,13 @@
         <v>-16780.06240000001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>1007</v>
       </c>
       <c r="J90" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3480,13 +3534,13 @@
         <v>-16780.06240000001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>1006</v>
       </c>
       <c r="J91" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3521,13 +3575,13 @@
         <v>-16780.06240000001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>1006</v>
       </c>
       <c r="J92" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3562,13 +3616,13 @@
         <v>-16770.12210000001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>1006</v>
       </c>
       <c r="J93" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3603,13 +3657,13 @@
         <v>-16807.68970000001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>1011</v>
       </c>
       <c r="J94" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3644,13 +3698,13 @@
         <v>-16172.68970000001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>1010</v>
       </c>
       <c r="J95" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3685,13 +3739,13 @@
         <v>-16244.68970000001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>1011</v>
       </c>
       <c r="J96" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3726,13 +3780,13 @@
         <v>-16102.96970000001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>1006</v>
       </c>
       <c r="J97" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3767,13 +3821,13 @@
         <v>-16102.96970000001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>1010</v>
       </c>
       <c r="J98" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3808,13 +3862,13 @@
         <v>-16102.96970000001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>1010</v>
       </c>
       <c r="J99" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3849,13 +3903,13 @@
         <v>-16002.96970000001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>1010</v>
       </c>
       <c r="J100" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3890,11 +3944,13 @@
         <v>-16945.21940000001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1011</v>
+      </c>
       <c r="J101" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3929,13 +3985,13 @@
         <v>-16935.27910000001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>1006</v>
       </c>
       <c r="J102" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3970,13 +4026,13 @@
         <v>-16935.27910000001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>1011</v>
       </c>
       <c r="J103" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4011,11 +4067,13 @@
         <v>-16935.27910000001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1011</v>
+      </c>
       <c r="J104" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4050,11 +4108,13 @@
         <v>-17754.09370000001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1011</v>
+      </c>
       <c r="J105" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4089,11 +4149,13 @@
         <v>-17734.21310000001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1006</v>
+      </c>
       <c r="J106" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4128,11 +4190,13 @@
         <v>-17734.21310000001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1011</v>
+      </c>
       <c r="J107" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4167,11 +4231,13 @@
         <v>-20598.61220000001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1011</v>
+      </c>
       <c r="J108" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4206,11 +4272,13 @@
         <v>-20598.61220000001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1010</v>
+      </c>
       <c r="J109" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4245,11 +4313,13 @@
         <v>-20564.53950000001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1010</v>
+      </c>
       <c r="J110" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4284,11 +4354,13 @@
         <v>-20564.53950000001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1013</v>
+      </c>
       <c r="J111" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4323,13 +4395,13 @@
         <v>-20664.53950000001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>1013</v>
       </c>
       <c r="J112" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4364,13 +4436,13 @@
         <v>-20664.53950000001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>1010</v>
       </c>
       <c r="J113" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4405,13 +4477,13 @@
         <v>-20654.63860000001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>1010</v>
       </c>
       <c r="J114" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4446,13 +4518,11 @@
         <v>-20722.64410000001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4487,13 +4557,13 @@
         <v>-20265.86420000001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>1011</v>
       </c>
       <c r="J116" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4528,13 +4598,13 @@
         <v>-19317.17010000001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>1012</v>
       </c>
       <c r="J117" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4569,13 +4639,13 @@
         <v>-19317.17010000001</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>1018</v>
       </c>
       <c r="J118" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4610,13 +4680,13 @@
         <v>-19317.17010000001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>1018</v>
       </c>
       <c r="J119" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4651,13 +4721,13 @@
         <v>-19317.17010000001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>1018</v>
       </c>
       <c r="J120" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4692,11 +4762,13 @@
         <v>-19317.17010000001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1018</v>
+      </c>
       <c r="J121" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4731,13 +4803,13 @@
         <v>-19058.80010000001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>1018</v>
       </c>
       <c r="J122" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4772,11 +4844,13 @@
         <v>-19058.80010000001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1021</v>
+      </c>
       <c r="J123" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4815,7 +4889,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4854,7 +4928,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4893,7 +4967,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4932,7 +5006,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4971,7 +5045,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5010,7 +5084,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5049,7 +5123,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5088,7 +5162,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5127,7 +5201,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5166,7 +5240,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5201,11 +5275,13 @@
         <v>-12692.27080000001</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1021</v>
+      </c>
       <c r="J134" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5240,13 +5316,13 @@
         <v>-12692.27080000001</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>1025</v>
       </c>
       <c r="J135" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5281,11 +5357,13 @@
         <v>-12692.27080000001</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1025</v>
+      </c>
       <c r="J136" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5320,13 +5398,13 @@
         <v>-12692.27080000001</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>1025</v>
       </c>
       <c r="J137" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5361,13 +5439,13 @@
         <v>-12692.27080000001</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>1025</v>
       </c>
       <c r="J138" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5402,13 +5480,13 @@
         <v>-12692.27080000001</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>1025</v>
       </c>
       <c r="J139" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5443,13 +5521,13 @@
         <v>-12692.27080000001</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>1025</v>
       </c>
       <c r="J140" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5484,13 +5562,13 @@
         <v>-11658.52080000001</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>1025</v>
       </c>
       <c r="J141" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5525,13 +5603,13 @@
         <v>-9838.520800000006</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>1030</v>
       </c>
       <c r="J142" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5570,7 +5648,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5609,7 +5687,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5644,19 +5722,19 @@
         <v>-8894.035900000006</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1.025753968253968</v>
+        <v>1</v>
       </c>
       <c r="M145" t="inlineStr"/>
     </row>
@@ -5686,8 +5764,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5716,11 +5800,17 @@
         <v>-8838.504300000006</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5752,8 +5842,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5785,8 +5881,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5818,8 +5920,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5851,8 +5959,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5881,11 +5995,17 @@
         <v>-13812.46580000001</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5914,11 +6034,17 @@
         <v>-13812.46580000001</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5947,11 +6073,17 @@
         <v>-14334.4605</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5980,11 +6112,17 @@
         <v>-14484.0855</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6016,8 +6154,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6049,8 +6193,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6082,8 +6232,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6115,8 +6271,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6148,8 +6310,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6181,8 +6349,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6214,8 +6388,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6247,8 +6427,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6280,8 +6466,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6313,8 +6505,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6346,8 +6544,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6379,8 +6583,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6412,8 +6622,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6445,8 +6661,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6478,8 +6700,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6511,8 +6739,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6544,8 +6778,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6577,8 +6817,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6610,8 +6856,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6643,8 +6895,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6676,8 +6934,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6709,8 +6973,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6742,8 +7012,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6775,8 +7051,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6808,8 +7090,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6841,8 +7129,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6874,8 +7168,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6907,8 +7207,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6940,8 +7246,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6973,8 +7285,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7006,8 +7324,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7039,8 +7363,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7072,8 +7402,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7105,8 +7441,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7138,8 +7480,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7171,8 +7519,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7204,8 +7558,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7237,8 +7597,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7270,8 +7636,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7303,8 +7675,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7336,8 +7714,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7369,8 +7753,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7402,8 +7792,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7435,8 +7831,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7468,8 +7870,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7501,8 +7909,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7534,8 +7948,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7567,8 +7987,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7600,8 +8026,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7633,8 +8065,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7666,8 +8104,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7699,8 +8143,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7732,8 +8182,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7765,8 +8221,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7798,8 +8260,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7831,8 +8299,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7864,8 +8338,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7897,8 +8377,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7930,8 +8416,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7963,8 +8455,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7996,8 +8494,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8029,8 +8533,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8062,8 +8572,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8095,8 +8611,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8128,8 +8650,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8161,8 +8689,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8194,8 +8728,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8227,8 +8767,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8260,8 +8806,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8293,8 +8845,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8326,8 +8884,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8359,8 +8923,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8392,8 +8962,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8422,11 +8998,17 @@
         <v>-13853.73396106</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8458,8 +9040,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8491,8 +9079,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8524,8 +9118,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8557,8 +9157,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8590,8 +9196,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8623,8 +9235,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8653,11 +9271,17 @@
         <v>-12463.41786106</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8686,11 +9310,17 @@
         <v>-12463.41786106</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8722,8 +9352,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8755,8 +9391,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8785,11 +9427,17 @@
         <v>-4290.856069120003</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8818,11 +9466,17 @@
         <v>6759.032430879996</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8851,11 +9505,17 @@
         <v>1648.002530879996</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8884,11 +9544,17 @@
         <v>4931.752330879995</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8917,11 +9583,17 @@
         <v>9345.916230879995</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8950,11 +9622,17 @@
         <v>7166.318630879995</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8983,11 +9661,17 @@
         <v>3000.215230879995</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9019,8 +9703,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9049,11 +9739,17 @@
         <v>-12278.52596912</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9082,11 +9778,17 @@
         <v>-11589.55526912</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9115,13 +9817,19 @@
         <v>-11589.55526912</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L250" t="n">
-        <v>1</v>
+        <v>1.040499505440158</v>
       </c>
       <c r="M250" t="inlineStr"/>
     </row>
@@ -9148,7 +9856,7 @@
         <v>-12999.61576912</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9181,7 +9889,7 @@
         <v>-12999.41576912</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9247,7 +9955,7 @@
         <v>-12999.41576912</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9313,7 +10021,7 @@
         <v>-16797.93516912</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9346,7 +10054,7 @@
         <v>-20822.82486912</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9379,7 +10087,7 @@
         <v>-20822.82486912</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9412,7 +10120,7 @@
         <v>-25643.23346912</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9445,7 +10153,7 @@
         <v>-26617.98166912</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9478,7 +10186,7 @@
         <v>-26162.03216912</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9511,7 +10219,7 @@
         <v>-26162.03216912</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9544,7 +10252,7 @@
         <v>-26361.53216912</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9577,7 +10285,7 @@
         <v>-26343.53216912</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9610,7 +10318,7 @@
         <v>-26321.61816912</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9643,7 +10351,7 @@
         <v>-26776.73326912</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9676,7 +10384,7 @@
         <v>-27973.88516912</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9709,7 +10417,7 @@
         <v>-27973.88516912</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9742,7 +10450,7 @@
         <v>-27918.88516912</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9775,7 +10483,7 @@
         <v>-27918.88516912</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9808,7 +10516,7 @@
         <v>-30343.11796912001</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9841,7 +10549,7 @@
         <v>-30110.30594622</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9874,7 +10582,7 @@
         <v>-30100.30594622</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9907,7 +10615,7 @@
         <v>-30100.30594622</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9940,7 +10648,7 @@
         <v>-33084.29904622</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9973,7 +10681,7 @@
         <v>-34912.68614622</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10006,7 +10714,7 @@
         <v>-33485.97704622</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10039,7 +10747,7 @@
         <v>-33491.41224622</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10072,7 +10780,7 @@
         <v>-33515.57924622</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10105,7 +10813,7 @@
         <v>-32162.67924622</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10138,7 +10846,7 @@
         <v>-36354.88664622</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10171,7 +10879,7 @@
         <v>-36165.81664622</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10204,7 +10912,7 @@
         <v>-37607.75414622</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10237,7 +10945,7 @@
         <v>-36997.75414622</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10303,7 +11011,7 @@
         <v>-38067.74724622</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10336,7 +11044,7 @@
         <v>-37164.27264622</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10369,7 +11077,7 @@
         <v>-37344.27264622</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10402,7 +11110,7 @@
         <v>-37344.27264622</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10435,7 +11143,7 @@
         <v>-38414.26584622</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10468,7 +11176,7 @@
         <v>-38108.19334622</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10501,7 +11209,7 @@
         <v>-43818.62714621999</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10534,7 +11242,7 @@
         <v>-44093.68764621999</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11887,11 +12595,17 @@
         <v>-50139.06264622</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>1028</v>
+      </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11920,11 +12634,17 @@
         <v>-46102.45954622</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>1022</v>
+      </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11957,7 +12677,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11986,11 +12710,17 @@
         <v>-47847.35954622</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>1020</v>
+      </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12023,7 +12753,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12056,7 +12790,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12089,7 +12827,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12122,7 +12864,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12155,7 +12901,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12188,7 +12938,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12221,7 +12975,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12250,11 +13008,17 @@
         <v>-55898.82244622</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>1026</v>
+      </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12283,11 +13047,17 @@
         <v>-55944.96914622</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>1025</v>
+      </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12316,11 +13086,17 @@
         <v>-55944.96914622</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>1023</v>
+      </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12349,11 +13125,17 @@
         <v>-55944.96914622</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>1023</v>
+      </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12382,11 +13164,17 @@
         <v>-55670.52694622</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>1023</v>
+      </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12419,7 +13207,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12448,11 +13240,17 @@
         <v>-55713.20894622</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>1021</v>
+      </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12481,11 +13279,17 @@
         <v>-56401.90244622</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>1025</v>
+      </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12514,11 +13318,17 @@
         <v>-56475.81604622</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>1024</v>
+      </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12547,11 +13357,17 @@
         <v>-55527.73914622</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>1022</v>
+      </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12580,11 +13396,17 @@
         <v>-55150.34914622</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>1026</v>
+      </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12613,11 +13435,17 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>1028</v>
+      </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12650,7 +13478,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12683,7 +13515,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12716,7 +13552,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12749,7 +13589,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12782,7 +13626,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12815,7 +13663,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12844,11 +13696,17 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>1031</v>
+      </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12877,11 +13735,17 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>1031</v>
+      </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12910,11 +13774,17 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>1031</v>
+      </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12943,15 +13813,17 @@
         <v>-54873.39034622</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>1031</v>
       </c>
-      <c r="J366" t="n">
-        <v>1031</v>
-      </c>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12980,17 +13852,15 @@
         <v>-54873.39034622</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>1035</v>
       </c>
-      <c r="J367" t="n">
-        <v>1031</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L367" t="n">
@@ -13021,17 +13891,13 @@
         <v>-54873.39034622</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
-      </c>
-      <c r="I368" t="n">
-        <v>1035</v>
-      </c>
-      <c r="J368" t="n">
-        <v>1031</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L368" t="n">
@@ -13062,11 +13928,17 @@
         <v>-54459.86044622</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>1035</v>
+      </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13095,11 +13967,17 @@
         <v>-54458.86044622</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>1040</v>
+      </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13132,7 +14010,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13165,7 +14047,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13194,11 +14080,17 @@
         <v>-54340.90934622</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>1039</v>
+      </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13227,11 +14119,17 @@
         <v>-53840.90934622</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>1039</v>
+      </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13260,11 +14158,17 @@
         <v>-53810.67974622</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>1042</v>
+      </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13293,11 +14197,17 @@
         <v>-53810.67974622</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>1043</v>
+      </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13326,11 +14236,17 @@
         <v>-53771.23984622001</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>1043</v>
+      </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13359,11 +14275,17 @@
         <v>-53662.14284622001</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>1044</v>
+      </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13392,11 +14314,17 @@
         <v>-52753.98804622001</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>1045</v>
+      </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13425,11 +14353,17 @@
         <v>-50144.72414622001</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>1046</v>
+      </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13458,11 +14392,15 @@
         <v>-44615.14004622001</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13491,11 +14429,15 @@
         <v>-36799.94785512001</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13524,11 +14466,15 @@
         <v>-38195.38855512001</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13557,11 +14503,15 @@
         <v>-36294.16115512</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13590,11 +14540,15 @@
         <v>-36294.16115512</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13623,11 +14577,15 @@
         <v>-36321.90505512001</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13656,11 +14614,15 @@
         <v>-36630.02445512001</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13689,11 +14651,15 @@
         <v>-33761.29325512001</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13722,11 +14688,15 @@
         <v>-34729.92945512001</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13755,11 +14725,15 @@
         <v>-34729.92945512001</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13788,11 +14762,15 @@
         <v>-34924.92945512001</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13825,7 +14803,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13858,7 +14840,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13891,7 +14877,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13924,7 +14914,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13957,7 +14951,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13990,7 +14988,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14023,13 +15025,17 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
       <c r="M398" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-15 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>15357.34859999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>10269.65309999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>5698.979699999994</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-6185.522400000006</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -2728,14 +2728,10 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1011</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
@@ -2768,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2804,19 +2794,11 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1011</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2845,14 +2827,10 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1011</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
@@ -2882,19 +2860,11 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1011</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2923,19 +2893,11 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1011</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2964,14 +2926,10 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1011</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
@@ -3001,19 +2959,11 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1011</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3042,19 +2992,11 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1011</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3083,19 +3025,11 @@
         <v>-15446.90750000001</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1011</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3124,19 +3058,11 @@
         <v>-14223.72330000001</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1007</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3165,19 +3091,11 @@
         <v>-14223.72330000001</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1008</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3206,19 +3124,11 @@
         <v>-14223.72330000001</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1008</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3247,19 +3157,11 @@
         <v>-14223.72330000001</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1008</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3288,19 +3190,11 @@
         <v>-14223.72330000001</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1008</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3329,19 +3223,11 @@
         <v>-14223.72330000001</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1008</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3370,19 +3256,11 @@
         <v>-14223.72330000001</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1008</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3411,19 +3289,11 @@
         <v>-16483.77340000001</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1008</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3452,19 +3322,11 @@
         <v>-16483.77340000001</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1007</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3493,19 +3355,11 @@
         <v>-16780.06240000001</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1007</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3534,19 +3388,11 @@
         <v>-16780.06240000001</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3575,19 +3421,11 @@
         <v>-16780.06240000001</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3616,19 +3454,11 @@
         <v>-16770.12210000001</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3657,19 +3487,11 @@
         <v>-16807.68970000001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1011</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3698,19 +3520,11 @@
         <v>-16172.68970000001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1010</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3739,19 +3553,11 @@
         <v>-16244.68970000001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1011</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3780,19 +3586,11 @@
         <v>-16102.96970000001</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3821,19 +3619,11 @@
         <v>-16102.96970000001</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1010</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3862,19 +3652,11 @@
         <v>-16102.96970000001</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1010</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3903,19 +3685,11 @@
         <v>-16002.96970000001</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1010</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3944,19 +3718,11 @@
         <v>-16945.21940000001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1011</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3985,19 +3751,11 @@
         <v>-16935.27910000001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4026,19 +3784,11 @@
         <v>-16935.27910000001</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1011</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4067,19 +3817,11 @@
         <v>-16935.27910000001</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1011</v>
-      </c>
-      <c r="J104" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4108,19 +3850,11 @@
         <v>-17754.09370000001</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1011</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4149,19 +3883,11 @@
         <v>-17734.21310000001</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J106" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4190,19 +3916,11 @@
         <v>-17734.21310000001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1011</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4231,19 +3949,11 @@
         <v>-20598.61220000001</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1011</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4272,19 +3982,11 @@
         <v>-20598.61220000001</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1010</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4313,19 +4015,11 @@
         <v>-20564.53950000001</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1010</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4354,19 +4048,11 @@
         <v>-20564.53950000001</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1013</v>
-      </c>
-      <c r="J111" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4395,19 +4081,11 @@
         <v>-20664.53950000001</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1013</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4436,19 +4114,11 @@
         <v>-20664.53950000001</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1010</v>
-      </c>
-      <c r="J113" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4477,19 +4147,11 @@
         <v>-20654.63860000001</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1010</v>
-      </c>
-      <c r="J114" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4521,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4557,19 +4213,11 @@
         <v>-20265.86420000001</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1011</v>
-      </c>
-      <c r="J116" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4598,19 +4246,11 @@
         <v>-19317.17010000001</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1012</v>
-      </c>
-      <c r="J117" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4639,19 +4279,11 @@
         <v>-19317.17010000001</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1018</v>
-      </c>
-      <c r="J118" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4680,19 +4312,11 @@
         <v>-19317.17010000001</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1018</v>
-      </c>
-      <c r="J119" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4721,19 +4345,11 @@
         <v>-19317.17010000001</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1018</v>
-      </c>
-      <c r="J120" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4762,19 +4378,11 @@
         <v>-19317.17010000001</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1018</v>
-      </c>
-      <c r="J121" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4803,19 +4411,11 @@
         <v>-19058.80010000001</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1018</v>
-      </c>
-      <c r="J122" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4844,19 +4444,11 @@
         <v>-19058.80010000001</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1021</v>
-      </c>
-      <c r="J123" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4888,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4927,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4966,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5005,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5044,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5083,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5122,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5161,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5200,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5239,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5275,19 +4807,11 @@
         <v>-12692.27080000001</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1021</v>
-      </c>
-      <c r="J134" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5316,19 +4840,11 @@
         <v>-12692.27080000001</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1025</v>
-      </c>
-      <c r="J135" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5357,19 +4873,11 @@
         <v>-12692.27080000001</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1025</v>
-      </c>
-      <c r="J136" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5398,19 +4906,11 @@
         <v>-12692.27080000001</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1025</v>
-      </c>
-      <c r="J137" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5439,19 +4939,11 @@
         <v>-12692.27080000001</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1025</v>
-      </c>
-      <c r="J138" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5480,19 +4972,11 @@
         <v>-12692.27080000001</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1025</v>
-      </c>
-      <c r="J139" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5521,19 +5005,11 @@
         <v>-12692.27080000001</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1025</v>
-      </c>
-      <c r="J140" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5562,19 +5038,11 @@
         <v>-11658.52080000001</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1025</v>
-      </c>
-      <c r="J141" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5603,19 +5071,11 @@
         <v>-9838.520800000006</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1030</v>
-      </c>
-      <c r="J142" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5647,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5683,17 +5137,11 @@
         <v>-8883.439000000006</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5722,17 +5170,11 @@
         <v>-8894.035900000006</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5761,17 +5203,11 @@
         <v>-8894.035900000006</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5800,17 +5236,11 @@
         <v>-8838.504300000006</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5839,17 +5269,11 @@
         <v>-8688.504300000006</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5878,17 +5302,11 @@
         <v>-8688.504300000006</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5917,17 +5335,11 @@
         <v>-8688.504300000006</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5956,17 +5368,11 @@
         <v>-14797.1647</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5998,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6034,17 +5434,11 @@
         <v>-13812.46580000001</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6073,17 +5467,11 @@
         <v>-14334.4605</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6112,17 +5500,11 @@
         <v>-14484.0855</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6151,17 +5533,11 @@
         <v>-14484.682</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6190,17 +5566,11 @@
         <v>-13677.7348</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6232,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6271,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6310,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6349,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6388,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6427,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6466,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6505,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6544,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6583,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6622,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6661,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6700,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6736,17 +6028,11 @@
         <v>-21136.35070000001</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6775,17 +6061,11 @@
         <v>-19986.35070000001</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6817,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6856,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6895,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6934,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6973,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7012,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7051,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7090,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7129,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7168,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7207,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7246,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7285,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7324,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7363,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7402,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7441,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7480,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7519,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7558,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7597,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7636,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7675,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7714,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7753,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7792,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7831,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7870,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7909,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7948,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7987,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8026,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8065,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8104,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8143,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8182,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8221,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8260,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8299,14 +7351,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8338,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8377,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8416,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8455,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8494,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8533,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8572,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8611,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8650,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8689,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8728,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8767,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8806,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8845,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8884,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8923,14 +7879,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8962,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9001,14 +7945,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9040,14 +7978,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9079,14 +8011,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9118,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9157,14 +8077,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9196,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9235,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9274,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9313,14 +8209,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9352,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9391,14 +8275,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9430,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9469,14 +8341,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9508,14 +8374,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9547,14 +8407,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9586,14 +8440,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9625,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9664,14 +8506,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9703,14 +8539,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9742,14 +8572,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9781,14 +8605,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9817,19 +8635,13 @@
         <v>-11589.55526912</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
-        <v>1.040499505440158</v>
+        <v>1</v>
       </c>
       <c r="M250" t="inlineStr"/>
     </row>
@@ -9856,7 +8668,7 @@
         <v>-12999.61576912</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9889,7 +8701,7 @@
         <v>-12999.41576912</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9955,7 +8767,7 @@
         <v>-12999.41576912</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10021,7 +8833,7 @@
         <v>-16797.93516912</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10054,7 +8866,7 @@
         <v>-20822.82486912</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10087,7 +8899,7 @@
         <v>-20822.82486912</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10120,7 +8932,7 @@
         <v>-25643.23346912</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10153,7 +8965,7 @@
         <v>-26617.98166912</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10186,7 +8998,7 @@
         <v>-26162.03216912</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10219,7 +9031,7 @@
         <v>-26162.03216912</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10252,7 +9064,7 @@
         <v>-26361.53216912</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10285,7 +9097,7 @@
         <v>-26343.53216912</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10318,7 +9130,7 @@
         <v>-26321.61816912</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10351,7 +9163,7 @@
         <v>-26776.73326912</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10384,7 +9196,7 @@
         <v>-27973.88516912</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10417,7 +9229,7 @@
         <v>-27973.88516912</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10450,7 +9262,7 @@
         <v>-27918.88516912</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10483,7 +9295,7 @@
         <v>-27918.88516912</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10516,7 +9328,7 @@
         <v>-30343.11796912001</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10549,7 +9361,7 @@
         <v>-30110.30594622</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10582,7 +9394,7 @@
         <v>-30100.30594622</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10615,7 +9427,7 @@
         <v>-30100.30594622</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10648,7 +9460,7 @@
         <v>-33084.29904622</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10681,7 +9493,7 @@
         <v>-34912.68614622</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10714,7 +9526,7 @@
         <v>-33485.97704622</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10747,7 +9559,7 @@
         <v>-33491.41224622</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10780,7 +9592,7 @@
         <v>-33515.57924622</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10813,7 +9625,7 @@
         <v>-32162.67924622</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10846,7 +9658,7 @@
         <v>-36354.88664622</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10879,7 +9691,7 @@
         <v>-36165.81664622</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10912,7 +9724,7 @@
         <v>-37607.75414622</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10945,7 +9757,7 @@
         <v>-36997.75414622</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11011,7 +9823,7 @@
         <v>-38067.74724622</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11044,7 +9856,7 @@
         <v>-37164.27264622</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11077,7 +9889,7 @@
         <v>-37344.27264622</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11110,7 +9922,7 @@
         <v>-37344.27264622</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11143,7 +9955,7 @@
         <v>-38414.26584622</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11176,7 +9988,7 @@
         <v>-38108.19334622</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11209,7 +10021,7 @@
         <v>-43818.62714621999</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11242,7 +10054,7 @@
         <v>-44093.68764621999</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -12265,10 +11077,14 @@
         <v>-51091.24864622</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J324" t="n">
+        <v>1020</v>
+      </c>
       <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
@@ -12298,11 +11114,19 @@
         <v>-51091.24864622</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J325" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12334,8 +11158,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12595,547 +11425,495 @@
         <v>-50139.06264622</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C335" t="n">
+        <v>1027</v>
+      </c>
+      <c r="D335" t="n">
+        <v>1027</v>
+      </c>
+      <c r="E335" t="n">
+        <v>1022</v>
+      </c>
+      <c r="F335" t="n">
+        <v>4036.6031</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-46102.45954622</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>1022</v>
+      </c>
+      <c r="C336" t="n">
+        <v>1020</v>
+      </c>
+      <c r="D336" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E336" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F336" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-47902.45954622</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>1022</v>
+      </c>
+      <c r="C337" t="n">
+        <v>1027</v>
+      </c>
+      <c r="D337" t="n">
+        <v>1027</v>
+      </c>
+      <c r="E337" t="n">
+        <v>1022</v>
+      </c>
+      <c r="F337" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="G337" t="n">
+        <v>-47847.35954622</v>
+      </c>
+      <c r="H337" t="n">
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J337" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>1027</v>
+      </c>
+      <c r="C338" t="n">
+        <v>1030</v>
+      </c>
+      <c r="D338" t="n">
+        <v>1031</v>
+      </c>
+      <c r="E338" t="n">
+        <v>1027</v>
+      </c>
+      <c r="F338" t="n">
+        <v>370</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-47477.35954622</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>1026</v>
+      </c>
+      <c r="C339" t="n">
+        <v>1026</v>
+      </c>
+      <c r="D339" t="n">
+        <v>1026</v>
+      </c>
+      <c r="E339" t="n">
+        <v>1026</v>
+      </c>
+      <c r="F339" t="n">
+        <v>28</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-47505.35954622</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
         <v>1028</v>
       </c>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
+      <c r="C340" t="n">
+        <v>1030</v>
+      </c>
+      <c r="D340" t="n">
+        <v>1030</v>
+      </c>
+      <c r="E340" t="n">
+        <v>1028</v>
+      </c>
+      <c r="F340" t="n">
+        <v>75</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-47430.35954622</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>1027</v>
+      </c>
+      <c r="C341" t="n">
+        <v>1029</v>
+      </c>
+      <c r="D341" t="n">
+        <v>1030</v>
+      </c>
+      <c r="E341" t="n">
+        <v>1027</v>
+      </c>
+      <c r="F341" t="n">
+        <v>3880.3998</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-51310.75934622</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>1027</v>
+      </c>
+      <c r="C342" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D342" t="n">
+        <v>1027</v>
+      </c>
+      <c r="E342" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F342" t="n">
+        <v>4281.8007</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-55592.56004622</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C343" t="n">
+        <v>1028</v>
+      </c>
+      <c r="D343" t="n">
+        <v>1029</v>
+      </c>
+      <c r="E343" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F343" t="n">
+        <v>1346.1804</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-54246.37964622</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>1027</v>
+      </c>
+      <c r="C344" t="n">
+        <v>1026</v>
+      </c>
+      <c r="D344" t="n">
+        <v>1027</v>
+      </c>
+      <c r="E344" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F344" t="n">
+        <v>838.9528</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-55085.33244622</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D345" t="n">
+        <v>1025</v>
+      </c>
+      <c r="E345" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F345" t="n">
+        <v>813.49</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-55898.82244622</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>1023</v>
+      </c>
+      <c r="C346" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D346" t="n">
+        <v>1023</v>
+      </c>
+      <c r="E346" t="n">
+        <v>1023</v>
+      </c>
+      <c r="F346" t="n">
+        <v>46.1467</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-55944.96914622</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>1023</v>
+      </c>
+      <c r="C347" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D347" t="n">
+        <v>1023</v>
+      </c>
+      <c r="E347" t="n">
+        <v>1023</v>
+      </c>
+      <c r="F347" t="n">
+        <v>18.9058</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-55944.96914622</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C348" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D348" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E348" t="n">
+        <v>1023</v>
+      </c>
+      <c r="F348" t="n">
+        <v>807.9046</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-55944.96914622</v>
+      </c>
+      <c r="H348" t="n">
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>1023</v>
+      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>1024</v>
-      </c>
-      <c r="C335" t="n">
-        <v>1027</v>
-      </c>
-      <c r="D335" t="n">
-        <v>1027</v>
-      </c>
-      <c r="E335" t="n">
-        <v>1022</v>
-      </c>
-      <c r="F335" t="n">
-        <v>4036.6031</v>
-      </c>
-      <c r="G335" t="n">
-        <v>-46102.45954622</v>
-      </c>
-      <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>1022</v>
-      </c>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>1022</v>
-      </c>
-      <c r="C336" t="n">
-        <v>1020</v>
-      </c>
-      <c r="D336" t="n">
-        <v>1022</v>
-      </c>
-      <c r="E336" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F336" t="n">
-        <v>1800</v>
-      </c>
-      <c r="G336" t="n">
-        <v>-47902.45954622</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>1022</v>
-      </c>
-      <c r="C337" t="n">
-        <v>1027</v>
-      </c>
-      <c r="D337" t="n">
-        <v>1027</v>
-      </c>
-      <c r="E337" t="n">
-        <v>1022</v>
-      </c>
-      <c r="F337" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="G337" t="n">
-        <v>-47847.35954622</v>
-      </c>
-      <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>1027</v>
-      </c>
-      <c r="C338" t="n">
-        <v>1030</v>
-      </c>
-      <c r="D338" t="n">
-        <v>1031</v>
-      </c>
-      <c r="E338" t="n">
-        <v>1027</v>
-      </c>
-      <c r="F338" t="n">
-        <v>370</v>
-      </c>
-      <c r="G338" t="n">
-        <v>-47477.35954622</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>1026</v>
-      </c>
-      <c r="C339" t="n">
-        <v>1026</v>
-      </c>
-      <c r="D339" t="n">
-        <v>1026</v>
-      </c>
-      <c r="E339" t="n">
-        <v>1026</v>
-      </c>
-      <c r="F339" t="n">
-        <v>28</v>
-      </c>
-      <c r="G339" t="n">
-        <v>-47505.35954622</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>1028</v>
-      </c>
-      <c r="C340" t="n">
-        <v>1030</v>
-      </c>
-      <c r="D340" t="n">
-        <v>1030</v>
-      </c>
-      <c r="E340" t="n">
-        <v>1028</v>
-      </c>
-      <c r="F340" t="n">
-        <v>75</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-47430.35954622</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>1027</v>
-      </c>
-      <c r="C341" t="n">
-        <v>1029</v>
-      </c>
-      <c r="D341" t="n">
-        <v>1030</v>
-      </c>
-      <c r="E341" t="n">
-        <v>1027</v>
-      </c>
-      <c r="F341" t="n">
-        <v>3880.3998</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-51310.75934622</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>1027</v>
-      </c>
-      <c r="C342" t="n">
-        <v>1025</v>
-      </c>
-      <c r="D342" t="n">
-        <v>1027</v>
-      </c>
-      <c r="E342" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F342" t="n">
-        <v>4281.8007</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-55592.56004622</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>1025</v>
-      </c>
-      <c r="C343" t="n">
-        <v>1028</v>
-      </c>
-      <c r="D343" t="n">
-        <v>1029</v>
-      </c>
-      <c r="E343" t="n">
-        <v>1025</v>
-      </c>
-      <c r="F343" t="n">
-        <v>1346.1804</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-54246.37964622</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>1027</v>
-      </c>
-      <c r="C344" t="n">
-        <v>1026</v>
-      </c>
-      <c r="D344" t="n">
-        <v>1027</v>
-      </c>
-      <c r="E344" t="n">
-        <v>1024</v>
-      </c>
-      <c r="F344" t="n">
-        <v>838.9528</v>
-      </c>
-      <c r="G344" t="n">
-        <v>-55085.33244622</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>1025</v>
-      </c>
-      <c r="C345" t="n">
-        <v>1025</v>
-      </c>
-      <c r="D345" t="n">
-        <v>1025</v>
-      </c>
-      <c r="E345" t="n">
-        <v>1024</v>
-      </c>
-      <c r="F345" t="n">
-        <v>813.49</v>
-      </c>
-      <c r="G345" t="n">
-        <v>-55898.82244622</v>
-      </c>
-      <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>1026</v>
-      </c>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>1023</v>
-      </c>
-      <c r="C346" t="n">
-        <v>1023</v>
-      </c>
-      <c r="D346" t="n">
-        <v>1023</v>
-      </c>
-      <c r="E346" t="n">
-        <v>1023</v>
-      </c>
-      <c r="F346" t="n">
-        <v>46.1467</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-55944.96914622</v>
-      </c>
-      <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>1025</v>
-      </c>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>1023</v>
-      </c>
-      <c r="C347" t="n">
-        <v>1023</v>
-      </c>
-      <c r="D347" t="n">
-        <v>1023</v>
-      </c>
-      <c r="E347" t="n">
-        <v>1023</v>
-      </c>
-      <c r="F347" t="n">
-        <v>18.9058</v>
-      </c>
-      <c r="G347" t="n">
-        <v>-55944.96914622</v>
-      </c>
-      <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>1023</v>
-      </c>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>1024</v>
-      </c>
-      <c r="C348" t="n">
-        <v>1023</v>
-      </c>
-      <c r="D348" t="n">
-        <v>1024</v>
-      </c>
-      <c r="E348" t="n">
-        <v>1023</v>
-      </c>
-      <c r="F348" t="n">
-        <v>807.9046</v>
-      </c>
-      <c r="G348" t="n">
-        <v>-55944.96914622</v>
-      </c>
-      <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>1023</v>
-      </c>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13164,11 +11942,9 @@
         <v>-55670.52694622</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>1023</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
@@ -13203,9 +11979,11 @@
         <v>-55756.93124622</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>1024</v>
+      </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
@@ -13318,11 +12096,9 @@
         <v>-56475.81604622</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>1024</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
@@ -13396,11 +12172,9 @@
         <v>-55150.34914622</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>1026</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
@@ -13435,11 +12209,9 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>1028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
@@ -13696,11 +12468,9 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>1031</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -13735,11 +12505,9 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>1031</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -13774,11 +12542,9 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>1031</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -13813,11 +12579,9 @@
         <v>-54873.39034622</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>1031</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -13852,11 +12616,9 @@
         <v>-54873.39034622</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>1035</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -13928,11 +12690,9 @@
         <v>-54459.86044622</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>1035</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
@@ -13967,11 +12727,9 @@
         <v>-54458.86044622</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>1040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
@@ -14080,11 +12838,9 @@
         <v>-54340.90934622</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>1039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
@@ -14119,11 +12875,9 @@
         <v>-53840.90934622</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>1039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
@@ -14158,11 +12912,9 @@
         <v>-53810.67974622</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>1042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -14197,11 +12949,9 @@
         <v>-53810.67974622</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>1043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
@@ -14236,11 +12986,9 @@
         <v>-53771.23984622001</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>1043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
@@ -14275,11 +13023,9 @@
         <v>-53662.14284622001</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>1044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
@@ -14314,11 +13060,9 @@
         <v>-52753.98804622001</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>1045</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
@@ -14353,11 +13097,9 @@
         <v>-50144.72414622001</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>1046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
@@ -15036,6 +13778,6 @@
       <c r="M398" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-15 BackTest WAVES.xlsx
@@ -451,7 +451,7 @@
         <v>15357.34859999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>10269.65309999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>5698.979699999994</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>3353.955899999994</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2984.580500000005</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-4541.042200000005</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-5976.297300000006</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-6084.151100000005</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-8883.439000000006</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-8894.035900000006</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-8894.035900000006</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-8838.504300000006</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-8688.504300000006</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-8688.504300000006</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-8688.504300000006</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-14797.1647</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-13812.46580000001</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-14334.4605</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-14484.0855</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-14484.682</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-13677.7348</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-21136.35070000001</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-19986.35070000001</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>1648.002530879996</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>4931.752330879995</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>9345.916230879995</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>7166.318630879995</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>3000.215230879995</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-3225.521469120005</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-12278.52596912</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-11589.55526912</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-11589.55526912</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-12999.61576912</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-12999.41576912</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-12999.41576912</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-12999.41576912</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-16848.13516912</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-16797.93516912</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-20822.82486912</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-20822.82486912</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-25643.23346912</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-26162.03216912</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-26361.53216912</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-30343.11796912001</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-30100.30594622</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -11077,14 +11077,10 @@
         <v>-51091.24864622</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J324" t="n">
-        <v>1020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
@@ -11114,19 +11110,11 @@
         <v>-51091.24864622</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J325" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11158,14 +11146,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11870,10 +11852,14 @@
         <v>-55944.96914622</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>1023</v>
+      </c>
+      <c r="J347" t="n">
+        <v>1023</v>
+      </c>
       <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
@@ -11908,7 +11894,9 @@
       <c r="I348" t="n">
         <v>1023</v>
       </c>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>1023</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -11942,10 +11930,14 @@
         <v>-55670.52694622</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>1023</v>
+      </c>
+      <c r="J349" t="n">
+        <v>1023</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11984,7 +11976,9 @@
       <c r="I350" t="n">
         <v>1024</v>
       </c>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>1023</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12023,7 +12017,9 @@
       <c r="I351" t="n">
         <v>1021</v>
       </c>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>1023</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12062,7 +12058,9 @@
       <c r="I352" t="n">
         <v>1025</v>
       </c>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>1023</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12096,10 +12094,14 @@
         <v>-56475.81604622</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>1024</v>
+      </c>
+      <c r="J353" t="n">
+        <v>1023</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12138,7 +12140,9 @@
       <c r="I354" t="n">
         <v>1022</v>
       </c>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>1023</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12172,10 +12176,14 @@
         <v>-55150.34914622</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>1026</v>
+      </c>
+      <c r="J355" t="n">
+        <v>1023</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12209,10 +12217,14 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>1028</v>
+      </c>
+      <c r="J356" t="n">
+        <v>1023</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12246,10 +12258,14 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>1031</v>
+      </c>
+      <c r="J357" t="n">
+        <v>1023</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12283,10 +12299,14 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>1031</v>
+      </c>
+      <c r="J358" t="n">
+        <v>1023</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12320,10 +12340,14 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>1031</v>
+      </c>
+      <c r="J359" t="n">
+        <v>1023</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12357,10 +12381,14 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>1031</v>
+      </c>
+      <c r="J360" t="n">
+        <v>1023</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12394,10 +12422,14 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>1031</v>
+      </c>
+      <c r="J361" t="n">
+        <v>1023</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12431,10 +12463,14 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>1031</v>
+      </c>
+      <c r="J362" t="n">
+        <v>1023</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12468,10 +12504,14 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>1031</v>
+      </c>
+      <c r="J363" t="n">
+        <v>1023</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12505,10 +12545,14 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>1031</v>
+      </c>
+      <c r="J364" t="n">
+        <v>1023</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12542,10 +12586,14 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>1031</v>
+      </c>
+      <c r="J365" t="n">
+        <v>1023</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12579,10 +12627,14 @@
         <v>-54873.39034622</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>1031</v>
+      </c>
+      <c r="J366" t="n">
+        <v>1023</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12616,10 +12668,14 @@
         <v>-54873.39034622</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>1035</v>
+      </c>
+      <c r="J367" t="n">
+        <v>1023</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12653,10 +12709,14 @@
         <v>-54873.39034622</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>1035</v>
+      </c>
+      <c r="J368" t="n">
+        <v>1023</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12690,10 +12750,14 @@
         <v>-54459.86044622</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>1035</v>
+      </c>
+      <c r="J369" t="n">
+        <v>1023</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12727,10 +12791,14 @@
         <v>-54458.86044622</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>1040</v>
+      </c>
+      <c r="J370" t="n">
+        <v>1023</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12764,10 +12832,14 @@
         <v>-54315.90934622</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>1042</v>
+      </c>
+      <c r="J371" t="n">
+        <v>1023</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12801,10 +12873,14 @@
         <v>-54340.90934622</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>1043</v>
+      </c>
+      <c r="J372" t="n">
+        <v>1023</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12838,10 +12914,14 @@
         <v>-54340.90934622</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>1039</v>
+      </c>
+      <c r="J373" t="n">
+        <v>1023</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12875,10 +12955,14 @@
         <v>-53840.90934622</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>1039</v>
+      </c>
+      <c r="J374" t="n">
+        <v>1023</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12912,10 +12996,14 @@
         <v>-53810.67974622</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>1042</v>
+      </c>
+      <c r="J375" t="n">
+        <v>1023</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12949,10 +13037,14 @@
         <v>-53810.67974622</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>1043</v>
+      </c>
+      <c r="J376" t="n">
+        <v>1023</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12986,10 +13078,14 @@
         <v>-53771.23984622001</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>1043</v>
+      </c>
+      <c r="J377" t="n">
+        <v>1023</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13023,10 +13119,14 @@
         <v>-53662.14284622001</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>1044</v>
+      </c>
+      <c r="J378" t="n">
+        <v>1023</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13060,10 +13160,14 @@
         <v>-52753.98804622001</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>1045</v>
+      </c>
+      <c r="J379" t="n">
+        <v>1023</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13097,10 +13201,14 @@
         <v>-50144.72414622001</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>1046</v>
+      </c>
+      <c r="J380" t="n">
+        <v>1023</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13134,10 +13242,14 @@
         <v>-44615.14004622001</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>1048</v>
+      </c>
+      <c r="J381" t="n">
+        <v>1023</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13174,7 +13286,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>1023</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13211,7 +13325,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>1023</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13248,7 +13364,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>1023</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13285,7 +13403,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>1023</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13322,7 +13442,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>1023</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13359,7 +13481,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>1023</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13396,7 +13520,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>1023</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13433,7 +13559,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>1023</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13470,7 +13598,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>1023</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13507,7 +13637,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>1023</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13544,7 +13676,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>1023</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13581,7 +13715,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>1023</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13618,7 +13754,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>1023</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13655,7 +13793,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>1023</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13692,7 +13832,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>1023</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13726,10 +13868,14 @@
         <v>-42437.26975512002</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>1041</v>
+      </c>
+      <c r="J397" t="n">
+        <v>1023</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13766,7 +13912,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>1023</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
